--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967F594-65D2-4990-A4FB-06C4C7127ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB24686-4A41-4EE2-B19D-2A8DB7E2BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="420" windowWidth="11870" windowHeight="8960" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>public</t>
   </si>
@@ -357,13 +357,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>詳細設計書_ユーザマスタサービスクラス</t>
-    <rPh sb="0" eb="5">
-      <t>ショウサイセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>社員ID</t>
   </si>
   <si>
@@ -502,6 +495,23 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サービス基底設計書</t>
+    <rPh sb="4" eb="6">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1033,6 +1043,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,9 +1097,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,73 +1106,14 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1148,6 +1135,29 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1482,247 +1492,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="A1" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="48" t="s">
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="51" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51" t="s">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51" t="s">
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="52" t="s">
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="53">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="65">
         <v>45519</v>
       </c>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="50" t="s">
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="54">
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="66">
         <v>45518</v>
       </c>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="54"/>
-      <c r="BN3" s="54"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="54"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1789,215 +1799,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55"/>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55"/>
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="55"/>
-      <c r="BD6" s="55"/>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="55"/>
-      <c r="BG6" s="55"/>
-      <c r="BH6" s="55"/>
-      <c r="BI6" s="55"/>
-      <c r="BJ6" s="55"/>
-      <c r="BK6" s="55"/>
-      <c r="BL6" s="55"/>
-      <c r="BM6" s="55"/>
-      <c r="BN6" s="55"/>
-      <c r="BO6" s="55"/>
+      <c r="C6" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="55"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="55"/>
-      <c r="BF7" s="55"/>
-      <c r="BG7" s="55"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="55"/>
-      <c r="BK7" s="55"/>
-      <c r="BL7" s="55"/>
-      <c r="BM7" s="55"/>
-      <c r="BN7" s="55"/>
-      <c r="BO7" s="55"/>
+      <c r="C7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="55"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="55"/>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="55"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="55"/>
-      <c r="BK8" s="55"/>
-      <c r="BL8" s="55"/>
-      <c r="BM8" s="55"/>
-      <c r="BN8" s="55"/>
-      <c r="BO8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2050,787 +2060,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="57" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="58"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="58"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="58"/>
-      <c r="BK11" s="58"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="58"/>
-      <c r="BN11" s="58"/>
-      <c r="BO11" s="58"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="48"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="48"/>
+      <c r="BM12" s="48"/>
+      <c r="BN12" s="48"/>
+      <c r="BO12" s="48"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="48"/>
+      <c r="BO13" s="48"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="65" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
-      <c r="BD14" s="65"/>
-      <c r="BE14" s="65"/>
-      <c r="BF14" s="65"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="65"/>
-      <c r="BJ14" s="65"/>
-      <c r="BK14" s="65"/>
-      <c r="BL14" s="65"/>
-      <c r="BM14" s="65"/>
-      <c r="BN14" s="65"/>
-      <c r="BO14" s="65"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
+      <c r="BC14" s="55"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="55"/>
+      <c r="BF14" s="55"/>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="55"/>
+      <c r="BI14" s="55"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="55"/>
+      <c r="BL14" s="55"/>
+      <c r="BM14" s="55"/>
+      <c r="BN14" s="55"/>
+      <c r="BO14" s="55"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="66"/>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="BH15" s="66"/>
-      <c r="BI15" s="66"/>
-      <c r="BJ15" s="66"/>
-      <c r="BK15" s="66"/>
-      <c r="BL15" s="66"/>
-      <c r="BM15" s="66"/>
-      <c r="BN15" s="66"/>
-      <c r="BO15" s="66"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
-      <c r="BA16" s="66"/>
-      <c r="BB16" s="66"/>
-      <c r="BC16" s="66"/>
-      <c r="BD16" s="66"/>
-      <c r="BE16" s="66"/>
-      <c r="BF16" s="66"/>
-      <c r="BG16" s="66"/>
-      <c r="BH16" s="66"/>
-      <c r="BI16" s="66"/>
-      <c r="BJ16" s="66"/>
-      <c r="BK16" s="66"/>
-      <c r="BL16" s="66"/>
-      <c r="BM16" s="66"/>
-      <c r="BN16" s="66"/>
-      <c r="BO16" s="66"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="56"/>
+      <c r="BL16" s="56"/>
+      <c r="BM16" s="56"/>
+      <c r="BN16" s="56"/>
+      <c r="BO16" s="56"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="66"/>
-      <c r="BB17" s="66"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="66"/>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="BH17" s="66"/>
-      <c r="BI17" s="66"/>
-      <c r="BJ17" s="66"/>
-      <c r="BK17" s="66"/>
-      <c r="BL17" s="66"/>
-      <c r="BM17" s="66"/>
-      <c r="BN17" s="66"/>
-      <c r="BO17" s="66"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="56"/>
+      <c r="BM17" s="56"/>
+      <c r="BN17" s="56"/>
+      <c r="BO17" s="56"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
-      <c r="BA18" s="66"/>
-      <c r="BB18" s="66"/>
-      <c r="BC18" s="66"/>
-      <c r="BD18" s="66"/>
-      <c r="BE18" s="66"/>
-      <c r="BF18" s="66"/>
-      <c r="BG18" s="66"/>
-      <c r="BH18" s="66"/>
-      <c r="BI18" s="66"/>
-      <c r="BJ18" s="66"/>
-      <c r="BK18" s="66"/>
-      <c r="BL18" s="66"/>
-      <c r="BM18" s="66"/>
-      <c r="BN18" s="66"/>
-      <c r="BO18" s="66"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
+      <c r="BL18" s="56"/>
+      <c r="BM18" s="56"/>
+      <c r="BN18" s="56"/>
+      <c r="BO18" s="56"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="BH19" s="66"/>
-      <c r="BI19" s="66"/>
-      <c r="BJ19" s="66"/>
-      <c r="BK19" s="66"/>
-      <c r="BL19" s="66"/>
-      <c r="BM19" s="66"/>
-      <c r="BN19" s="66"/>
-      <c r="BO19" s="66"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="56"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="66"/>
-      <c r="BJ20" s="66"/>
-      <c r="BK20" s="66"/>
-      <c r="BL20" s="66"/>
-      <c r="BM20" s="66"/>
-      <c r="BN20" s="66"/>
-      <c r="BO20" s="66"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="56"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="56"/>
-      <c r="AU21" s="56"/>
-      <c r="AV21" s="56"/>
-      <c r="AW21" s="56"/>
-      <c r="AX21" s="56"/>
-      <c r="AY21" s="56"/>
-      <c r="AZ21" s="56"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="56"/>
-      <c r="BC21" s="56"/>
-      <c r="BD21" s="56"/>
-      <c r="BE21" s="56"/>
-      <c r="BF21" s="56"/>
-      <c r="BG21" s="56"/>
-      <c r="BH21" s="56"/>
-      <c r="BI21" s="56"/>
-      <c r="BJ21" s="56"/>
-      <c r="BK21" s="56"/>
-      <c r="BL21" s="56"/>
-      <c r="BM21" s="56"/>
-      <c r="BN21" s="56"/>
-      <c r="BO21" s="56"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="58"/>
+      <c r="AS21" s="58"/>
+      <c r="AT21" s="58"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="58"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2860,742 +2870,742 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="58" t="s">
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="57" t="s">
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57" t="s">
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57"/>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="46"/>
+      <c r="BI25" s="46"/>
+      <c r="BJ25" s="46"/>
+      <c r="BK25" s="46"/>
+      <c r="BL25" s="46"/>
+      <c r="BM25" s="46"/>
+      <c r="BN25" s="46"/>
+      <c r="BO25" s="46"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="51">
+      <c r="C26" s="47">
         <v>1</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="62" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="62" t="s">
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="63"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63"/>
-      <c r="AX26" s="63"/>
-      <c r="AY26" s="63"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="64"/>
-      <c r="BD26" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="63"/>
-      <c r="BH26" s="63"/>
-      <c r="BI26" s="63"/>
-      <c r="BJ26" s="63"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63"/>
-      <c r="BO26" s="64"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="50"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="50"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="50"/>
+      <c r="BK26" s="50"/>
+      <c r="BL26" s="50"/>
+      <c r="BM26" s="50"/>
+      <c r="BN26" s="50"/>
+      <c r="BO26" s="51"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="51">
+      <c r="C27" s="47">
         <v>2</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="46"/>
+      <c r="AZ27" s="46"/>
+      <c r="BA27" s="46"/>
+      <c r="BB27" s="46"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="46"/>
+      <c r="BG27" s="46"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="46"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="46"/>
+      <c r="BM27" s="46"/>
+      <c r="BN27" s="46"/>
+      <c r="BO27" s="46"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="51">
+      <c r="C28" s="47">
         <v>3</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+      <c r="BB28" s="46"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="46"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="46"/>
+      <c r="BM28" s="46"/>
+      <c r="BN28" s="46"/>
+      <c r="BO28" s="46"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="51">
+      <c r="C29" s="47">
         <v>4</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="46"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="46"/>
+      <c r="AS29" s="46"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="46"/>
+      <c r="AV29" s="46"/>
+      <c r="AW29" s="46"/>
+      <c r="AX29" s="46"/>
+      <c r="AY29" s="46"/>
+      <c r="AZ29" s="46"/>
+      <c r="BA29" s="46"/>
+      <c r="BB29" s="46"/>
+      <c r="BC29" s="46"/>
+      <c r="BD29" s="46"/>
+      <c r="BE29" s="46"/>
+      <c r="BF29" s="46"/>
+      <c r="BG29" s="46"/>
+      <c r="BH29" s="46"/>
+      <c r="BI29" s="46"/>
+      <c r="BJ29" s="46"/>
+      <c r="BK29" s="46"/>
+      <c r="BL29" s="46"/>
+      <c r="BM29" s="46"/>
+      <c r="BN29" s="46"/>
+      <c r="BO29" s="46"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="51">
+      <c r="C30" s="47">
         <v>5</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
+      <c r="AT30" s="46"/>
+      <c r="AU30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="46"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="46"/>
+      <c r="BE30" s="46"/>
+      <c r="BF30" s="46"/>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="46"/>
+      <c r="BJ30" s="46"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="46"/>
+      <c r="BM30" s="46"/>
+      <c r="BN30" s="46"/>
+      <c r="BO30" s="46"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="51">
+      <c r="C31" s="47">
         <v>6</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
+      <c r="AS31" s="46"/>
+      <c r="AT31" s="46"/>
+      <c r="AU31" s="46"/>
+      <c r="AV31" s="46"/>
+      <c r="AW31" s="46"/>
+      <c r="AX31" s="46"/>
+      <c r="AY31" s="46"/>
+      <c r="AZ31" s="46"/>
+      <c r="BA31" s="46"/>
+      <c r="BB31" s="46"/>
+      <c r="BC31" s="46"/>
+      <c r="BD31" s="46"/>
+      <c r="BE31" s="46"/>
+      <c r="BF31" s="46"/>
+      <c r="BG31" s="46"/>
+      <c r="BH31" s="46"/>
+      <c r="BI31" s="46"/>
+      <c r="BJ31" s="46"/>
+      <c r="BK31" s="46"/>
+      <c r="BL31" s="46"/>
+      <c r="BM31" s="46"/>
+      <c r="BN31" s="46"/>
+      <c r="BO31" s="46"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <v>7</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="57"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="57"/>
-      <c r="AZ32" s="57"/>
-      <c r="BA32" s="57"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="57"/>
-      <c r="BD32" s="57"/>
-      <c r="BE32" s="57"/>
-      <c r="BF32" s="57"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="57"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="57"/>
-      <c r="BK32" s="57"/>
-      <c r="BL32" s="57"/>
-      <c r="BM32" s="57"/>
-      <c r="BN32" s="57"/>
-      <c r="BO32" s="57"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+      <c r="AY32" s="46"/>
+      <c r="AZ32" s="46"/>
+      <c r="BA32" s="46"/>
+      <c r="BB32" s="46"/>
+      <c r="BC32" s="46"/>
+      <c r="BD32" s="46"/>
+      <c r="BE32" s="46"/>
+      <c r="BF32" s="46"/>
+      <c r="BG32" s="46"/>
+      <c r="BH32" s="46"/>
+      <c r="BI32" s="46"/>
+      <c r="BJ32" s="46"/>
+      <c r="BK32" s="46"/>
+      <c r="BL32" s="46"/>
+      <c r="BM32" s="46"/>
+      <c r="BN32" s="46"/>
+      <c r="BO32" s="46"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="51">
+      <c r="C33" s="47">
         <v>8</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="46"/>
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
+      <c r="BN33" s="46"/>
+      <c r="BO33" s="46"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="51">
+      <c r="C34" s="47">
         <v>9</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
+      <c r="AS34" s="46"/>
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="46"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
+      <c r="BB34" s="46"/>
+      <c r="BC34" s="46"/>
+      <c r="BD34" s="46"/>
+      <c r="BE34" s="46"/>
+      <c r="BF34" s="46"/>
+      <c r="BG34" s="46"/>
+      <c r="BH34" s="46"/>
+      <c r="BI34" s="46"/>
+      <c r="BJ34" s="46"/>
+      <c r="BK34" s="46"/>
+      <c r="BL34" s="46"/>
+      <c r="BM34" s="46"/>
+      <c r="BN34" s="46"/>
+      <c r="BO34" s="46"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4194,42 +4204,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4246,48 +4262,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4326,247 +4336,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="80" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81" t="s">
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="78" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="71" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="83" t="s">
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="83"/>
-      <c r="BL2" s="83"/>
-      <c r="BM2" s="83"/>
-      <c r="BN2" s="83"/>
-      <c r="BO2" s="83"/>
-      <c r="BP2" s="83"/>
-      <c r="BQ2" s="83"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="77" t="s">
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="85">
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="76">
         <v>45510</v>
       </c>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="77" t="s">
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="84">
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="75">
         <v>45533</v>
       </c>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4591,96 +4601,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="76" t="s">
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="74" t="s">
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="74"/>
-      <c r="BF6" s="74"/>
-      <c r="BG6" s="74"/>
-      <c r="BH6" s="74"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="74"/>
-      <c r="BK6" s="74"/>
-      <c r="BL6" s="74"/>
-      <c r="BM6" s="74"/>
-      <c r="BN6" s="74"/>
-      <c r="BO6" s="74"/>
-      <c r="BP6" s="74"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
+      <c r="BA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="78"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="78"/>
+      <c r="BI6" s="78"/>
+      <c r="BJ6" s="78"/>
+      <c r="BK6" s="78"/>
+      <c r="BL6" s="78"/>
+      <c r="BM6" s="78"/>
+      <c r="BN6" s="78"/>
+      <c r="BO6" s="78"/>
+      <c r="BP6" s="78"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="41" t="s">
         <v>51</v>
       </c>
@@ -4711,34 +4721,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="74"/>
-      <c r="BN7" s="74"/>
-      <c r="BO7" s="74"/>
-      <c r="BP7" s="74"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="78"/>
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4752,91 +4762,91 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="69" t="s">
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69" t="s">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="80"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="80"/>
+      <c r="AP10" s="80"/>
+      <c r="AQ10" s="80"/>
+      <c r="AR10" s="80"/>
+      <c r="AS10" s="80"/>
+      <c r="AT10" s="80"/>
+      <c r="AU10" s="80"/>
+      <c r="AV10" s="80"/>
+      <c r="AW10" s="80"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" s="80"/>
+      <c r="AZ10" s="80"/>
+      <c r="BA10" s="80"/>
+      <c r="BB10" s="80"/>
+      <c r="BC10" s="80"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="80"/>
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="80"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
-      <c r="BP10" s="69"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="80"/>
+      <c r="BM10" s="80"/>
+      <c r="BN10" s="80"/>
+      <c r="BO10" s="80"/>
+      <c r="BP10" s="80"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4850,11 +4860,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="71" t="s">
+      <c r="T11" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4904,12 +4914,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4923,9 +4933,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -4974,12 +4984,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -4993,9 +5003,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5044,12 +5054,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5063,9 +5073,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5114,12 +5124,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5133,9 +5143,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5195,90 +5205,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="71" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="69" t="s">
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="69"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69" t="s">
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80"/>
+      <c r="AS18" s="80"/>
+      <c r="AT18" s="80"/>
+      <c r="AU18" s="80"/>
+      <c r="AV18" s="80"/>
+      <c r="AW18" s="80"/>
+      <c r="AX18" s="80"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="80"/>
+      <c r="BA18" s="80"/>
+      <c r="BB18" s="80"/>
+      <c r="BC18" s="80"/>
+      <c r="BD18" s="80"/>
+      <c r="BE18" s="80"/>
+      <c r="BF18" s="80"/>
+      <c r="BG18" s="80"/>
+      <c r="BH18" s="80"/>
+      <c r="BI18" s="80"/>
+      <c r="BJ18" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="69"/>
+      <c r="BK18" s="80"/>
+      <c r="BL18" s="80"/>
+      <c r="BM18" s="80"/>
+      <c r="BN18" s="80"/>
+      <c r="BO18" s="80"/>
+      <c r="BP18" s="80"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5292,11 +5302,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
       <c r="W19" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5566,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AG24" s="23"/>
@@ -5581,270 +5591,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="72" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="72"/>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="72"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="72"/>
-      <c r="AZ26" s="72"/>
-      <c r="BA26" s="72"/>
-      <c r="BB26" s="72"/>
-      <c r="BC26" s="72"/>
-      <c r="BD26" s="72"/>
-      <c r="BE26" s="72"/>
-      <c r="BF26" s="72"/>
-      <c r="BG26" s="72"/>
-      <c r="BH26" s="72"/>
-      <c r="BI26" s="72"/>
-      <c r="BJ26" s="72"/>
-      <c r="BK26" s="72"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="85"/>
+      <c r="AL26" s="85"/>
+      <c r="AM26" s="85"/>
+      <c r="AN26" s="85"/>
+      <c r="AO26" s="85"/>
+      <c r="AP26" s="85"/>
+      <c r="AQ26" s="85"/>
+      <c r="AR26" s="85"/>
+      <c r="AS26" s="85"/>
+      <c r="AT26" s="85"/>
+      <c r="AU26" s="85"/>
+      <c r="AV26" s="85"/>
+      <c r="AW26" s="85"/>
+      <c r="AX26" s="85"/>
+      <c r="AY26" s="85"/>
+      <c r="AZ26" s="85"/>
+      <c r="BA26" s="85"/>
+      <c r="BB26" s="85"/>
+      <c r="BC26" s="85"/>
+      <c r="BD26" s="85"/>
+      <c r="BE26" s="85"/>
+      <c r="BF26" s="85"/>
+      <c r="BG26" s="85"/>
+      <c r="BH26" s="85"/>
+      <c r="BI26" s="85"/>
+      <c r="BJ26" s="85"/>
+      <c r="BK26" s="85"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68" t="s">
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="68"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="84"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="84"/>
+      <c r="AS27" s="84"/>
+      <c r="AT27" s="84"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
+      <c r="AZ27" s="84"/>
+      <c r="BA27" s="84"/>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="84"/>
+      <c r="BD27" s="84"/>
+      <c r="BE27" s="84"/>
+      <c r="BF27" s="84"/>
+      <c r="BG27" s="84"/>
+      <c r="BH27" s="84"/>
+      <c r="BI27" s="84"/>
+      <c r="BJ27" s="84"/>
+      <c r="BK27" s="84"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="68"/>
-      <c r="AL28" s="68"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="68"/>
-      <c r="AO28" s="68"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="68"/>
-      <c r="BG28" s="68"/>
-      <c r="BH28" s="68"/>
-      <c r="BI28" s="68"/>
-      <c r="BJ28" s="68"/>
-      <c r="BK28" s="68"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="84"/>
+      <c r="AH28" s="84"/>
+      <c r="AI28" s="84"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="84"/>
+      <c r="AM28" s="84"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="84"/>
+      <c r="AP28" s="84"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="84"/>
+      <c r="AS28" s="84"/>
+      <c r="AT28" s="84"/>
+      <c r="AU28" s="84"/>
+      <c r="AV28" s="84"/>
+      <c r="AW28" s="84"/>
+      <c r="AX28" s="84"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="84"/>
+      <c r="BA28" s="84"/>
+      <c r="BB28" s="84"/>
+      <c r="BC28" s="84"/>
+      <c r="BD28" s="84"/>
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
+      <c r="BG28" s="84"/>
+      <c r="BH28" s="84"/>
+      <c r="BI28" s="84"/>
+      <c r="BJ28" s="84"/>
+      <c r="BK28" s="84"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68" t="s">
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="68"/>
-      <c r="AL29" s="68"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="68"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="68"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="68"/>
-      <c r="BI29" s="68"/>
-      <c r="BJ29" s="68"/>
-      <c r="BK29" s="68"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="84"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="84"/>
+      <c r="BA29" s="84"/>
+      <c r="BB29" s="84"/>
+      <c r="BC29" s="84"/>
+      <c r="BD29" s="84"/>
+      <c r="BE29" s="84"/>
+      <c r="BF29" s="84"/>
+      <c r="BG29" s="84"/>
+      <c r="BH29" s="84"/>
+      <c r="BI29" s="84"/>
+      <c r="BJ29" s="84"/>
+      <c r="BK29" s="84"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -5913,7 +5923,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD31" s="14"/>
       <c r="BP31" s="22"/>
@@ -5929,7 +5939,7 @@
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -5995,7 +6005,7 @@
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -6332,26 +6342,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6368,21 +6373,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6421,29 +6431,29 @@
         <v>44</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6451,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="42"/>
     </row>

--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A6CD03-F5A1-46FC-A324-CAAD0D0FF6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E1044-2CAE-40AC-9695-727A07C1C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="12090" windowHeight="9780" firstSheet="1" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -758,39 +758,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>項目1で作成したリスト&lt;全社員ID情報取得&gt;に格納する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ゼンシャイン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リスト&lt;全社員ID情報取得&gt;オブジェクト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リスト&lt;全社員ID情報取得&gt;オブジェクトを作成する。</t>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>10.</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -821,33 +788,45 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>項目10の処理後のリスト&lt;全社員ID情報取得&gt;を戻り値として処理を終了する</t>
+    <t>ユーザマスタエンティティ.権限フラグがNullもしくは空である</t>
+    <rPh sb="27" eb="28">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社員ID情報リスト&lt;表示用Id名前クラス&gt;オブジェクト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員ID情報リスト&lt;表示用Id名前クラス&gt;オブジェクトを作成する。</t>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目1で作成した社員ID情報リスト&lt;表示用Id名前クラス&gt;に格納する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目10の処理後の社員ID情報リスト&lt;表示用Id名前クラス&gt;を戻り値として処理を終了する</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
     <rPh sb="5" eb="8">
       <t>ショリゴ</t>
     </rPh>
-    <rPh sb="13" eb="14">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザマスタエンティティ.権限フラグがNullもしくは空である</t>
-    <rPh sb="27" eb="28">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1850,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6794,7 +6773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B58A740-BC1C-4090-9166-0DF03091647D}">
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7759,7 +7738,7 @@
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -8050,7 +8029,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="BP24" s="22"/>
@@ -8390,7 +8369,7 @@
       <c r="A35" s="17"/>
       <c r="C35" s="24"/>
       <c r="E35" s="50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -9001,7 +8980,7 @@
       <c r="A55" s="17"/>
       <c r="C55" s="24"/>
       <c r="E55" s="28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -10095,10 +10074,10 @@
       <c r="B57" s="14"/>
       <c r="C57" s="24"/>
       <c r="D57" s="56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="25"/>
@@ -12151,10 +12130,10 @@
       <c r="B59" s="14"/>
       <c r="C59" s="24"/>
       <c r="D59" s="56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>

--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397340B-195A-4A10-A50C-4E3E1C3DA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BEDC0D-93AF-4ADE-A8A4-5E58DC696B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" activeTab="1" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView minimized="1" xWindow="800" yWindow="80" windowWidth="13280" windowHeight="10050" firstSheet="1" activeTab="1" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>public</t>
   </si>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>データベース検索の結果。全社員IDのテーブル検索結果</t>
     <rPh sb="6" eb="8">
       <t>ケンサク</t>
@@ -585,13 +581,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>管理者権限</t>
-    <rPh sb="0" eb="5">
-      <t>カンリシャケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2.</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -609,21 +598,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>権限フラグがNullもしくは空である</t>
-    <rPh sb="14" eb="15">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>3.</t>
-  </si>
-  <si>
-    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクトを作成する。</t>
-    <rPh sb="24" eb="26">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>項目2の戻り値を参照し、以下の条件分離を行う。</t>
@@ -661,28 +636,6 @@
   </si>
   <si>
     <t>戻り値3</t>
-  </si>
-  <si>
-    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクトに何も格納せず、それを戻り値として処理を終了する。</t>
-    <rPh sb="24" eb="25">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>5.</t>
@@ -732,11 +685,161 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>項目5の処理結果から社員IDと社員名を取り出し、項目6で作成した表示用Id名前クラスオブジェクトに格納する。</t>
+    <t>8.</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>8.</t>
+    <t>権限フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>権限フラグが"0"である</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;</t>
+    <rPh sb="10" eb="13">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;を作成する。</t>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;に何も格納せず、それを戻り値として処理を終了する。</t>
+    <rPh sb="22" eb="23">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リスト&lt;ユーザマスタエンティティ&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目5の処理結果から1件を抽出し、その社員IDと社員名を取得します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目7で取得した値を項目6で作成した表示用Id名前クラスオブジェクトに格納します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目8の処理を行った表示用Id名前クラスオブジェクトを、項目1で作成した選択社員IDリスト&lt;表示用Id名前クラス&gt;に格納する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目6から9の処理を項目5で取得した件数分繰り返す。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケンスウブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理後、選択社員IDリスト&lt;表示用Id名前クラス&gt;を戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引数2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引数3</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1282,6 +1385,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,9 +1439,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,98 +1447,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,12 +1463,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1755,247 +1864,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="59" t="s">
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="62" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62" t="s">
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62"/>
-      <c r="BJ2" s="63" t="s">
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
+      <c r="BP2" s="75"/>
+      <c r="BQ2" s="75"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="64">
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="76">
         <v>45519</v>
       </c>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="61" t="s">
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="65">
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="77">
         <v>45518</v>
       </c>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="77"/>
+      <c r="BO3" s="77"/>
+      <c r="BP3" s="77"/>
+      <c r="BQ3" s="77"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -2062,215 +2171,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
+      <c r="BN6" s="68"/>
+      <c r="BO6" s="68"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="66"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
-      <c r="BA8" s="66"/>
-      <c r="BB8" s="66"/>
-      <c r="BC8" s="66"/>
-      <c r="BD8" s="66"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="66"/>
-      <c r="BJ8" s="66"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="66"/>
-      <c r="BN8" s="66"/>
-      <c r="BO8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2323,787 +2432,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="62" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="68" t="s">
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="69" t="s">
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="69"/>
-      <c r="BH11" s="69"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="69"/>
-      <c r="BK11" s="69"/>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="69"/>
-      <c r="BN11" s="69"/>
-      <c r="BO11" s="69"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
+      <c r="BJ11" s="59"/>
+      <c r="BK11" s="59"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="59"/>
+      <c r="BN11" s="59"/>
+      <c r="BO11" s="59"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="69"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="69"/>
-      <c r="BK12" s="69"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="69"/>
-      <c r="BN12" s="69"/>
-      <c r="BO12" s="69"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="69"/>
-      <c r="BI13" s="69"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="59"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="76" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="66"/>
+      <c r="BA14" s="66"/>
+      <c r="BB14" s="66"/>
+      <c r="BC14" s="66"/>
+      <c r="BD14" s="66"/>
+      <c r="BE14" s="66"/>
+      <c r="BF14" s="66"/>
+      <c r="BG14" s="66"/>
+      <c r="BH14" s="66"/>
+      <c r="BI14" s="66"/>
+      <c r="BJ14" s="66"/>
+      <c r="BK14" s="66"/>
+      <c r="BL14" s="66"/>
+      <c r="BM14" s="66"/>
+      <c r="BN14" s="66"/>
+      <c r="BO14" s="66"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="77"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="77"/>
-      <c r="BA15" s="77"/>
-      <c r="BB15" s="77"/>
-      <c r="BC15" s="77"/>
-      <c r="BD15" s="77"/>
-      <c r="BE15" s="77"/>
-      <c r="BF15" s="77"/>
-      <c r="BG15" s="77"/>
-      <c r="BH15" s="77"/>
-      <c r="BI15" s="77"/>
-      <c r="BJ15" s="77"/>
-      <c r="BK15" s="77"/>
-      <c r="BL15" s="77"/>
-      <c r="BM15" s="77"/>
-      <c r="BN15" s="77"/>
-      <c r="BO15" s="77"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="67"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="67"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="67"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="67"/>
+      <c r="BC15" s="67"/>
+      <c r="BD15" s="67"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="67"/>
+      <c r="BG15" s="67"/>
+      <c r="BH15" s="67"/>
+      <c r="BI15" s="67"/>
+      <c r="BJ15" s="67"/>
+      <c r="BK15" s="67"/>
+      <c r="BL15" s="67"/>
+      <c r="BM15" s="67"/>
+      <c r="BN15" s="67"/>
+      <c r="BO15" s="67"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="77"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="77"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="77"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="77"/>
-      <c r="BK16" s="77"/>
-      <c r="BL16" s="77"/>
-      <c r="BM16" s="77"/>
-      <c r="BN16" s="77"/>
-      <c r="BO16" s="77"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
+      <c r="BD16" s="67"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="67"/>
+      <c r="BI16" s="67"/>
+      <c r="BJ16" s="67"/>
+      <c r="BK16" s="67"/>
+      <c r="BL16" s="67"/>
+      <c r="BM16" s="67"/>
+      <c r="BN16" s="67"/>
+      <c r="BO16" s="67"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="77"/>
-      <c r="BA17" s="77"/>
-      <c r="BB17" s="77"/>
-      <c r="BC17" s="77"/>
-      <c r="BD17" s="77"/>
-      <c r="BE17" s="77"/>
-      <c r="BF17" s="77"/>
-      <c r="BG17" s="77"/>
-      <c r="BH17" s="77"/>
-      <c r="BI17" s="77"/>
-      <c r="BJ17" s="77"/>
-      <c r="BK17" s="77"/>
-      <c r="BL17" s="77"/>
-      <c r="BM17" s="77"/>
-      <c r="BN17" s="77"/>
-      <c r="BO17" s="77"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="67"/>
+      <c r="AM17" s="67"/>
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="67"/>
+      <c r="AP17" s="67"/>
+      <c r="AQ17" s="67"/>
+      <c r="AR17" s="67"/>
+      <c r="AS17" s="67"/>
+      <c r="AT17" s="67"/>
+      <c r="AU17" s="67"/>
+      <c r="AV17" s="67"/>
+      <c r="AW17" s="67"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+      <c r="BB17" s="67"/>
+      <c r="BC17" s="67"/>
+      <c r="BD17" s="67"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="67"/>
+      <c r="BG17" s="67"/>
+      <c r="BH17" s="67"/>
+      <c r="BI17" s="67"/>
+      <c r="BJ17" s="67"/>
+      <c r="BK17" s="67"/>
+      <c r="BL17" s="67"/>
+      <c r="BM17" s="67"/>
+      <c r="BN17" s="67"/>
+      <c r="BO17" s="67"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-      <c r="AZ18" s="77"/>
-      <c r="BA18" s="77"/>
-      <c r="BB18" s="77"/>
-      <c r="BC18" s="77"/>
-      <c r="BD18" s="77"/>
-      <c r="BE18" s="77"/>
-      <c r="BF18" s="77"/>
-      <c r="BG18" s="77"/>
-      <c r="BH18" s="77"/>
-      <c r="BI18" s="77"/>
-      <c r="BJ18" s="77"/>
-      <c r="BK18" s="77"/>
-      <c r="BL18" s="77"/>
-      <c r="BM18" s="77"/>
-      <c r="BN18" s="77"/>
-      <c r="BO18" s="77"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="67"/>
+      <c r="AQ18" s="67"/>
+      <c r="AR18" s="67"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="67"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="67"/>
+      <c r="BH18" s="67"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="67"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="67"/>
+      <c r="BM18" s="67"/>
+      <c r="BN18" s="67"/>
+      <c r="BO18" s="67"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="77"/>
-      <c r="AU19" s="77"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="77"/>
-      <c r="AX19" s="77"/>
-      <c r="AY19" s="77"/>
-      <c r="AZ19" s="77"/>
-      <c r="BA19" s="77"/>
-      <c r="BB19" s="77"/>
-      <c r="BC19" s="77"/>
-      <c r="BD19" s="77"/>
-      <c r="BE19" s="77"/>
-      <c r="BF19" s="77"/>
-      <c r="BG19" s="77"/>
-      <c r="BH19" s="77"/>
-      <c r="BI19" s="77"/>
-      <c r="BJ19" s="77"/>
-      <c r="BK19" s="77"/>
-      <c r="BL19" s="77"/>
-      <c r="BM19" s="77"/>
-      <c r="BN19" s="77"/>
-      <c r="BO19" s="77"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="67"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="77"/>
-      <c r="BI20" s="77"/>
-      <c r="BJ20" s="77"/>
-      <c r="BK20" s="77"/>
-      <c r="BL20" s="77"/>
-      <c r="BM20" s="77"/>
-      <c r="BN20" s="77"/>
-      <c r="BO20" s="77"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="67"/>
+      <c r="AL20" s="67"/>
+      <c r="AM20" s="67"/>
+      <c r="AN20" s="67"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="67"/>
+      <c r="AQ20" s="67"/>
+      <c r="AR20" s="67"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="67"/>
+      <c r="AU20" s="67"/>
+      <c r="AV20" s="67"/>
+      <c r="AW20" s="67"/>
+      <c r="AX20" s="67"/>
+      <c r="AY20" s="67"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
+      <c r="BC20" s="67"/>
+      <c r="BD20" s="67"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="67"/>
+      <c r="BG20" s="67"/>
+      <c r="BH20" s="67"/>
+      <c r="BI20" s="67"/>
+      <c r="BJ20" s="67"/>
+      <c r="BK20" s="67"/>
+      <c r="BL20" s="67"/>
+      <c r="BM20" s="67"/>
+      <c r="BN20" s="67"/>
+      <c r="BO20" s="67"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="67"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="67"/>
-      <c r="AR21" s="67"/>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="67"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="67"/>
-      <c r="BH21" s="67"/>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="67"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="67"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="69"/>
+      <c r="BF21" s="69"/>
+      <c r="BG21" s="69"/>
+      <c r="BH21" s="69"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="69"/>
+      <c r="BK21" s="69"/>
+      <c r="BL21" s="69"/>
+      <c r="BM21" s="69"/>
+      <c r="BN21" s="69"/>
+      <c r="BO21" s="69"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -3133,742 +3242,742 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62" t="s">
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="69" t="s">
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="68" t="s">
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="68"/>
-      <c r="AK25" s="68"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="68"/>
-      <c r="AO25" s="68"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68" t="s">
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="68"/>
-      <c r="BO25" s="68"/>
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="62">
+      <c r="C26" s="58">
         <v>1</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="73" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="73" t="s">
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="70" t="s">
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="73" t="s">
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="74"/>
-      <c r="AR26" s="74"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="74"/>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="74"/>
-      <c r="BA26" s="74"/>
-      <c r="BB26" s="74"/>
-      <c r="BC26" s="75"/>
-      <c r="BD26" s="73" t="s">
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="61"/>
+      <c r="AS26" s="61"/>
+      <c r="AT26" s="61"/>
+      <c r="AU26" s="61"/>
+      <c r="AV26" s="61"/>
+      <c r="AW26" s="61"/>
+      <c r="AX26" s="61"/>
+      <c r="AY26" s="61"/>
+      <c r="AZ26" s="61"/>
+      <c r="BA26" s="61"/>
+      <c r="BB26" s="61"/>
+      <c r="BC26" s="62"/>
+      <c r="BD26" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="BE26" s="74"/>
-      <c r="BF26" s="74"/>
-      <c r="BG26" s="74"/>
-      <c r="BH26" s="74"/>
-      <c r="BI26" s="74"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="74"/>
-      <c r="BM26" s="74"/>
-      <c r="BN26" s="74"/>
-      <c r="BO26" s="75"/>
+      <c r="BE26" s="61"/>
+      <c r="BF26" s="61"/>
+      <c r="BG26" s="61"/>
+      <c r="BH26" s="61"/>
+      <c r="BI26" s="61"/>
+      <c r="BJ26" s="61"/>
+      <c r="BK26" s="61"/>
+      <c r="BL26" s="61"/>
+      <c r="BM26" s="61"/>
+      <c r="BN26" s="61"/>
+      <c r="BO26" s="62"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="62">
+      <c r="C27" s="58">
         <v>2</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
-      <c r="BL27" s="68"/>
-      <c r="BM27" s="68"/>
-      <c r="BN27" s="68"/>
-      <c r="BO27" s="68"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
+      <c r="BO27" s="57"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="62">
+      <c r="C28" s="58">
         <v>3</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="68"/>
-      <c r="AL28" s="68"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="68"/>
-      <c r="AO28" s="68"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="68"/>
-      <c r="BG28" s="68"/>
-      <c r="BH28" s="68"/>
-      <c r="BI28" s="68"/>
-      <c r="BJ28" s="68"/>
-      <c r="BK28" s="68"/>
-      <c r="BL28" s="68"/>
-      <c r="BM28" s="68"/>
-      <c r="BN28" s="68"/>
-      <c r="BO28" s="68"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="62">
+      <c r="C29" s="58">
         <v>4</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="68"/>
-      <c r="AL29" s="68"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="68"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="68"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="68"/>
-      <c r="BI29" s="68"/>
-      <c r="BJ29" s="68"/>
-      <c r="BK29" s="68"/>
-      <c r="BL29" s="68"/>
-      <c r="BM29" s="68"/>
-      <c r="BN29" s="68"/>
-      <c r="BO29" s="68"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="62">
+      <c r="C30" s="58">
         <v>5</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="68"/>
-      <c r="AK30" s="68"/>
-      <c r="AL30" s="68"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="68"/>
-      <c r="AO30" s="68"/>
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="68"/>
-      <c r="BF30" s="68"/>
-      <c r="BG30" s="68"/>
-      <c r="BH30" s="68"/>
-      <c r="BI30" s="68"/>
-      <c r="BJ30" s="68"/>
-      <c r="BK30" s="68"/>
-      <c r="BL30" s="68"/>
-      <c r="BM30" s="68"/>
-      <c r="BN30" s="68"/>
-      <c r="BO30" s="68"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
+      <c r="BG30" s="57"/>
+      <c r="BH30" s="57"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="57"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="57"/>
+      <c r="BN30" s="57"/>
+      <c r="BO30" s="57"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="62">
+      <c r="C31" s="58">
         <v>6</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="68"/>
-      <c r="BH31" s="68"/>
-      <c r="BI31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BK31" s="68"/>
-      <c r="BL31" s="68"/>
-      <c r="BM31" s="68"/>
-      <c r="BN31" s="68"/>
-      <c r="BO31" s="68"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="62">
+      <c r="C32" s="58">
         <v>7</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="68"/>
-      <c r="BH32" s="68"/>
-      <c r="BI32" s="68"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="68"/>
-      <c r="BL32" s="68"/>
-      <c r="BM32" s="68"/>
-      <c r="BN32" s="68"/>
-      <c r="BO32" s="68"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="62">
+      <c r="C33" s="58">
         <v>8</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="68"/>
-      <c r="BH33" s="68"/>
-      <c r="BI33" s="68"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="68"/>
-      <c r="BL33" s="68"/>
-      <c r="BM33" s="68"/>
-      <c r="BN33" s="68"/>
-      <c r="BO33" s="68"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="57"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="57"/>
+      <c r="BK33" s="57"/>
+      <c r="BL33" s="57"/>
+      <c r="BM33" s="57"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="57"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="62">
+      <c r="C34" s="58">
         <v>9</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
-      <c r="AR34" s="68"/>
-      <c r="AS34" s="68"/>
-      <c r="AT34" s="68"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="68"/>
-      <c r="BI34" s="68"/>
-      <c r="BJ34" s="68"/>
-      <c r="BK34" s="68"/>
-      <c r="BL34" s="68"/>
-      <c r="BM34" s="68"/>
-      <c r="BN34" s="68"/>
-      <c r="BO34" s="68"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4467,42 +4576,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4519,48 +4634,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4599,247 +4708,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="102" t="s">
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="102"/>
-      <c r="BL1" s="102"/>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="102"/>
-      <c r="BP1" s="102"/>
-      <c r="BQ1" s="102"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="80"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="89" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89" t="s">
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89" t="s">
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="105" t="s">
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="105"/>
-      <c r="BL2" s="105"/>
-      <c r="BM2" s="105"/>
-      <c r="BN2" s="105"/>
-      <c r="BO2" s="105"/>
-      <c r="BP2" s="105"/>
-      <c r="BQ2" s="105"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="96" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="97">
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="86">
         <v>414404</v>
       </c>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="97"/>
-      <c r="AZ3" s="97"/>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="96" t="s">
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="98" t="s">
-        <v>99</v>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="85"/>
+      <c r="BE3" s="85"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="85"/>
+      <c r="BH3" s="85"/>
+      <c r="BI3" s="85"/>
+      <c r="BJ3" s="87" t="s">
+        <v>95</v>
       </c>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98"/>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="98"/>
-      <c r="BQ3" s="98"/>
+      <c r="BK3" s="87"/>
+      <c r="BL3" s="87"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="87"/>
+      <c r="BP3" s="87"/>
+      <c r="BQ3" s="87"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4864,96 +4973,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="99" t="s">
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="95" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="95"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BP6" s="90"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
       <c r="M7" s="41" t="s">
         <v>82</v>
       </c>
@@ -4984,34 +5093,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="90"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="90"/>
+      <c r="BN7" s="90"/>
+      <c r="BO7" s="90"/>
+      <c r="BP7" s="90"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -5025,89 +5134,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="89" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89" t="s">
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="87" t="s">
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="87"/>
-      <c r="BG10" s="87"/>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87" t="s">
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="88"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="88"/>
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="88"/>
+      <c r="AY10" s="88"/>
+      <c r="AZ10" s="88"/>
+      <c r="BA10" s="88"/>
+      <c r="BB10" s="88"/>
+      <c r="BC10" s="88"/>
+      <c r="BD10" s="88"/>
+      <c r="BE10" s="88"/>
+      <c r="BF10" s="88"/>
+      <c r="BG10" s="88"/>
+      <c r="BH10" s="88"/>
+      <c r="BI10" s="88"/>
+      <c r="BJ10" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
+      <c r="BK10" s="88"/>
+      <c r="BL10" s="88"/>
+      <c r="BM10" s="88"/>
+      <c r="BN10" s="88"/>
+      <c r="BO10" s="88"/>
+      <c r="BP10" s="88"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="88" t="s">
-        <v>36</v>
+      <c r="C11" s="92" t="s">
+        <v>99</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="41" t="s">
         <v>57</v>
       </c>
@@ -5123,11 +5232,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -5178,7 +5287,7 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C12" s="93" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D12" s="93"/>
       <c r="E12" s="93"/>
@@ -5196,9 +5305,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5248,7 +5357,7 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="93" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
@@ -5266,9 +5375,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5336,9 +5445,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5406,9 +5515,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5468,90 +5577,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="89" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89" t="s">
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="87" t="s">
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
-      <c r="BB18" s="87"/>
-      <c r="BC18" s="87"/>
-      <c r="BD18" s="87"/>
-      <c r="BE18" s="87"/>
-      <c r="BF18" s="87"/>
-      <c r="BG18" s="87"/>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="87"/>
-      <c r="BJ18" s="87" t="s">
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="88"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="88"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="88"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="88"/>
+      <c r="AZ18" s="88"/>
+      <c r="BA18" s="88"/>
+      <c r="BB18" s="88"/>
+      <c r="BC18" s="88"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="88"/>
+      <c r="BF18" s="88"/>
+      <c r="BG18" s="88"/>
+      <c r="BH18" s="88"/>
+      <c r="BI18" s="88"/>
+      <c r="BJ18" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="87"/>
-      <c r="BL18" s="87"/>
-      <c r="BM18" s="87"/>
-      <c r="BN18" s="87"/>
-      <c r="BO18" s="87"/>
-      <c r="BP18" s="87"/>
+      <c r="BK18" s="88"/>
+      <c r="BL18" s="88"/>
+      <c r="BM18" s="88"/>
+      <c r="BN18" s="88"/>
+      <c r="BO18" s="88"/>
+      <c r="BP18" s="88"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="88" t="s">
-        <v>100</v>
+      <c r="C19" s="92" t="s">
+        <v>96</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="41" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5565,11 +5674,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
       <c r="W19" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5839,10 +5948,10 @@
       <c r="A24" s="17"/>
       <c r="C24" s="24"/>
       <c r="D24" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="BP24" s="22"/>
@@ -5859,10 +5968,10 @@
       <c r="A26" s="17"/>
       <c r="C26" s="24"/>
       <c r="D26" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG26" s="23"/>
       <c r="BP26" s="22"/>
@@ -5878,276 +5987,276 @@
     <row r="28" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="C28" s="24"/>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="90" t="s">
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="91"/>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="91"/>
-      <c r="AO28" s="91"/>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="91"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="91"/>
-      <c r="BA28" s="91"/>
-      <c r="BB28" s="91"/>
-      <c r="BC28" s="91"/>
-      <c r="BD28" s="91"/>
-      <c r="BE28" s="91"/>
-      <c r="BF28" s="91"/>
-      <c r="BG28" s="91"/>
-      <c r="BH28" s="91"/>
-      <c r="BI28" s="91"/>
-      <c r="BJ28" s="91"/>
-      <c r="BK28" s="92"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="101"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
+      <c r="AV28" s="101"/>
+      <c r="AW28" s="101"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="101"/>
+      <c r="BA28" s="101"/>
+      <c r="BB28" s="101"/>
+      <c r="BC28" s="101"/>
+      <c r="BD28" s="101"/>
+      <c r="BE28" s="101"/>
+      <c r="BF28" s="101"/>
+      <c r="BG28" s="101"/>
+      <c r="BH28" s="101"/>
+      <c r="BI28" s="101"/>
+      <c r="BJ28" s="101"/>
+      <c r="BK28" s="102"/>
       <c r="BP28" s="22"/>
       <c r="BQ28" s="15"/>
     </row>
     <row r="29" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="C29" s="24"/>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="83" t="s">
-        <v>87</v>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="97" t="s">
+        <v>86</v>
       </c>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="84"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="84"/>
-      <c r="AO29" s="84"/>
-      <c r="AP29" s="84"/>
-      <c r="AQ29" s="84"/>
-      <c r="AR29" s="84"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="84"/>
-      <c r="AU29" s="84"/>
-      <c r="AV29" s="84"/>
-      <c r="AW29" s="84"/>
-      <c r="AX29" s="84"/>
-      <c r="AY29" s="84"/>
-      <c r="AZ29" s="84"/>
-      <c r="BA29" s="84"/>
-      <c r="BB29" s="84"/>
-      <c r="BC29" s="84"/>
-      <c r="BD29" s="84"/>
-      <c r="BE29" s="84"/>
-      <c r="BF29" s="84"/>
-      <c r="BG29" s="84"/>
-      <c r="BH29" s="84"/>
-      <c r="BI29" s="84"/>
-      <c r="BJ29" s="84"/>
-      <c r="BK29" s="85"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="98"/>
+      <c r="AS29" s="98"/>
+      <c r="AT29" s="98"/>
+      <c r="AU29" s="98"/>
+      <c r="AV29" s="98"/>
+      <c r="AW29" s="98"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="98"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
+      <c r="BC29" s="98"/>
+      <c r="BD29" s="98"/>
+      <c r="BE29" s="98"/>
+      <c r="BF29" s="98"/>
+      <c r="BG29" s="98"/>
+      <c r="BH29" s="98"/>
+      <c r="BI29" s="98"/>
+      <c r="BJ29" s="98"/>
+      <c r="BK29" s="99"/>
       <c r="BP29" s="22"/>
       <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="C30" s="24"/>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="83" t="s">
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
-      <c r="AK30" s="84"/>
-      <c r="AL30" s="84"/>
-      <c r="AM30" s="84"/>
-      <c r="AN30" s="84"/>
-      <c r="AO30" s="84"/>
-      <c r="AP30" s="84"/>
-      <c r="AQ30" s="84"/>
-      <c r="AR30" s="84"/>
-      <c r="AS30" s="84"/>
-      <c r="AT30" s="84"/>
-      <c r="AU30" s="84"/>
-      <c r="AV30" s="84"/>
-      <c r="AW30" s="84"/>
-      <c r="AX30" s="84"/>
-      <c r="AY30" s="84"/>
-      <c r="AZ30" s="84"/>
-      <c r="BA30" s="84"/>
-      <c r="BB30" s="84"/>
-      <c r="BC30" s="84"/>
-      <c r="BD30" s="84"/>
-      <c r="BE30" s="84"/>
-      <c r="BF30" s="84"/>
-      <c r="BG30" s="84"/>
-      <c r="BH30" s="84"/>
-      <c r="BI30" s="84"/>
-      <c r="BJ30" s="84"/>
-      <c r="BK30" s="85"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="98"/>
+      <c r="AT30" s="98"/>
+      <c r="AU30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="98"/>
+      <c r="BA30" s="98"/>
+      <c r="BB30" s="98"/>
+      <c r="BC30" s="98"/>
+      <c r="BD30" s="98"/>
+      <c r="BE30" s="98"/>
+      <c r="BF30" s="98"/>
+      <c r="BG30" s="98"/>
+      <c r="BH30" s="98"/>
+      <c r="BI30" s="98"/>
+      <c r="BJ30" s="98"/>
+      <c r="BK30" s="99"/>
       <c r="BP30" s="22"/>
       <c r="BQ30" s="15"/>
     </row>
     <row r="31" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="C31" s="24"/>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="83" t="s">
-        <v>88</v>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="97" t="s">
+        <v>106</v>
       </c>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="84"/>
-      <c r="AK31" s="84"/>
-      <c r="AL31" s="84"/>
-      <c r="AM31" s="84"/>
-      <c r="AN31" s="84"/>
-      <c r="AO31" s="84"/>
-      <c r="AP31" s="84"/>
-      <c r="AQ31" s="84"/>
-      <c r="AR31" s="84"/>
-      <c r="AS31" s="84"/>
-      <c r="AT31" s="84"/>
-      <c r="AU31" s="84"/>
-      <c r="AV31" s="84"/>
-      <c r="AW31" s="84"/>
-      <c r="AX31" s="84"/>
-      <c r="AY31" s="84"/>
-      <c r="AZ31" s="84"/>
-      <c r="BA31" s="84"/>
-      <c r="BB31" s="84"/>
-      <c r="BC31" s="84"/>
-      <c r="BD31" s="84"/>
-      <c r="BE31" s="84"/>
-      <c r="BF31" s="84"/>
-      <c r="BG31" s="84"/>
-      <c r="BH31" s="84"/>
-      <c r="BI31" s="84"/>
-      <c r="BJ31" s="84"/>
-      <c r="BK31" s="85"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AQ31" s="98"/>
+      <c r="AR31" s="98"/>
+      <c r="AS31" s="98"/>
+      <c r="AT31" s="98"/>
+      <c r="AU31" s="98"/>
+      <c r="AV31" s="98"/>
+      <c r="AW31" s="98"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="98"/>
+      <c r="BC31" s="98"/>
+      <c r="BD31" s="98"/>
+      <c r="BE31" s="98"/>
+      <c r="BF31" s="98"/>
+      <c r="BG31" s="98"/>
+      <c r="BH31" s="98"/>
+      <c r="BI31" s="98"/>
+      <c r="BJ31" s="98"/>
+      <c r="BK31" s="99"/>
       <c r="BP31" s="22"/>
       <c r="BQ31" s="15"/>
     </row>
@@ -6162,10 +6271,10 @@
       <c r="A33" s="17"/>
       <c r="C33" s="24"/>
       <c r="D33" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AG33" s="23"/>
       <c r="BP33" s="22"/>
@@ -6182,7 +6291,7 @@
       <c r="A35" s="17"/>
       <c r="C35" s="24"/>
       <c r="E35" s="50" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -6250,7 +6359,7 @@
       <c r="C36" s="24"/>
       <c r="E36" s="52"/>
       <c r="F36" s="53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -6259,7 +6368,7 @@
       <c r="K36" s="48"/>
       <c r="L36" s="49"/>
       <c r="M36" s="47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
@@ -6319,7 +6428,7 @@
       <c r="C37" s="24"/>
       <c r="E37" s="54"/>
       <c r="F37" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -6328,7 +6437,7 @@
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
       <c r="M37" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N37" s="48"/>
       <c r="O37" s="48"/>
@@ -6394,10 +6503,10 @@
       <c r="A39" s="17"/>
       <c r="C39" s="24"/>
       <c r="D39" s="46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AG39" s="23"/>
       <c r="BP39" s="22"/>
@@ -6414,10 +6523,10 @@
       <c r="A41" s="17"/>
       <c r="C41" s="24"/>
       <c r="D41" s="46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="BP41" s="22"/>
@@ -6433,276 +6542,276 @@
     <row r="43" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="C43" s="24"/>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="86" t="s">
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="86"/>
-      <c r="AD43" s="86"/>
-      <c r="AE43" s="86"/>
-      <c r="AF43" s="86"/>
-      <c r="AG43" s="86"/>
-      <c r="AH43" s="86"/>
-      <c r="AI43" s="86"/>
-      <c r="AJ43" s="86"/>
-      <c r="AK43" s="86"/>
-      <c r="AL43" s="86"/>
-      <c r="AM43" s="86"/>
-      <c r="AN43" s="86"/>
-      <c r="AO43" s="86"/>
-      <c r="AP43" s="86"/>
-      <c r="AQ43" s="86"/>
-      <c r="AR43" s="86"/>
-      <c r="AS43" s="86"/>
-      <c r="AT43" s="86"/>
-      <c r="AU43" s="86"/>
-      <c r="AV43" s="86"/>
-      <c r="AW43" s="86"/>
-      <c r="AX43" s="86"/>
-      <c r="AY43" s="86"/>
-      <c r="AZ43" s="86"/>
-      <c r="BA43" s="86"/>
-      <c r="BB43" s="86"/>
-      <c r="BC43" s="86"/>
-      <c r="BD43" s="86"/>
-      <c r="BE43" s="86"/>
-      <c r="BF43" s="86"/>
-      <c r="BG43" s="86"/>
-      <c r="BH43" s="86"/>
-      <c r="BI43" s="86"/>
-      <c r="BJ43" s="86"/>
-      <c r="BK43" s="86"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="104"/>
+      <c r="AH43" s="104"/>
+      <c r="AI43" s="104"/>
+      <c r="AJ43" s="104"/>
+      <c r="AK43" s="104"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="104"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
+      <c r="AP43" s="104"/>
+      <c r="AQ43" s="104"/>
+      <c r="AR43" s="104"/>
+      <c r="AS43" s="104"/>
+      <c r="AT43" s="104"/>
+      <c r="AU43" s="104"/>
+      <c r="AV43" s="104"/>
+      <c r="AW43" s="104"/>
+      <c r="AX43" s="104"/>
+      <c r="AY43" s="104"/>
+      <c r="AZ43" s="104"/>
+      <c r="BA43" s="104"/>
+      <c r="BB43" s="104"/>
+      <c r="BC43" s="104"/>
+      <c r="BD43" s="104"/>
+      <c r="BE43" s="104"/>
+      <c r="BF43" s="104"/>
+      <c r="BG43" s="104"/>
+      <c r="BH43" s="104"/>
+      <c r="BI43" s="104"/>
+      <c r="BJ43" s="104"/>
+      <c r="BK43" s="104"/>
       <c r="BP43" s="22"/>
       <c r="BQ43" s="15"/>
     </row>
     <row r="44" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="C44" s="24"/>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="79" t="s">
-        <v>106</v>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="105" t="s">
+        <v>101</v>
       </c>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="79"/>
-      <c r="X44" s="79"/>
-      <c r="Y44" s="79"/>
-      <c r="Z44" s="79"/>
-      <c r="AA44" s="79"/>
-      <c r="AB44" s="79"/>
-      <c r="AC44" s="79"/>
-      <c r="AD44" s="79"/>
-      <c r="AE44" s="79"/>
-      <c r="AF44" s="79"/>
-      <c r="AG44" s="79"/>
-      <c r="AH44" s="79"/>
-      <c r="AI44" s="79"/>
-      <c r="AJ44" s="79"/>
-      <c r="AK44" s="79"/>
-      <c r="AL44" s="79"/>
-      <c r="AM44" s="79"/>
-      <c r="AN44" s="79"/>
-      <c r="AO44" s="79"/>
-      <c r="AP44" s="79"/>
-      <c r="AQ44" s="79"/>
-      <c r="AR44" s="79"/>
-      <c r="AS44" s="79"/>
-      <c r="AT44" s="79"/>
-      <c r="AU44" s="79"/>
-      <c r="AV44" s="79"/>
-      <c r="AW44" s="79"/>
-      <c r="AX44" s="79"/>
-      <c r="AY44" s="79"/>
-      <c r="AZ44" s="79"/>
-      <c r="BA44" s="79"/>
-      <c r="BB44" s="79"/>
-      <c r="BC44" s="79"/>
-      <c r="BD44" s="79"/>
-      <c r="BE44" s="79"/>
-      <c r="BF44" s="79"/>
-      <c r="BG44" s="79"/>
-      <c r="BH44" s="79"/>
-      <c r="BI44" s="79"/>
-      <c r="BJ44" s="79"/>
-      <c r="BK44" s="79"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="105"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="105"/>
+      <c r="X44" s="105"/>
+      <c r="Y44" s="105"/>
+      <c r="Z44" s="105"/>
+      <c r="AA44" s="105"/>
+      <c r="AB44" s="105"/>
+      <c r="AC44" s="105"/>
+      <c r="AD44" s="105"/>
+      <c r="AE44" s="105"/>
+      <c r="AF44" s="105"/>
+      <c r="AG44" s="105"/>
+      <c r="AH44" s="105"/>
+      <c r="AI44" s="105"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="105"/>
+      <c r="AM44" s="105"/>
+      <c r="AN44" s="105"/>
+      <c r="AO44" s="105"/>
+      <c r="AP44" s="105"/>
+      <c r="AQ44" s="105"/>
+      <c r="AR44" s="105"/>
+      <c r="AS44" s="105"/>
+      <c r="AT44" s="105"/>
+      <c r="AU44" s="105"/>
+      <c r="AV44" s="105"/>
+      <c r="AW44" s="105"/>
+      <c r="AX44" s="105"/>
+      <c r="AY44" s="105"/>
+      <c r="AZ44" s="105"/>
+      <c r="BA44" s="105"/>
+      <c r="BB44" s="105"/>
+      <c r="BC44" s="105"/>
+      <c r="BD44" s="105"/>
+      <c r="BE44" s="105"/>
+      <c r="BF44" s="105"/>
+      <c r="BG44" s="105"/>
+      <c r="BH44" s="105"/>
+      <c r="BI44" s="105"/>
+      <c r="BJ44" s="105"/>
+      <c r="BK44" s="105"/>
       <c r="BP44" s="22"/>
       <c r="BQ44" s="15"/>
     </row>
     <row r="45" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="C45" s="24"/>
-      <c r="E45" s="78" t="s">
-        <v>104</v>
+      <c r="E45" s="103" t="s">
+        <v>99</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="79" t="s">
-        <v>105</v>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="105" t="s">
+        <v>100</v>
       </c>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79"/>
-      <c r="X45" s="79"/>
-      <c r="Y45" s="79"/>
-      <c r="Z45" s="79"/>
-      <c r="AA45" s="79"/>
-      <c r="AB45" s="79"/>
-      <c r="AC45" s="79"/>
-      <c r="AD45" s="79"/>
-      <c r="AE45" s="79"/>
-      <c r="AF45" s="79"/>
-      <c r="AG45" s="79"/>
-      <c r="AH45" s="79"/>
-      <c r="AI45" s="79"/>
-      <c r="AJ45" s="79"/>
-      <c r="AK45" s="79"/>
-      <c r="AL45" s="79"/>
-      <c r="AM45" s="79"/>
-      <c r="AN45" s="79"/>
-      <c r="AO45" s="79"/>
-      <c r="AP45" s="79"/>
-      <c r="AQ45" s="79"/>
-      <c r="AR45" s="79"/>
-      <c r="AS45" s="79"/>
-      <c r="AT45" s="79"/>
-      <c r="AU45" s="79"/>
-      <c r="AV45" s="79"/>
-      <c r="AW45" s="79"/>
-      <c r="AX45" s="79"/>
-      <c r="AY45" s="79"/>
-      <c r="AZ45" s="79"/>
-      <c r="BA45" s="79"/>
-      <c r="BB45" s="79"/>
-      <c r="BC45" s="79"/>
-      <c r="BD45" s="79"/>
-      <c r="BE45" s="79"/>
-      <c r="BF45" s="79"/>
-      <c r="BG45" s="79"/>
-      <c r="BH45" s="79"/>
-      <c r="BI45" s="79"/>
-      <c r="BJ45" s="79"/>
-      <c r="BK45" s="79"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="105"/>
+      <c r="AB45" s="105"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="105"/>
+      <c r="AE45" s="105"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="105"/>
+      <c r="AH45" s="105"/>
+      <c r="AI45" s="105"/>
+      <c r="AJ45" s="105"/>
+      <c r="AK45" s="105"/>
+      <c r="AL45" s="105"/>
+      <c r="AM45" s="105"/>
+      <c r="AN45" s="105"/>
+      <c r="AO45" s="105"/>
+      <c r="AP45" s="105"/>
+      <c r="AQ45" s="105"/>
+      <c r="AR45" s="105"/>
+      <c r="AS45" s="105"/>
+      <c r="AT45" s="105"/>
+      <c r="AU45" s="105"/>
+      <c r="AV45" s="105"/>
+      <c r="AW45" s="105"/>
+      <c r="AX45" s="105"/>
+      <c r="AY45" s="105"/>
+      <c r="AZ45" s="105"/>
+      <c r="BA45" s="105"/>
+      <c r="BB45" s="105"/>
+      <c r="BC45" s="105"/>
+      <c r="BD45" s="105"/>
+      <c r="BE45" s="105"/>
+      <c r="BF45" s="105"/>
+      <c r="BG45" s="105"/>
+      <c r="BH45" s="105"/>
+      <c r="BI45" s="105"/>
+      <c r="BJ45" s="105"/>
+      <c r="BK45" s="105"/>
       <c r="BP45" s="22"/>
       <c r="BQ45" s="15"/>
     </row>
     <row r="46" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="C46" s="24"/>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="79" t="s">
-        <v>52</v>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="105" t="s">
+        <v>112</v>
       </c>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="79"/>
-      <c r="AF46" s="79"/>
-      <c r="AG46" s="79"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="79"/>
-      <c r="AM46" s="79"/>
-      <c r="AN46" s="79"/>
-      <c r="AO46" s="79"/>
-      <c r="AP46" s="79"/>
-      <c r="AQ46" s="79"/>
-      <c r="AR46" s="79"/>
-      <c r="AS46" s="79"/>
-      <c r="AT46" s="79"/>
-      <c r="AU46" s="79"/>
-      <c r="AV46" s="79"/>
-      <c r="AW46" s="79"/>
-      <c r="AX46" s="79"/>
-      <c r="AY46" s="79"/>
-      <c r="AZ46" s="79"/>
-      <c r="BA46" s="79"/>
-      <c r="BB46" s="79"/>
-      <c r="BC46" s="79"/>
-      <c r="BD46" s="79"/>
-      <c r="BE46" s="79"/>
-      <c r="BF46" s="79"/>
-      <c r="BG46" s="79"/>
-      <c r="BH46" s="79"/>
-      <c r="BI46" s="79"/>
-      <c r="BJ46" s="79"/>
-      <c r="BK46" s="79"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="105"/>
+      <c r="Y46" s="105"/>
+      <c r="Z46" s="105"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="105"/>
+      <c r="AE46" s="105"/>
+      <c r="AF46" s="105"/>
+      <c r="AG46" s="105"/>
+      <c r="AH46" s="105"/>
+      <c r="AI46" s="105"/>
+      <c r="AJ46" s="105"/>
+      <c r="AK46" s="105"/>
+      <c r="AL46" s="105"/>
+      <c r="AM46" s="105"/>
+      <c r="AN46" s="105"/>
+      <c r="AO46" s="105"/>
+      <c r="AP46" s="105"/>
+      <c r="AQ46" s="105"/>
+      <c r="AR46" s="105"/>
+      <c r="AS46" s="105"/>
+      <c r="AT46" s="105"/>
+      <c r="AU46" s="105"/>
+      <c r="AV46" s="105"/>
+      <c r="AW46" s="105"/>
+      <c r="AX46" s="105"/>
+      <c r="AY46" s="105"/>
+      <c r="AZ46" s="105"/>
+      <c r="BA46" s="105"/>
+      <c r="BB46" s="105"/>
+      <c r="BC46" s="105"/>
+      <c r="BD46" s="105"/>
+      <c r="BE46" s="105"/>
+      <c r="BF46" s="105"/>
+      <c r="BG46" s="105"/>
+      <c r="BH46" s="105"/>
+      <c r="BI46" s="105"/>
+      <c r="BJ46" s="105"/>
+      <c r="BK46" s="105"/>
       <c r="BP46" s="22"/>
       <c r="BQ46" s="15"/>
     </row>
@@ -6717,10 +6826,10 @@
       <c r="A48" s="17"/>
       <c r="C48" s="24"/>
       <c r="D48" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AG48" s="23"/>
       <c r="BP48" s="22"/>
@@ -6737,10 +6846,10 @@
       <c r="A50" s="17"/>
       <c r="C50" s="24"/>
       <c r="D50" s="46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG50" s="23"/>
       <c r="BP50" s="22"/>
@@ -6815,10 +6924,10 @@
       <c r="A52" s="17"/>
       <c r="C52" s="24"/>
       <c r="D52" s="46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>61</v>
+      <c r="E52" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -6949,7 +7058,12 @@
     <row r="54" spans="1:1025" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="24"/>
-      <c r="E54" s="28"/>
+      <c r="D54" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
@@ -7079,16 +7193,19 @@
     <row r="56" spans="1:1025" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
+      <c r="D56" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="BP56" s="22"/>
       <c r="BQ56" s="15"/>
     </row>
     <row r="57" spans="1:1025" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="24"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="106"/>
+      <c r="D57" s="25"/>
       <c r="AG57" s="23"/>
       <c r="BP57" s="22"/>
       <c r="BQ57" s="15"/>
@@ -7097,8 +7214,12 @@
       <c r="A58" s="17"/>
       <c r="B58" s="14"/>
       <c r="C58" s="24"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="108"/>
+      <c r="D58" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
@@ -8123,8 +8244,8 @@
       <c r="A59" s="17"/>
       <c r="B59" s="14"/>
       <c r="C59" s="24"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -25563,38 +25684,18 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="O44:BK44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:BK45"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="O46:BK46"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="O30:BK30"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="O31:BK31"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:BK43"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="O29:BK29"/>
     <mergeCell ref="C14:F14"/>
@@ -25610,18 +25711,38 @@
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="O30:BK30"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="O31:BK31"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:BK43"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="O44:BK44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:BK45"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="O46:BK46"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -25643,7 +25764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52DE973-A8E6-4741-91B2-5EEB95E5F33A}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -25660,247 +25781,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="102" t="s">
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="102"/>
-      <c r="BL1" s="102"/>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="102"/>
-      <c r="BP1" s="102"/>
-      <c r="BQ1" s="102"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="80"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="89" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89" t="s">
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89" t="s">
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="105" t="s">
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="105"/>
-      <c r="BL2" s="105"/>
-      <c r="BM2" s="105"/>
-      <c r="BN2" s="105"/>
-      <c r="BO2" s="105"/>
-      <c r="BP2" s="105"/>
-      <c r="BQ2" s="105"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="96" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="97">
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="86">
         <v>45510</v>
       </c>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="97"/>
-      <c r="AZ3" s="97"/>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="96" t="s">
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="98">
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="85"/>
+      <c r="BE3" s="85"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="85"/>
+      <c r="BH3" s="85"/>
+      <c r="BI3" s="85"/>
+      <c r="BJ3" s="87">
         <v>45533</v>
       </c>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98"/>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="98"/>
-      <c r="BQ3" s="98"/>
+      <c r="BK3" s="87"/>
+      <c r="BL3" s="87"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="87"/>
+      <c r="BP3" s="87"/>
+      <c r="BQ3" s="87"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -25925,96 +26046,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="99" t="s">
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="95" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="95"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BP6" s="90"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
       <c r="M7" s="41" t="s">
         <v>51</v>
       </c>
@@ -26045,34 +26166,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="90"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="90"/>
+      <c r="BN7" s="90"/>
+      <c r="BO7" s="90"/>
+      <c r="BP7" s="90"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -26086,89 +26207,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="89" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89" t="s">
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="87" t="s">
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="87"/>
-      <c r="BG10" s="87"/>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87" t="s">
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="88"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="88"/>
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="88"/>
+      <c r="AY10" s="88"/>
+      <c r="AZ10" s="88"/>
+      <c r="BA10" s="88"/>
+      <c r="BB10" s="88"/>
+      <c r="BC10" s="88"/>
+      <c r="BD10" s="88"/>
+      <c r="BE10" s="88"/>
+      <c r="BF10" s="88"/>
+      <c r="BG10" s="88"/>
+      <c r="BH10" s="88"/>
+      <c r="BI10" s="88"/>
+      <c r="BJ10" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
+      <c r="BK10" s="88"/>
+      <c r="BL10" s="88"/>
+      <c r="BM10" s="88"/>
+      <c r="BN10" s="88"/>
+      <c r="BO10" s="88"/>
+      <c r="BP10" s="88"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="41" t="s">
         <v>57</v>
       </c>
@@ -26184,11 +26305,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -26257,9 +26378,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -26327,9 +26448,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -26397,9 +26518,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -26467,9 +26588,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -26529,88 +26650,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="89" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89" t="s">
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="87" t="s">
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
-      <c r="BB18" s="87"/>
-      <c r="BC18" s="87"/>
-      <c r="BD18" s="87"/>
-      <c r="BE18" s="87"/>
-      <c r="BF18" s="87"/>
-      <c r="BG18" s="87"/>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="87"/>
-      <c r="BJ18" s="87" t="s">
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="88"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="88"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="88"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="88"/>
+      <c r="AZ18" s="88"/>
+      <c r="BA18" s="88"/>
+      <c r="BB18" s="88"/>
+      <c r="BC18" s="88"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="88"/>
+      <c r="BF18" s="88"/>
+      <c r="BG18" s="88"/>
+      <c r="BH18" s="88"/>
+      <c r="BI18" s="88"/>
+      <c r="BJ18" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="87"/>
-      <c r="BL18" s="87"/>
-      <c r="BM18" s="87"/>
-      <c r="BN18" s="87"/>
-      <c r="BO18" s="87"/>
-      <c r="BP18" s="87"/>
+      <c r="BK18" s="88"/>
+      <c r="BL18" s="88"/>
+      <c r="BM18" s="88"/>
+      <c r="BN18" s="88"/>
+      <c r="BO18" s="88"/>
+      <c r="BP18" s="88"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="41" t="s">
         <v>58</v>
       </c>
@@ -26626,9 +26747,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
       <c r="W19" s="40" t="s">
         <v>80</v>
       </c>
@@ -26915,270 +27036,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="86" t="s">
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="86"/>
-      <c r="AO26" s="86"/>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
-      <c r="AZ26" s="86"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="86"/>
-      <c r="BC26" s="86"/>
-      <c r="BD26" s="86"/>
-      <c r="BE26" s="86"/>
-      <c r="BF26" s="86"/>
-      <c r="BG26" s="86"/>
-      <c r="BH26" s="86"/>
-      <c r="BI26" s="86"/>
-      <c r="BJ26" s="86"/>
-      <c r="BK26" s="86"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="104"/>
+      <c r="AJ26" s="104"/>
+      <c r="AK26" s="104"/>
+      <c r="AL26" s="104"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="104"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="104"/>
+      <c r="AR26" s="104"/>
+      <c r="AS26" s="104"/>
+      <c r="AT26" s="104"/>
+      <c r="AU26" s="104"/>
+      <c r="AV26" s="104"/>
+      <c r="AW26" s="104"/>
+      <c r="AX26" s="104"/>
+      <c r="AY26" s="104"/>
+      <c r="AZ26" s="104"/>
+      <c r="BA26" s="104"/>
+      <c r="BB26" s="104"/>
+      <c r="BC26" s="104"/>
+      <c r="BD26" s="104"/>
+      <c r="BE26" s="104"/>
+      <c r="BF26" s="104"/>
+      <c r="BG26" s="104"/>
+      <c r="BH26" s="104"/>
+      <c r="BI26" s="104"/>
+      <c r="BJ26" s="104"/>
+      <c r="BK26" s="104"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="79" t="s">
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="79"/>
-      <c r="BA27" s="79"/>
-      <c r="BB27" s="79"/>
-      <c r="BC27" s="79"/>
-      <c r="BD27" s="79"/>
-      <c r="BE27" s="79"/>
-      <c r="BF27" s="79"/>
-      <c r="BG27" s="79"/>
-      <c r="BH27" s="79"/>
-      <c r="BI27" s="79"/>
-      <c r="BJ27" s="79"/>
-      <c r="BK27" s="79"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
+      <c r="AV27" s="105"/>
+      <c r="AW27" s="105"/>
+      <c r="AX27" s="105"/>
+      <c r="AY27" s="105"/>
+      <c r="AZ27" s="105"/>
+      <c r="BA27" s="105"/>
+      <c r="BB27" s="105"/>
+      <c r="BC27" s="105"/>
+      <c r="BD27" s="105"/>
+      <c r="BE27" s="105"/>
+      <c r="BF27" s="105"/>
+      <c r="BG27" s="105"/>
+      <c r="BH27" s="105"/>
+      <c r="BI27" s="105"/>
+      <c r="BJ27" s="105"/>
+      <c r="BK27" s="105"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="79" t="s">
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="79"/>
-      <c r="BA28" s="79"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="79"/>
-      <c r="BD28" s="79"/>
-      <c r="BE28" s="79"/>
-      <c r="BF28" s="79"/>
-      <c r="BG28" s="79"/>
-      <c r="BH28" s="79"/>
-      <c r="BI28" s="79"/>
-      <c r="BJ28" s="79"/>
-      <c r="BK28" s="79"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="105"/>
+      <c r="AJ28" s="105"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="105"/>
+      <c r="AM28" s="105"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="105"/>
+      <c r="AT28" s="105"/>
+      <c r="AU28" s="105"/>
+      <c r="AV28" s="105"/>
+      <c r="AW28" s="105"/>
+      <c r="AX28" s="105"/>
+      <c r="AY28" s="105"/>
+      <c r="AZ28" s="105"/>
+      <c r="BA28" s="105"/>
+      <c r="BB28" s="105"/>
+      <c r="BC28" s="105"/>
+      <c r="BD28" s="105"/>
+      <c r="BE28" s="105"/>
+      <c r="BF28" s="105"/>
+      <c r="BG28" s="105"/>
+      <c r="BH28" s="105"/>
+      <c r="BI28" s="105"/>
+      <c r="BJ28" s="105"/>
+      <c r="BK28" s="105"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="79" t="s">
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="79"/>
-      <c r="AQ29" s="79"/>
-      <c r="AR29" s="79"/>
-      <c r="AS29" s="79"/>
-      <c r="AT29" s="79"/>
-      <c r="AU29" s="79"/>
-      <c r="AV29" s="79"/>
-      <c r="AW29" s="79"/>
-      <c r="AX29" s="79"/>
-      <c r="AY29" s="79"/>
-      <c r="AZ29" s="79"/>
-      <c r="BA29" s="79"/>
-      <c r="BB29" s="79"/>
-      <c r="BC29" s="79"/>
-      <c r="BD29" s="79"/>
-      <c r="BE29" s="79"/>
-      <c r="BF29" s="79"/>
-      <c r="BG29" s="79"/>
-      <c r="BH29" s="79"/>
-      <c r="BI29" s="79"/>
-      <c r="BJ29" s="79"/>
-      <c r="BK29" s="79"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="105"/>
+      <c r="AJ29" s="105"/>
+      <c r="AK29" s="105"/>
+      <c r="AL29" s="105"/>
+      <c r="AM29" s="105"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="105"/>
+      <c r="AT29" s="105"/>
+      <c r="AU29" s="105"/>
+      <c r="AV29" s="105"/>
+      <c r="AW29" s="105"/>
+      <c r="AX29" s="105"/>
+      <c r="AY29" s="105"/>
+      <c r="AZ29" s="105"/>
+      <c r="BA29" s="105"/>
+      <c r="BB29" s="105"/>
+      <c r="BC29" s="105"/>
+      <c r="BD29" s="105"/>
+      <c r="BE29" s="105"/>
+      <c r="BF29" s="105"/>
+      <c r="BG29" s="105"/>
+      <c r="BH29" s="105"/>
+      <c r="BI29" s="105"/>
+      <c r="BJ29" s="105"/>
+      <c r="BK29" s="105"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -27666,26 +27787,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -27702,21 +27818,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BEDC0D-93AF-4ADE-A8A4-5E58DC696B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF7E00-D1FB-47CD-A3EF-49A4B2FC74EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="800" yWindow="80" windowWidth="13280" windowHeight="10050" firstSheet="1" activeTab="1" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="13280" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -591,13 +591,6 @@
     <t>Falseの場合</t>
   </si>
   <si>
-    <t>処理なし</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
@@ -624,9 +617,6 @@
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>項番4の処理</t>
   </si>
   <si>
     <t>4.</t>
@@ -717,28 +707,6 @@
     <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;を作成する。</t>
     <rPh sb="22" eb="24">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;に何も格納せず、それを戻り値として処理を終了する。</t>
-    <rPh sb="22" eb="23">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -840,6 +808,48 @@
   </si>
   <si>
     <t>引数3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目5の処理を行う</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項番4の処理を行う</t>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;に何も格納せず、それを戻り値としてメソッドの処理を終了する。</t>
+    <rPh sb="22" eb="23">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1283,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,44 +1395,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,6 +1416,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,8 +1428,82 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1463,9 +1517,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1478,58 +1529,8 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1852,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1864,247 +1865,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="72" t="s">
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="72"/>
-      <c r="BO1" s="72"/>
-      <c r="BP1" s="72"/>
-      <c r="BQ1" s="72"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="58" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="75" t="s">
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
-      <c r="BP2" s="75"/>
-      <c r="BQ2" s="75"/>
+      <c r="BK2" s="65"/>
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="65"/>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="76">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="66">
         <v>45519</v>
       </c>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="74" t="s">
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="77">
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="67">
         <v>45518</v>
       </c>
-      <c r="BK3" s="77"/>
-      <c r="BL3" s="77"/>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="77"/>
-      <c r="BO3" s="77"/>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="77"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -2432,727 +2433,727 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="57" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="59" t="s">
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="59"/>
-      <c r="AW11" s="59"/>
-      <c r="AX11" s="59"/>
-      <c r="AY11" s="59"/>
-      <c r="AZ11" s="59"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="59"/>
-      <c r="BG11" s="59"/>
-      <c r="BH11" s="59"/>
-      <c r="BI11" s="59"/>
-      <c r="BJ11" s="59"/>
-      <c r="BK11" s="59"/>
-      <c r="BL11" s="59"/>
-      <c r="BM11" s="59"/>
-      <c r="BN11" s="59"/>
-      <c r="BO11" s="59"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="69"/>
+      <c r="BE11" s="69"/>
+      <c r="BF11" s="69"/>
+      <c r="BG11" s="69"/>
+      <c r="BH11" s="69"/>
+      <c r="BI11" s="69"/>
+      <c r="BJ11" s="69"/>
+      <c r="BK11" s="69"/>
+      <c r="BL11" s="69"/>
+      <c r="BM11" s="69"/>
+      <c r="BN11" s="69"/>
+      <c r="BO11" s="69"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="69"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
+      <c r="BN12" s="69"/>
+      <c r="BO12" s="69"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="69"/>
+      <c r="BK13" s="69"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="69"/>
+      <c r="BN13" s="69"/>
+      <c r="BO13" s="69"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="66" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="66"/>
-      <c r="BC14" s="66"/>
-      <c r="BD14" s="66"/>
-      <c r="BE14" s="66"/>
-      <c r="BF14" s="66"/>
-      <c r="BG14" s="66"/>
-      <c r="BH14" s="66"/>
-      <c r="BI14" s="66"/>
-      <c r="BJ14" s="66"/>
-      <c r="BK14" s="66"/>
-      <c r="BL14" s="66"/>
-      <c r="BM14" s="66"/>
-      <c r="BN14" s="66"/>
-      <c r="BO14" s="66"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="76"/>
+      <c r="BB14" s="76"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="76"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="76"/>
+      <c r="BG14" s="76"/>
+      <c r="BH14" s="76"/>
+      <c r="BI14" s="76"/>
+      <c r="BJ14" s="76"/>
+      <c r="BK14" s="76"/>
+      <c r="BL14" s="76"/>
+      <c r="BM14" s="76"/>
+      <c r="BN14" s="76"/>
+      <c r="BO14" s="76"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
-      <c r="BC15" s="67"/>
-      <c r="BD15" s="67"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="67"/>
-      <c r="BH15" s="67"/>
-      <c r="BI15" s="67"/>
-      <c r="BJ15" s="67"/>
-      <c r="BK15" s="67"/>
-      <c r="BL15" s="67"/>
-      <c r="BM15" s="67"/>
-      <c r="BN15" s="67"/>
-      <c r="BO15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="69"/>
+      <c r="BF15" s="69"/>
+      <c r="BG15" s="69"/>
+      <c r="BH15" s="69"/>
+      <c r="BI15" s="69"/>
+      <c r="BJ15" s="69"/>
+      <c r="BK15" s="69"/>
+      <c r="BL15" s="69"/>
+      <c r="BM15" s="69"/>
+      <c r="BN15" s="69"/>
+      <c r="BO15" s="69"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="67"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="67"/>
-      <c r="BC16" s="67"/>
-      <c r="BD16" s="67"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="67"/>
-      <c r="BI16" s="67"/>
-      <c r="BJ16" s="67"/>
-      <c r="BK16" s="67"/>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="67"/>
-      <c r="BN16" s="67"/>
-      <c r="BO16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+      <c r="BC16" s="69"/>
+      <c r="BD16" s="69"/>
+      <c r="BE16" s="69"/>
+      <c r="BF16" s="69"/>
+      <c r="BG16" s="69"/>
+      <c r="BH16" s="69"/>
+      <c r="BI16" s="69"/>
+      <c r="BJ16" s="69"/>
+      <c r="BK16" s="69"/>
+      <c r="BL16" s="69"/>
+      <c r="BM16" s="69"/>
+      <c r="BN16" s="69"/>
+      <c r="BO16" s="69"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="67"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="67"/>
-      <c r="AQ17" s="67"/>
-      <c r="AR17" s="67"/>
-      <c r="AS17" s="67"/>
-      <c r="AT17" s="67"/>
-      <c r="AU17" s="67"/>
-      <c r="AV17" s="67"/>
-      <c r="AW17" s="67"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="67"/>
-      <c r="BA17" s="67"/>
-      <c r="BB17" s="67"/>
-      <c r="BC17" s="67"/>
-      <c r="BD17" s="67"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="67"/>
-      <c r="BH17" s="67"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="67"/>
-      <c r="BK17" s="67"/>
-      <c r="BL17" s="67"/>
-      <c r="BM17" s="67"/>
-      <c r="BN17" s="67"/>
-      <c r="BO17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="69"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="69"/>
+      <c r="BK17" s="69"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="69"/>
+      <c r="BN17" s="69"/>
+      <c r="BO17" s="69"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="67"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="67"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="67"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="67"/>
-      <c r="BC18" s="67"/>
-      <c r="BD18" s="67"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="67"/>
-      <c r="BG18" s="67"/>
-      <c r="BH18" s="67"/>
-      <c r="BI18" s="67"/>
-      <c r="BJ18" s="67"/>
-      <c r="BK18" s="67"/>
-      <c r="BL18" s="67"/>
-      <c r="BM18" s="67"/>
-      <c r="BN18" s="67"/>
-      <c r="BO18" s="67"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
+      <c r="BC18" s="69"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="69"/>
+      <c r="BG18" s="69"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="69"/>
+      <c r="BK18" s="69"/>
+      <c r="BL18" s="69"/>
+      <c r="BM18" s="69"/>
+      <c r="BN18" s="69"/>
+      <c r="BO18" s="69"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="67"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
-      <c r="BC19" s="67"/>
-      <c r="BD19" s="67"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="67"/>
-      <c r="BG19" s="67"/>
-      <c r="BH19" s="67"/>
-      <c r="BI19" s="67"/>
-      <c r="BJ19" s="67"/>
-      <c r="BK19" s="67"/>
-      <c r="BL19" s="67"/>
-      <c r="BM19" s="67"/>
-      <c r="BN19" s="67"/>
-      <c r="BO19" s="67"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="69"/>
+      <c r="BN19" s="69"/>
+      <c r="BO19" s="69"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="67"/>
-      <c r="AX20" s="67"/>
-      <c r="AY20" s="67"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="67"/>
-      <c r="BD20" s="67"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="67"/>
-      <c r="BG20" s="67"/>
-      <c r="BH20" s="67"/>
-      <c r="BI20" s="67"/>
-      <c r="BJ20" s="67"/>
-      <c r="BK20" s="67"/>
-      <c r="BL20" s="67"/>
-      <c r="BM20" s="67"/>
-      <c r="BN20" s="67"/>
-      <c r="BO20" s="67"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="69"/>
+      <c r="BE20" s="69"/>
+      <c r="BF20" s="69"/>
+      <c r="BG20" s="69"/>
+      <c r="BH20" s="69"/>
+      <c r="BI20" s="69"/>
+      <c r="BJ20" s="69"/>
+      <c r="BK20" s="69"/>
+      <c r="BL20" s="69"/>
+      <c r="BM20" s="69"/>
+      <c r="BN20" s="69"/>
+      <c r="BO20" s="69"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
@@ -3242,742 +3243,742 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58" t="s">
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59" t="s">
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="57" t="s">
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57" t="s">
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
+      <c r="AN25" s="68"/>
+      <c r="AO25" s="68"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57"/>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
+      <c r="BI25" s="68"/>
+      <c r="BJ25" s="68"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="68"/>
+      <c r="BO25" s="68"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="58">
+      <c r="C26" s="64">
         <v>1</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="60" t="s">
+      <c r="D26" s="64"/>
+      <c r="E26" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="60" t="s">
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63" t="s">
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="60" t="s">
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="61"/>
-      <c r="AS26" s="61"/>
-      <c r="AT26" s="61"/>
-      <c r="AU26" s="61"/>
-      <c r="AV26" s="61"/>
-      <c r="AW26" s="61"/>
-      <c r="AX26" s="61"/>
-      <c r="AY26" s="61"/>
-      <c r="AZ26" s="61"/>
-      <c r="BA26" s="61"/>
-      <c r="BB26" s="61"/>
-      <c r="BC26" s="62"/>
-      <c r="BD26" s="60" t="s">
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="75"/>
+      <c r="BD26" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="BE26" s="61"/>
-      <c r="BF26" s="61"/>
-      <c r="BG26" s="61"/>
-      <c r="BH26" s="61"/>
-      <c r="BI26" s="61"/>
-      <c r="BJ26" s="61"/>
-      <c r="BK26" s="61"/>
-      <c r="BL26" s="61"/>
-      <c r="BM26" s="61"/>
-      <c r="BN26" s="61"/>
-      <c r="BO26" s="62"/>
+      <c r="BE26" s="74"/>
+      <c r="BF26" s="74"/>
+      <c r="BG26" s="74"/>
+      <c r="BH26" s="74"/>
+      <c r="BI26" s="74"/>
+      <c r="BJ26" s="74"/>
+      <c r="BK26" s="74"/>
+      <c r="BL26" s="74"/>
+      <c r="BM26" s="74"/>
+      <c r="BN26" s="74"/>
+      <c r="BO26" s="75"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="58">
+      <c r="C27" s="64">
         <v>2</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="68"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="68"/>
+      <c r="BI27" s="68"/>
+      <c r="BJ27" s="68"/>
+      <c r="BK27" s="68"/>
+      <c r="BL27" s="68"/>
+      <c r="BM27" s="68"/>
+      <c r="BN27" s="68"/>
+      <c r="BO27" s="68"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="58">
+      <c r="C28" s="64">
         <v>3</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="68"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="68"/>
+      <c r="AL28" s="68"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="68"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="68"/>
+      <c r="BD28" s="68"/>
+      <c r="BE28" s="68"/>
+      <c r="BF28" s="68"/>
+      <c r="BG28" s="68"/>
+      <c r="BH28" s="68"/>
+      <c r="BI28" s="68"/>
+      <c r="BJ28" s="68"/>
+      <c r="BK28" s="68"/>
+      <c r="BL28" s="68"/>
+      <c r="BM28" s="68"/>
+      <c r="BN28" s="68"/>
+      <c r="BO28" s="68"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="58">
+      <c r="C29" s="64">
         <v>4</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="68"/>
+      <c r="AK29" s="68"/>
+      <c r="AL29" s="68"/>
+      <c r="AM29" s="68"/>
+      <c r="AN29" s="68"/>
+      <c r="AO29" s="68"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="68"/>
+      <c r="AR29" s="68"/>
+      <c r="AS29" s="68"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="68"/>
+      <c r="BG29" s="68"/>
+      <c r="BH29" s="68"/>
+      <c r="BI29" s="68"/>
+      <c r="BJ29" s="68"/>
+      <c r="BK29" s="68"/>
+      <c r="BL29" s="68"/>
+      <c r="BM29" s="68"/>
+      <c r="BN29" s="68"/>
+      <c r="BO29" s="68"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="58">
+      <c r="C30" s="64">
         <v>5</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="68"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="68"/>
+      <c r="AL30" s="68"/>
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="68"/>
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="68"/>
+      <c r="AR30" s="68"/>
+      <c r="AS30" s="68"/>
+      <c r="AT30" s="68"/>
+      <c r="AU30" s="68"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="68"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="68"/>
+      <c r="BG30" s="68"/>
+      <c r="BH30" s="68"/>
+      <c r="BI30" s="68"/>
+      <c r="BJ30" s="68"/>
+      <c r="BK30" s="68"/>
+      <c r="BL30" s="68"/>
+      <c r="BM30" s="68"/>
+      <c r="BN30" s="68"/>
+      <c r="BO30" s="68"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="58">
+      <c r="C31" s="64">
         <v>6</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="68"/>
+      <c r="AF31" s="68"/>
+      <c r="AG31" s="68"/>
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
+      <c r="AK31" s="68"/>
+      <c r="AL31" s="68"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="68"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="68"/>
+      <c r="BG31" s="68"/>
+      <c r="BH31" s="68"/>
+      <c r="BI31" s="68"/>
+      <c r="BJ31" s="68"/>
+      <c r="BK31" s="68"/>
+      <c r="BL31" s="68"/>
+      <c r="BM31" s="68"/>
+      <c r="BN31" s="68"/>
+      <c r="BO31" s="68"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="58">
+      <c r="C32" s="64">
         <v>7</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="57"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="57"/>
-      <c r="AZ32" s="57"/>
-      <c r="BA32" s="57"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="57"/>
-      <c r="BD32" s="57"/>
-      <c r="BE32" s="57"/>
-      <c r="BF32" s="57"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="57"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="57"/>
-      <c r="BK32" s="57"/>
-      <c r="BL32" s="57"/>
-      <c r="BM32" s="57"/>
-      <c r="BN32" s="57"/>
-      <c r="BO32" s="57"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="68"/>
+      <c r="AK32" s="68"/>
+      <c r="AL32" s="68"/>
+      <c r="AM32" s="68"/>
+      <c r="AN32" s="68"/>
+      <c r="AO32" s="68"/>
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="68"/>
+      <c r="AS32" s="68"/>
+      <c r="AT32" s="68"/>
+      <c r="AU32" s="68"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="68"/>
+      <c r="BG32" s="68"/>
+      <c r="BH32" s="68"/>
+      <c r="BI32" s="68"/>
+      <c r="BJ32" s="68"/>
+      <c r="BK32" s="68"/>
+      <c r="BL32" s="68"/>
+      <c r="BM32" s="68"/>
+      <c r="BN32" s="68"/>
+      <c r="BO32" s="68"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="58">
+      <c r="C33" s="64">
         <v>8</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
+      <c r="AK33" s="68"/>
+      <c r="AL33" s="68"/>
+      <c r="AM33" s="68"/>
+      <c r="AN33" s="68"/>
+      <c r="AO33" s="68"/>
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="68"/>
+      <c r="AT33" s="68"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="68"/>
+      <c r="BG33" s="68"/>
+      <c r="BH33" s="68"/>
+      <c r="BI33" s="68"/>
+      <c r="BJ33" s="68"/>
+      <c r="BK33" s="68"/>
+      <c r="BL33" s="68"/>
+      <c r="BM33" s="68"/>
+      <c r="BN33" s="68"/>
+      <c r="BO33" s="68"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="58">
+      <c r="C34" s="64">
         <v>9</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="69"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
+      <c r="AL34" s="68"/>
+      <c r="AM34" s="68"/>
+      <c r="AN34" s="68"/>
+      <c r="AO34" s="68"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="68"/>
+      <c r="AT34" s="68"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="68"/>
+      <c r="BG34" s="68"/>
+      <c r="BH34" s="68"/>
+      <c r="BI34" s="68"/>
+      <c r="BJ34" s="68"/>
+      <c r="BK34" s="68"/>
+      <c r="BL34" s="68"/>
+      <c r="BM34" s="68"/>
+      <c r="BN34" s="68"/>
+      <c r="BO34" s="68"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4576,32 +4577,58 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="O28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="BD26:BO26"/>
+    <mergeCell ref="BD28:BO28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="BD27:BO27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:N26"/>
     <mergeCell ref="O26:AD26"/>
     <mergeCell ref="AE26:BC26"/>
     <mergeCell ref="O25:AD25"/>
@@ -4618,58 +4645,32 @@
     <mergeCell ref="H20:BO20"/>
     <mergeCell ref="BD25:BO25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="O28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="BD26:BO26"/>
-    <mergeCell ref="BD28:BO28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="BD27:BO27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4691,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B58A740-BC1C-4090-9166-0DF03091647D}">
   <dimension ref="A1:AMK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4708,247 +4709,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79" t="s">
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="80" t="s">
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="80"/>
-      <c r="BQ1" s="80"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="98"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="98"/>
+      <c r="BH1" s="98"/>
+      <c r="BI1" s="98"/>
+      <c r="BJ1" s="98"/>
+      <c r="BK1" s="98"/>
+      <c r="BL1" s="98"/>
+      <c r="BM1" s="98"/>
+      <c r="BN1" s="98"/>
+      <c r="BO1" s="98"/>
+      <c r="BP1" s="98"/>
+      <c r="BQ1" s="98"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="83" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83" t="s">
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83" t="s">
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="83"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="83"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="83"/>
-      <c r="BJ2" s="84" t="s">
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="101"/>
+      <c r="BN2" s="101"/>
+      <c r="BO2" s="101"/>
+      <c r="BP2" s="101"/>
+      <c r="BQ2" s="101"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="85" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="86">
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="103">
         <v>414404</v>
       </c>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="85" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="87" t="s">
-        <v>95</v>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="104" t="s">
+        <v>93</v>
       </c>
-      <c r="BK3" s="87"/>
-      <c r="BL3" s="87"/>
-      <c r="BM3" s="87"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="87"/>
-      <c r="BP3" s="87"/>
-      <c r="BQ3" s="87"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="104"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4973,96 +4974,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89" t="s">
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="90" t="s">
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BO6" s="90"/>
-      <c r="BP6" s="90"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="95"/>
+      <c r="BL6" s="95"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="95"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="41" t="s">
         <v>82</v>
       </c>
@@ -5093,34 +5094,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="90"/>
-      <c r="BK7" s="90"/>
-      <c r="BL7" s="90"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BO7" s="90"/>
-      <c r="BP7" s="90"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="95"/>
+      <c r="BL7" s="95"/>
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="95"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -5134,89 +5135,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="83" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="88" t="s">
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="88"/>
-      <c r="AS10" s="88"/>
-      <c r="AT10" s="88"/>
-      <c r="AU10" s="88"/>
-      <c r="AV10" s="88"/>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="88"/>
-      <c r="AY10" s="88"/>
-      <c r="AZ10" s="88"/>
-      <c r="BA10" s="88"/>
-      <c r="BB10" s="88"/>
-      <c r="BC10" s="88"/>
-      <c r="BD10" s="88"/>
-      <c r="BE10" s="88"/>
-      <c r="BF10" s="88"/>
-      <c r="BG10" s="88"/>
-      <c r="BH10" s="88"/>
-      <c r="BI10" s="88"/>
-      <c r="BJ10" s="88" t="s">
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="89"/>
+      <c r="BC10" s="89"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BH10" s="89"/>
+      <c r="BI10" s="89"/>
+      <c r="BJ10" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="88"/>
-      <c r="BL10" s="88"/>
-      <c r="BM10" s="88"/>
-      <c r="BN10" s="88"/>
-      <c r="BO10" s="88"/>
-      <c r="BP10" s="88"/>
+      <c r="BK10" s="89"/>
+      <c r="BL10" s="89"/>
+      <c r="BM10" s="89"/>
+      <c r="BN10" s="89"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="89"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="92" t="s">
-        <v>99</v>
+      <c r="C11" s="90" t="s">
+        <v>97</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="41" t="s">
         <v>57</v>
       </c>
@@ -5232,11 +5233,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="83" t="s">
+      <c r="T11" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -5286,12 +5287,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="93" t="s">
-        <v>120</v>
+      <c r="C12" s="86" t="s">
+        <v>117</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -5305,9 +5306,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5356,12 +5357,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="93" t="s">
-        <v>121</v>
+      <c r="C13" s="86" t="s">
+        <v>118</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5375,9 +5376,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5426,12 +5427,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5445,9 +5446,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5496,12 +5497,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5515,9 +5516,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5577,90 +5578,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="83" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83" t="s">
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="88" t="s">
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="88"/>
-      <c r="BA18" s="88"/>
-      <c r="BB18" s="88"/>
-      <c r="BC18" s="88"/>
-      <c r="BD18" s="88"/>
-      <c r="BE18" s="88"/>
-      <c r="BF18" s="88"/>
-      <c r="BG18" s="88"/>
-      <c r="BH18" s="88"/>
-      <c r="BI18" s="88"/>
-      <c r="BJ18" s="88" t="s">
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="89"/>
+      <c r="AQ18" s="89"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="89"/>
+      <c r="AZ18" s="89"/>
+      <c r="BA18" s="89"/>
+      <c r="BB18" s="89"/>
+      <c r="BC18" s="89"/>
+      <c r="BD18" s="89"/>
+      <c r="BE18" s="89"/>
+      <c r="BF18" s="89"/>
+      <c r="BG18" s="89"/>
+      <c r="BH18" s="89"/>
+      <c r="BI18" s="89"/>
+      <c r="BJ18" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="88"/>
-      <c r="BL18" s="88"/>
-      <c r="BM18" s="88"/>
-      <c r="BN18" s="88"/>
-      <c r="BO18" s="88"/>
-      <c r="BP18" s="88"/>
+      <c r="BK18" s="89"/>
+      <c r="BL18" s="89"/>
+      <c r="BM18" s="89"/>
+      <c r="BN18" s="89"/>
+      <c r="BO18" s="89"/>
+      <c r="BP18" s="89"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="92" t="s">
-        <v>96</v>
+      <c r="C19" s="90" t="s">
+        <v>94</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5674,9 +5675,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="40" t="s">
         <v>83</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="BP24" s="22"/>
@@ -5987,276 +5988,276 @@
     <row r="28" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="C28" s="24"/>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="100" t="s">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="101"/>
-      <c r="AP28" s="101"/>
-      <c r="AQ28" s="101"/>
-      <c r="AR28" s="101"/>
-      <c r="AS28" s="101"/>
-      <c r="AT28" s="101"/>
-      <c r="AU28" s="101"/>
-      <c r="AV28" s="101"/>
-      <c r="AW28" s="101"/>
-      <c r="AX28" s="101"/>
-      <c r="AY28" s="101"/>
-      <c r="AZ28" s="101"/>
-      <c r="BA28" s="101"/>
-      <c r="BB28" s="101"/>
-      <c r="BC28" s="101"/>
-      <c r="BD28" s="101"/>
-      <c r="BE28" s="101"/>
-      <c r="BF28" s="101"/>
-      <c r="BG28" s="101"/>
-      <c r="BH28" s="101"/>
-      <c r="BI28" s="101"/>
-      <c r="BJ28" s="101"/>
-      <c r="BK28" s="102"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="92"/>
+      <c r="AO28" s="92"/>
+      <c r="AP28" s="92"/>
+      <c r="AQ28" s="92"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="92"/>
+      <c r="BK28" s="93"/>
       <c r="BP28" s="22"/>
       <c r="BQ28" s="15"/>
     </row>
     <row r="29" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="C29" s="24"/>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="97" t="s">
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="98"/>
-      <c r="AM29" s="98"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="98"/>
-      <c r="AP29" s="98"/>
-      <c r="AQ29" s="98"/>
-      <c r="AR29" s="98"/>
-      <c r="AS29" s="98"/>
-      <c r="AT29" s="98"/>
-      <c r="AU29" s="98"/>
-      <c r="AV29" s="98"/>
-      <c r="AW29" s="98"/>
-      <c r="AX29" s="98"/>
-      <c r="AY29" s="98"/>
-      <c r="AZ29" s="98"/>
-      <c r="BA29" s="98"/>
-      <c r="BB29" s="98"/>
-      <c r="BC29" s="98"/>
-      <c r="BD29" s="98"/>
-      <c r="BE29" s="98"/>
-      <c r="BF29" s="98"/>
-      <c r="BG29" s="98"/>
-      <c r="BH29" s="98"/>
-      <c r="BI29" s="98"/>
-      <c r="BJ29" s="98"/>
-      <c r="BK29" s="99"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="83"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="83"/>
+      <c r="BB29" s="83"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="83"/>
+      <c r="BE29" s="83"/>
+      <c r="BF29" s="83"/>
+      <c r="BG29" s="83"/>
+      <c r="BH29" s="83"/>
+      <c r="BI29" s="83"/>
+      <c r="BJ29" s="83"/>
+      <c r="BK29" s="84"/>
       <c r="BP29" s="22"/>
       <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="C30" s="24"/>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97" t="s">
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="98"/>
-      <c r="AP30" s="98"/>
-      <c r="AQ30" s="98"/>
-      <c r="AR30" s="98"/>
-      <c r="AS30" s="98"/>
-      <c r="AT30" s="98"/>
-      <c r="AU30" s="98"/>
-      <c r="AV30" s="98"/>
-      <c r="AW30" s="98"/>
-      <c r="AX30" s="98"/>
-      <c r="AY30" s="98"/>
-      <c r="AZ30" s="98"/>
-      <c r="BA30" s="98"/>
-      <c r="BB30" s="98"/>
-      <c r="BC30" s="98"/>
-      <c r="BD30" s="98"/>
-      <c r="BE30" s="98"/>
-      <c r="BF30" s="98"/>
-      <c r="BG30" s="98"/>
-      <c r="BH30" s="98"/>
-      <c r="BI30" s="98"/>
-      <c r="BJ30" s="98"/>
-      <c r="BK30" s="99"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="83"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="83"/>
+      <c r="AJ30" s="83"/>
+      <c r="AK30" s="83"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="83"/>
+      <c r="AN30" s="83"/>
+      <c r="AO30" s="83"/>
+      <c r="AP30" s="83"/>
+      <c r="AQ30" s="83"/>
+      <c r="AR30" s="83"/>
+      <c r="AS30" s="83"/>
+      <c r="AT30" s="83"/>
+      <c r="AU30" s="83"/>
+      <c r="AV30" s="83"/>
+      <c r="AW30" s="83"/>
+      <c r="AX30" s="83"/>
+      <c r="AY30" s="83"/>
+      <c r="AZ30" s="83"/>
+      <c r="BA30" s="83"/>
+      <c r="BB30" s="83"/>
+      <c r="BC30" s="83"/>
+      <c r="BD30" s="83"/>
+      <c r="BE30" s="83"/>
+      <c r="BF30" s="83"/>
+      <c r="BG30" s="83"/>
+      <c r="BH30" s="83"/>
+      <c r="BI30" s="83"/>
+      <c r="BJ30" s="83"/>
+      <c r="BK30" s="84"/>
       <c r="BP30" s="22"/>
       <c r="BQ30" s="15"/>
     </row>
     <row r="31" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="C31" s="24"/>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="97" t="s">
-        <v>106</v>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="82" t="s">
+        <v>104</v>
       </c>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="98"/>
-      <c r="AO31" s="98"/>
-      <c r="AP31" s="98"/>
-      <c r="AQ31" s="98"/>
-      <c r="AR31" s="98"/>
-      <c r="AS31" s="98"/>
-      <c r="AT31" s="98"/>
-      <c r="AU31" s="98"/>
-      <c r="AV31" s="98"/>
-      <c r="AW31" s="98"/>
-      <c r="AX31" s="98"/>
-      <c r="AY31" s="98"/>
-      <c r="AZ31" s="98"/>
-      <c r="BA31" s="98"/>
-      <c r="BB31" s="98"/>
-      <c r="BC31" s="98"/>
-      <c r="BD31" s="98"/>
-      <c r="BE31" s="98"/>
-      <c r="BF31" s="98"/>
-      <c r="BG31" s="98"/>
-      <c r="BH31" s="98"/>
-      <c r="BI31" s="98"/>
-      <c r="BJ31" s="98"/>
-      <c r="BK31" s="99"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="83"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="83"/>
+      <c r="AF31" s="83"/>
+      <c r="AG31" s="83"/>
+      <c r="AH31" s="83"/>
+      <c r="AI31" s="83"/>
+      <c r="AJ31" s="83"/>
+      <c r="AK31" s="83"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="83"/>
+      <c r="AN31" s="83"/>
+      <c r="AO31" s="83"/>
+      <c r="AP31" s="83"/>
+      <c r="AQ31" s="83"/>
+      <c r="AR31" s="83"/>
+      <c r="AS31" s="83"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="83"/>
+      <c r="AV31" s="83"/>
+      <c r="AW31" s="83"/>
+      <c r="AX31" s="83"/>
+      <c r="AY31" s="83"/>
+      <c r="AZ31" s="83"/>
+      <c r="BA31" s="83"/>
+      <c r="BB31" s="83"/>
+      <c r="BC31" s="83"/>
+      <c r="BD31" s="83"/>
+      <c r="BE31" s="83"/>
+      <c r="BF31" s="83"/>
+      <c r="BG31" s="83"/>
+      <c r="BH31" s="83"/>
+      <c r="BI31" s="83"/>
+      <c r="BJ31" s="83"/>
+      <c r="BK31" s="84"/>
       <c r="BP31" s="22"/>
       <c r="BQ31" s="15"/>
     </row>
@@ -6271,10 +6272,10 @@
       <c r="A33" s="17"/>
       <c r="C33" s="24"/>
       <c r="D33" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG33" s="23"/>
       <c r="BP33" s="22"/>
@@ -6291,7 +6292,7 @@
       <c r="A35" s="17"/>
       <c r="C35" s="24"/>
       <c r="E35" s="50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -6368,7 +6369,7 @@
       <c r="K36" s="48"/>
       <c r="L36" s="49"/>
       <c r="M36" s="47" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
@@ -6437,7 +6438,7 @@
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
       <c r="M37" s="47" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="N37" s="48"/>
       <c r="O37" s="48"/>
@@ -6503,10 +6504,10 @@
       <c r="A39" s="17"/>
       <c r="C39" s="24"/>
       <c r="D39" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AG39" s="23"/>
       <c r="BP39" s="22"/>
@@ -6523,10 +6524,10 @@
       <c r="A41" s="17"/>
       <c r="C41" s="24"/>
       <c r="D41" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="BP41" s="22"/>
@@ -6542,276 +6543,276 @@
     <row r="43" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="C43" s="24"/>
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="104" t="s">
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="104"/>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="104"/>
-      <c r="AG43" s="104"/>
-      <c r="AH43" s="104"/>
-      <c r="AI43" s="104"/>
-      <c r="AJ43" s="104"/>
-      <c r="AK43" s="104"/>
-      <c r="AL43" s="104"/>
-      <c r="AM43" s="104"/>
-      <c r="AN43" s="104"/>
-      <c r="AO43" s="104"/>
-      <c r="AP43" s="104"/>
-      <c r="AQ43" s="104"/>
-      <c r="AR43" s="104"/>
-      <c r="AS43" s="104"/>
-      <c r="AT43" s="104"/>
-      <c r="AU43" s="104"/>
-      <c r="AV43" s="104"/>
-      <c r="AW43" s="104"/>
-      <c r="AX43" s="104"/>
-      <c r="AY43" s="104"/>
-      <c r="AZ43" s="104"/>
-      <c r="BA43" s="104"/>
-      <c r="BB43" s="104"/>
-      <c r="BC43" s="104"/>
-      <c r="BD43" s="104"/>
-      <c r="BE43" s="104"/>
-      <c r="BF43" s="104"/>
-      <c r="BG43" s="104"/>
-      <c r="BH43" s="104"/>
-      <c r="BI43" s="104"/>
-      <c r="BJ43" s="104"/>
-      <c r="BK43" s="104"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="85"/>
+      <c r="AE43" s="85"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="85"/>
+      <c r="AH43" s="85"/>
+      <c r="AI43" s="85"/>
+      <c r="AJ43" s="85"/>
+      <c r="AK43" s="85"/>
+      <c r="AL43" s="85"/>
+      <c r="AM43" s="85"/>
+      <c r="AN43" s="85"/>
+      <c r="AO43" s="85"/>
+      <c r="AP43" s="85"/>
+      <c r="AQ43" s="85"/>
+      <c r="AR43" s="85"/>
+      <c r="AS43" s="85"/>
+      <c r="AT43" s="85"/>
+      <c r="AU43" s="85"/>
+      <c r="AV43" s="85"/>
+      <c r="AW43" s="85"/>
+      <c r="AX43" s="85"/>
+      <c r="AY43" s="85"/>
+      <c r="AZ43" s="85"/>
+      <c r="BA43" s="85"/>
+      <c r="BB43" s="85"/>
+      <c r="BC43" s="85"/>
+      <c r="BD43" s="85"/>
+      <c r="BE43" s="85"/>
+      <c r="BF43" s="85"/>
+      <c r="BG43" s="85"/>
+      <c r="BH43" s="85"/>
+      <c r="BI43" s="85"/>
+      <c r="BJ43" s="85"/>
+      <c r="BK43" s="85"/>
       <c r="BP43" s="22"/>
       <c r="BQ43" s="15"/>
     </row>
     <row r="44" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="C44" s="24"/>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="103"/>
-      <c r="O44" s="105" t="s">
-        <v>101</v>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="78" t="s">
+        <v>99</v>
       </c>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="105"/>
-      <c r="T44" s="105"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105"/>
-      <c r="W44" s="105"/>
-      <c r="X44" s="105"/>
-      <c r="Y44" s="105"/>
-      <c r="Z44" s="105"/>
-      <c r="AA44" s="105"/>
-      <c r="AB44" s="105"/>
-      <c r="AC44" s="105"/>
-      <c r="AD44" s="105"/>
-      <c r="AE44" s="105"/>
-      <c r="AF44" s="105"/>
-      <c r="AG44" s="105"/>
-      <c r="AH44" s="105"/>
-      <c r="AI44" s="105"/>
-      <c r="AJ44" s="105"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
-      <c r="AM44" s="105"/>
-      <c r="AN44" s="105"/>
-      <c r="AO44" s="105"/>
-      <c r="AP44" s="105"/>
-      <c r="AQ44" s="105"/>
-      <c r="AR44" s="105"/>
-      <c r="AS44" s="105"/>
-      <c r="AT44" s="105"/>
-      <c r="AU44" s="105"/>
-      <c r="AV44" s="105"/>
-      <c r="AW44" s="105"/>
-      <c r="AX44" s="105"/>
-      <c r="AY44" s="105"/>
-      <c r="AZ44" s="105"/>
-      <c r="BA44" s="105"/>
-      <c r="BB44" s="105"/>
-      <c r="BC44" s="105"/>
-      <c r="BD44" s="105"/>
-      <c r="BE44" s="105"/>
-      <c r="BF44" s="105"/>
-      <c r="BG44" s="105"/>
-      <c r="BH44" s="105"/>
-      <c r="BI44" s="105"/>
-      <c r="BJ44" s="105"/>
-      <c r="BK44" s="105"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="78"/>
+      <c r="AD44" s="78"/>
+      <c r="AE44" s="78"/>
+      <c r="AF44" s="78"/>
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AY44" s="78"/>
+      <c r="AZ44" s="78"/>
+      <c r="BA44" s="78"/>
+      <c r="BB44" s="78"/>
+      <c r="BC44" s="78"/>
+      <c r="BD44" s="78"/>
+      <c r="BE44" s="78"/>
+      <c r="BF44" s="78"/>
+      <c r="BG44" s="78"/>
+      <c r="BH44" s="78"/>
+      <c r="BI44" s="78"/>
+      <c r="BJ44" s="78"/>
+      <c r="BK44" s="78"/>
       <c r="BP44" s="22"/>
       <c r="BQ44" s="15"/>
     </row>
     <row r="45" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="C45" s="24"/>
-      <c r="E45" s="103" t="s">
-        <v>99</v>
+      <c r="E45" s="77" t="s">
+        <v>97</v>
       </c>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="105" t="s">
-        <v>100</v>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="78" t="s">
+        <v>98</v>
       </c>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="105"/>
-      <c r="T45" s="105"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105"/>
-      <c r="W45" s="105"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="105"/>
-      <c r="AA45" s="105"/>
-      <c r="AB45" s="105"/>
-      <c r="AC45" s="105"/>
-      <c r="AD45" s="105"/>
-      <c r="AE45" s="105"/>
-      <c r="AF45" s="105"/>
-      <c r="AG45" s="105"/>
-      <c r="AH45" s="105"/>
-      <c r="AI45" s="105"/>
-      <c r="AJ45" s="105"/>
-      <c r="AK45" s="105"/>
-      <c r="AL45" s="105"/>
-      <c r="AM45" s="105"/>
-      <c r="AN45" s="105"/>
-      <c r="AO45" s="105"/>
-      <c r="AP45" s="105"/>
-      <c r="AQ45" s="105"/>
-      <c r="AR45" s="105"/>
-      <c r="AS45" s="105"/>
-      <c r="AT45" s="105"/>
-      <c r="AU45" s="105"/>
-      <c r="AV45" s="105"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="105"/>
-      <c r="AY45" s="105"/>
-      <c r="AZ45" s="105"/>
-      <c r="BA45" s="105"/>
-      <c r="BB45" s="105"/>
-      <c r="BC45" s="105"/>
-      <c r="BD45" s="105"/>
-      <c r="BE45" s="105"/>
-      <c r="BF45" s="105"/>
-      <c r="BG45" s="105"/>
-      <c r="BH45" s="105"/>
-      <c r="BI45" s="105"/>
-      <c r="BJ45" s="105"/>
-      <c r="BK45" s="105"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="78"/>
+      <c r="T45" s="78"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="78"/>
+      <c r="W45" s="78"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="78"/>
+      <c r="AA45" s="78"/>
+      <c r="AB45" s="78"/>
+      <c r="AC45" s="78"/>
+      <c r="AD45" s="78"/>
+      <c r="AE45" s="78"/>
+      <c r="AF45" s="78"/>
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="78"/>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="78"/>
+      <c r="AM45" s="78"/>
+      <c r="AN45" s="78"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="78"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="78"/>
+      <c r="AT45" s="78"/>
+      <c r="AU45" s="78"/>
+      <c r="AV45" s="78"/>
+      <c r="AW45" s="78"/>
+      <c r="AX45" s="78"/>
+      <c r="AY45" s="78"/>
+      <c r="AZ45" s="78"/>
+      <c r="BA45" s="78"/>
+      <c r="BB45" s="78"/>
+      <c r="BC45" s="78"/>
+      <c r="BD45" s="78"/>
+      <c r="BE45" s="78"/>
+      <c r="BF45" s="78"/>
+      <c r="BG45" s="78"/>
+      <c r="BH45" s="78"/>
+      <c r="BI45" s="78"/>
+      <c r="BJ45" s="78"/>
+      <c r="BK45" s="78"/>
       <c r="BP45" s="22"/>
       <c r="BQ45" s="15"/>
     </row>
     <row r="46" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="C46" s="24"/>
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="105" t="s">
-        <v>112</v>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="78" t="s">
+        <v>109</v>
       </c>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
-      <c r="S46" s="105"/>
-      <c r="T46" s="105"/>
-      <c r="U46" s="105"/>
-      <c r="V46" s="105"/>
-      <c r="W46" s="105"/>
-      <c r="X46" s="105"/>
-      <c r="Y46" s="105"/>
-      <c r="Z46" s="105"/>
-      <c r="AA46" s="105"/>
-      <c r="AB46" s="105"/>
-      <c r="AC46" s="105"/>
-      <c r="AD46" s="105"/>
-      <c r="AE46" s="105"/>
-      <c r="AF46" s="105"/>
-      <c r="AG46" s="105"/>
-      <c r="AH46" s="105"/>
-      <c r="AI46" s="105"/>
-      <c r="AJ46" s="105"/>
-      <c r="AK46" s="105"/>
-      <c r="AL46" s="105"/>
-      <c r="AM46" s="105"/>
-      <c r="AN46" s="105"/>
-      <c r="AO46" s="105"/>
-      <c r="AP46" s="105"/>
-      <c r="AQ46" s="105"/>
-      <c r="AR46" s="105"/>
-      <c r="AS46" s="105"/>
-      <c r="AT46" s="105"/>
-      <c r="AU46" s="105"/>
-      <c r="AV46" s="105"/>
-      <c r="AW46" s="105"/>
-      <c r="AX46" s="105"/>
-      <c r="AY46" s="105"/>
-      <c r="AZ46" s="105"/>
-      <c r="BA46" s="105"/>
-      <c r="BB46" s="105"/>
-      <c r="BC46" s="105"/>
-      <c r="BD46" s="105"/>
-      <c r="BE46" s="105"/>
-      <c r="BF46" s="105"/>
-      <c r="BG46" s="105"/>
-      <c r="BH46" s="105"/>
-      <c r="BI46" s="105"/>
-      <c r="BJ46" s="105"/>
-      <c r="BK46" s="105"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="78"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="78"/>
+      <c r="AB46" s="78"/>
+      <c r="AC46" s="78"/>
+      <c r="AD46" s="78"/>
+      <c r="AE46" s="78"/>
+      <c r="AF46" s="78"/>
+      <c r="AG46" s="78"/>
+      <c r="AH46" s="78"/>
+      <c r="AI46" s="78"/>
+      <c r="AJ46" s="78"/>
+      <c r="AK46" s="78"/>
+      <c r="AL46" s="78"/>
+      <c r="AM46" s="78"/>
+      <c r="AN46" s="78"/>
+      <c r="AO46" s="78"/>
+      <c r="AP46" s="78"/>
+      <c r="AQ46" s="78"/>
+      <c r="AR46" s="78"/>
+      <c r="AS46" s="78"/>
+      <c r="AT46" s="78"/>
+      <c r="AU46" s="78"/>
+      <c r="AV46" s="78"/>
+      <c r="AW46" s="78"/>
+      <c r="AX46" s="78"/>
+      <c r="AY46" s="78"/>
+      <c r="AZ46" s="78"/>
+      <c r="BA46" s="78"/>
+      <c r="BB46" s="78"/>
+      <c r="BC46" s="78"/>
+      <c r="BD46" s="78"/>
+      <c r="BE46" s="78"/>
+      <c r="BF46" s="78"/>
+      <c r="BG46" s="78"/>
+      <c r="BH46" s="78"/>
+      <c r="BI46" s="78"/>
+      <c r="BJ46" s="78"/>
+      <c r="BK46" s="78"/>
       <c r="BP46" s="22"/>
       <c r="BQ46" s="15"/>
     </row>
@@ -6826,10 +6827,10 @@
       <c r="A48" s="17"/>
       <c r="C48" s="24"/>
       <c r="D48" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG48" s="23"/>
       <c r="BP48" s="22"/>
@@ -6846,10 +6847,10 @@
       <c r="A50" s="17"/>
       <c r="C50" s="24"/>
       <c r="D50" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AG50" s="23"/>
       <c r="BP50" s="22"/>
@@ -6924,10 +6925,10 @@
       <c r="A52" s="17"/>
       <c r="C52" s="24"/>
       <c r="D52" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -7059,10 +7060,10 @@
       <c r="A54" s="17"/>
       <c r="C54" s="24"/>
       <c r="D54" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -7193,11 +7194,11 @@
     <row r="56" spans="1:1025" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="106" t="s">
-        <v>118</v>
+      <c r="D56" s="57" t="s">
+        <v>115</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BP56" s="22"/>
       <c r="BQ56" s="15"/>
@@ -7214,11 +7215,11 @@
       <c r="A58" s="17"/>
       <c r="B58" s="14"/>
       <c r="C58" s="24"/>
-      <c r="D58" s="107" t="s">
-        <v>119</v>
+      <c r="D58" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -25684,18 +25685,38 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="O44:BK44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:BK45"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="O46:BK46"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="O30:BK30"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="O31:BK31"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:BK43"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="O29:BK29"/>
     <mergeCell ref="C14:F14"/>
@@ -25711,38 +25732,18 @@
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="O30:BK30"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="O31:BK31"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:BK43"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="O44:BK44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:BK45"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="O46:BK46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -25764,7 +25765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52DE973-A8E6-4741-91B2-5EEB95E5F33A}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -25781,247 +25782,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79" t="s">
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="80" t="s">
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="80"/>
-      <c r="BQ1" s="80"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="98"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="98"/>
+      <c r="BH1" s="98"/>
+      <c r="BI1" s="98"/>
+      <c r="BJ1" s="98"/>
+      <c r="BK1" s="98"/>
+      <c r="BL1" s="98"/>
+      <c r="BM1" s="98"/>
+      <c r="BN1" s="98"/>
+      <c r="BO1" s="98"/>
+      <c r="BP1" s="98"/>
+      <c r="BQ1" s="98"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="83" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83" t="s">
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83" t="s">
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="83"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="83"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="83"/>
-      <c r="BJ2" s="84" t="s">
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="101"/>
+      <c r="BN2" s="101"/>
+      <c r="BO2" s="101"/>
+      <c r="BP2" s="101"/>
+      <c r="BQ2" s="101"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="85" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="86">
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="103">
         <v>45510</v>
       </c>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="85" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="87">
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="104">
         <v>45533</v>
       </c>
-      <c r="BK3" s="87"/>
-      <c r="BL3" s="87"/>
-      <c r="BM3" s="87"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="87"/>
-      <c r="BP3" s="87"/>
-      <c r="BQ3" s="87"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="104"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -26046,96 +26047,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89" t="s">
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="90" t="s">
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BO6" s="90"/>
-      <c r="BP6" s="90"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="95"/>
+      <c r="BL6" s="95"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="95"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="41" t="s">
         <v>51</v>
       </c>
@@ -26166,34 +26167,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="90"/>
-      <c r="BK7" s="90"/>
-      <c r="BL7" s="90"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BO7" s="90"/>
-      <c r="BP7" s="90"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="95"/>
+      <c r="BL7" s="95"/>
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="95"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -26207,89 +26208,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="83" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="88" t="s">
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="88"/>
-      <c r="AS10" s="88"/>
-      <c r="AT10" s="88"/>
-      <c r="AU10" s="88"/>
-      <c r="AV10" s="88"/>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="88"/>
-      <c r="AY10" s="88"/>
-      <c r="AZ10" s="88"/>
-      <c r="BA10" s="88"/>
-      <c r="BB10" s="88"/>
-      <c r="BC10" s="88"/>
-      <c r="BD10" s="88"/>
-      <c r="BE10" s="88"/>
-      <c r="BF10" s="88"/>
-      <c r="BG10" s="88"/>
-      <c r="BH10" s="88"/>
-      <c r="BI10" s="88"/>
-      <c r="BJ10" s="88" t="s">
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="89"/>
+      <c r="BC10" s="89"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BH10" s="89"/>
+      <c r="BI10" s="89"/>
+      <c r="BJ10" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="88"/>
-      <c r="BL10" s="88"/>
-      <c r="BM10" s="88"/>
-      <c r="BN10" s="88"/>
-      <c r="BO10" s="88"/>
-      <c r="BP10" s="88"/>
+      <c r="BK10" s="89"/>
+      <c r="BL10" s="89"/>
+      <c r="BM10" s="89"/>
+      <c r="BN10" s="89"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="89"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="41" t="s">
         <v>57</v>
       </c>
@@ -26305,11 +26306,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="83" t="s">
+      <c r="T11" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -26359,12 +26360,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -26378,9 +26379,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -26429,12 +26430,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -26448,9 +26449,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -26499,12 +26500,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -26518,9 +26519,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -26569,12 +26570,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -26588,9 +26589,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -26650,88 +26651,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="83" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83" t="s">
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="88" t="s">
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="88"/>
-      <c r="BA18" s="88"/>
-      <c r="BB18" s="88"/>
-      <c r="BC18" s="88"/>
-      <c r="BD18" s="88"/>
-      <c r="BE18" s="88"/>
-      <c r="BF18" s="88"/>
-      <c r="BG18" s="88"/>
-      <c r="BH18" s="88"/>
-      <c r="BI18" s="88"/>
-      <c r="BJ18" s="88" t="s">
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="89"/>
+      <c r="AQ18" s="89"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="89"/>
+      <c r="AZ18" s="89"/>
+      <c r="BA18" s="89"/>
+      <c r="BB18" s="89"/>
+      <c r="BC18" s="89"/>
+      <c r="BD18" s="89"/>
+      <c r="BE18" s="89"/>
+      <c r="BF18" s="89"/>
+      <c r="BG18" s="89"/>
+      <c r="BH18" s="89"/>
+      <c r="BI18" s="89"/>
+      <c r="BJ18" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="88"/>
-      <c r="BL18" s="88"/>
-      <c r="BM18" s="88"/>
-      <c r="BN18" s="88"/>
-      <c r="BO18" s="88"/>
-      <c r="BP18" s="88"/>
+      <c r="BK18" s="89"/>
+      <c r="BL18" s="89"/>
+      <c r="BM18" s="89"/>
+      <c r="BN18" s="89"/>
+      <c r="BO18" s="89"/>
+      <c r="BP18" s="89"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="41" t="s">
         <v>58</v>
       </c>
@@ -26747,9 +26748,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="40" t="s">
         <v>80</v>
       </c>
@@ -27036,270 +27037,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="104" t="s">
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="104"/>
-      <c r="AI26" s="104"/>
-      <c r="AJ26" s="104"/>
-      <c r="AK26" s="104"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="104"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="104"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="104"/>
-      <c r="AR26" s="104"/>
-      <c r="AS26" s="104"/>
-      <c r="AT26" s="104"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="104"/>
-      <c r="AX26" s="104"/>
-      <c r="AY26" s="104"/>
-      <c r="AZ26" s="104"/>
-      <c r="BA26" s="104"/>
-      <c r="BB26" s="104"/>
-      <c r="BC26" s="104"/>
-      <c r="BD26" s="104"/>
-      <c r="BE26" s="104"/>
-      <c r="BF26" s="104"/>
-      <c r="BG26" s="104"/>
-      <c r="BH26" s="104"/>
-      <c r="BI26" s="104"/>
-      <c r="BJ26" s="104"/>
-      <c r="BK26" s="104"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="85"/>
+      <c r="AL26" s="85"/>
+      <c r="AM26" s="85"/>
+      <c r="AN26" s="85"/>
+      <c r="AO26" s="85"/>
+      <c r="AP26" s="85"/>
+      <c r="AQ26" s="85"/>
+      <c r="AR26" s="85"/>
+      <c r="AS26" s="85"/>
+      <c r="AT26" s="85"/>
+      <c r="AU26" s="85"/>
+      <c r="AV26" s="85"/>
+      <c r="AW26" s="85"/>
+      <c r="AX26" s="85"/>
+      <c r="AY26" s="85"/>
+      <c r="AZ26" s="85"/>
+      <c r="BA26" s="85"/>
+      <c r="BB26" s="85"/>
+      <c r="BC26" s="85"/>
+      <c r="BD26" s="85"/>
+      <c r="BE26" s="85"/>
+      <c r="BF26" s="85"/>
+      <c r="BG26" s="85"/>
+      <c r="BH26" s="85"/>
+      <c r="BI26" s="85"/>
+      <c r="BJ26" s="85"/>
+      <c r="BK26" s="85"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="105" t="s">
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="105"/>
-      <c r="AT27" s="105"/>
-      <c r="AU27" s="105"/>
-      <c r="AV27" s="105"/>
-      <c r="AW27" s="105"/>
-      <c r="AX27" s="105"/>
-      <c r="AY27" s="105"/>
-      <c r="AZ27" s="105"/>
-      <c r="BA27" s="105"/>
-      <c r="BB27" s="105"/>
-      <c r="BC27" s="105"/>
-      <c r="BD27" s="105"/>
-      <c r="BE27" s="105"/>
-      <c r="BF27" s="105"/>
-      <c r="BG27" s="105"/>
-      <c r="BH27" s="105"/>
-      <c r="BI27" s="105"/>
-      <c r="BJ27" s="105"/>
-      <c r="BK27" s="105"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
+      <c r="AZ27" s="78"/>
+      <c r="BA27" s="78"/>
+      <c r="BB27" s="78"/>
+      <c r="BC27" s="78"/>
+      <c r="BD27" s="78"/>
+      <c r="BE27" s="78"/>
+      <c r="BF27" s="78"/>
+      <c r="BG27" s="78"/>
+      <c r="BH27" s="78"/>
+      <c r="BI27" s="78"/>
+      <c r="BJ27" s="78"/>
+      <c r="BK27" s="78"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="105" t="s">
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="105"/>
-      <c r="AI28" s="105"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="105"/>
-      <c r="AL28" s="105"/>
-      <c r="AM28" s="105"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="105"/>
-      <c r="AQ28" s="105"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="105"/>
-      <c r="AT28" s="105"/>
-      <c r="AU28" s="105"/>
-      <c r="AV28" s="105"/>
-      <c r="AW28" s="105"/>
-      <c r="AX28" s="105"/>
-      <c r="AY28" s="105"/>
-      <c r="AZ28" s="105"/>
-      <c r="BA28" s="105"/>
-      <c r="BB28" s="105"/>
-      <c r="BC28" s="105"/>
-      <c r="BD28" s="105"/>
-      <c r="BE28" s="105"/>
-      <c r="BF28" s="105"/>
-      <c r="BG28" s="105"/>
-      <c r="BH28" s="105"/>
-      <c r="BI28" s="105"/>
-      <c r="BJ28" s="105"/>
-      <c r="BK28" s="105"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="78"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BI28" s="78"/>
+      <c r="BJ28" s="78"/>
+      <c r="BK28" s="78"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="105" t="s">
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="105"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="105"/>
-      <c r="AI29" s="105"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="105"/>
-      <c r="AL29" s="105"/>
-      <c r="AM29" s="105"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="105"/>
-      <c r="AP29" s="105"/>
-      <c r="AQ29" s="105"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="105"/>
-      <c r="AT29" s="105"/>
-      <c r="AU29" s="105"/>
-      <c r="AV29" s="105"/>
-      <c r="AW29" s="105"/>
-      <c r="AX29" s="105"/>
-      <c r="AY29" s="105"/>
-      <c r="AZ29" s="105"/>
-      <c r="BA29" s="105"/>
-      <c r="BB29" s="105"/>
-      <c r="BC29" s="105"/>
-      <c r="BD29" s="105"/>
-      <c r="BE29" s="105"/>
-      <c r="BF29" s="105"/>
-      <c r="BG29" s="105"/>
-      <c r="BH29" s="105"/>
-      <c r="BI29" s="105"/>
-      <c r="BJ29" s="105"/>
-      <c r="BK29" s="105"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="78"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="78"/>
+      <c r="AY29" s="78"/>
+      <c r="AZ29" s="78"/>
+      <c r="BA29" s="78"/>
+      <c r="BB29" s="78"/>
+      <c r="BC29" s="78"/>
+      <c r="BD29" s="78"/>
+      <c r="BE29" s="78"/>
+      <c r="BF29" s="78"/>
+      <c r="BG29" s="78"/>
+      <c r="BH29" s="78"/>
+      <c r="BI29" s="78"/>
+      <c r="BJ29" s="78"/>
+      <c r="BK29" s="78"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -27787,21 +27788,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -27818,26 +27824,21 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -27859,7 +27860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E03708-606E-45BB-9041-581179D9B6E9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF7E00-D1FB-47CD-A3EF-49A4B2FC74EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624DA751-91BE-43CF-9DCD-651C5CB94742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="13280" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="680" yWindow="1100" windowWidth="10870" windowHeight="8900" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -358,13 +358,6 @@
       <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>詳細設計書_ユーザマスタサービスクラス</t>
-    <rPh sb="0" eb="5">
-      <t>ショウサイセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>社員ID</t>
@@ -851,6 +844,13 @@
       <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>詳細設計書_サービス基底クラス</t>
+    <rPh sb="0" eb="5">
+      <t>ショウサイセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1401,6 +1401,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1416,9 +1446,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,80 +1454,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1517,6 +1470,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,6 +1484,50 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1865,247 +1865,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="61" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63" t="s">
-        <v>56</v>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
+        <v>121</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64" t="s">
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64" t="s">
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="65" t="s">
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="65"/>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="66">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="75">
         <v>45519</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="63" t="s">
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="67">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="76">
         <v>45518</v>
       </c>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -2172,215 +2172,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="68" t="s">
-        <v>63</v>
+      <c r="C6" s="59" t="s">
+        <v>62</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
+      <c r="BO6" s="59"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="68" t="s">
-        <v>65</v>
+      <c r="C7" s="59" t="s">
+        <v>64</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="68"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="59"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="59"/>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="59"/>
+      <c r="BN7" s="59"/>
+      <c r="BO7" s="59"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68"/>
-      <c r="AK8" s="68"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="68"/>
-      <c r="BO8" s="68"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="59"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="59"/>
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="59"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2433,787 +2433,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="64" t="s">
-        <v>62</v>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60" t="s">
+        <v>61</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="68" t="s">
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="69" t="s">
-        <v>64</v>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="61" t="s">
+        <v>63</v>
       </c>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="69"/>
-      <c r="BH11" s="69"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="69"/>
-      <c r="BK11" s="69"/>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="69"/>
-      <c r="BN11" s="69"/>
-      <c r="BO11" s="69"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="61"/>
+      <c r="BJ11" s="61"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="61"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="61"/>
+      <c r="BO11" s="61"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="69"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="69"/>
-      <c r="BK12" s="69"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="69"/>
-      <c r="BN12" s="69"/>
-      <c r="BO12" s="69"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="61"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="61"/>
+      <c r="BK12" s="61"/>
+      <c r="BL12" s="61"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="61"/>
+      <c r="BO12" s="61"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="69"/>
-      <c r="BI13" s="69"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="61"/>
+      <c r="BI13" s="61"/>
+      <c r="BJ13" s="61"/>
+      <c r="BK13" s="61"/>
+      <c r="BL13" s="61"/>
+      <c r="BM13" s="61"/>
+      <c r="BN13" s="61"/>
+      <c r="BO13" s="61"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="76" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="68"/>
+      <c r="BG14" s="68"/>
+      <c r="BH14" s="68"/>
+      <c r="BI14" s="68"/>
+      <c r="BJ14" s="68"/>
+      <c r="BK14" s="68"/>
+      <c r="BL14" s="68"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="68"/>
+      <c r="BO14" s="68"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="69"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
-      <c r="BO15" s="69"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="61"/>
+      <c r="BH15" s="61"/>
+      <c r="BI15" s="61"/>
+      <c r="BJ15" s="61"/>
+      <c r="BK15" s="61"/>
+      <c r="BL15" s="61"/>
+      <c r="BM15" s="61"/>
+      <c r="BN15" s="61"/>
+      <c r="BO15" s="61"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
-      <c r="BF16" s="69"/>
-      <c r="BG16" s="69"/>
-      <c r="BH16" s="69"/>
-      <c r="BI16" s="69"/>
-      <c r="BJ16" s="69"/>
-      <c r="BK16" s="69"/>
-      <c r="BL16" s="69"/>
-      <c r="BM16" s="69"/>
-      <c r="BN16" s="69"/>
-      <c r="BO16" s="69"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="61"/>
+      <c r="BI16" s="61"/>
+      <c r="BJ16" s="61"/>
+      <c r="BK16" s="61"/>
+      <c r="BL16" s="61"/>
+      <c r="BM16" s="61"/>
+      <c r="BN16" s="61"/>
+      <c r="BO16" s="61"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="69"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="69"/>
-      <c r="BN17" s="69"/>
-      <c r="BO17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="61"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="61"/>
+      <c r="BF17" s="61"/>
+      <c r="BG17" s="61"/>
+      <c r="BH17" s="61"/>
+      <c r="BI17" s="61"/>
+      <c r="BJ17" s="61"/>
+      <c r="BK17" s="61"/>
+      <c r="BL17" s="61"/>
+      <c r="BM17" s="61"/>
+      <c r="BN17" s="61"/>
+      <c r="BO17" s="61"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="69"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="69"/>
-      <c r="BG19" s="69"/>
-      <c r="BH19" s="69"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="69"/>
-      <c r="BL19" s="69"/>
-      <c r="BM19" s="69"/>
-      <c r="BN19" s="69"/>
-      <c r="BO19" s="69"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="61"/>
+      <c r="BI19" s="61"/>
+      <c r="BJ19" s="61"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="61"/>
+      <c r="BM19" s="61"/>
+      <c r="BN19" s="61"/>
+      <c r="BO19" s="61"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="69"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="69"/>
-      <c r="BF20" s="69"/>
-      <c r="BG20" s="69"/>
-      <c r="BH20" s="69"/>
-      <c r="BI20" s="69"/>
-      <c r="BJ20" s="69"/>
-      <c r="BK20" s="69"/>
-      <c r="BL20" s="69"/>
-      <c r="BM20" s="69"/>
-      <c r="BN20" s="69"/>
-      <c r="BO20" s="69"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="61"/>
+      <c r="BH20" s="61"/>
+      <c r="BI20" s="61"/>
+      <c r="BJ20" s="61"/>
+      <c r="BK20" s="61"/>
+      <c r="BL20" s="61"/>
+      <c r="BM20" s="61"/>
+      <c r="BN20" s="61"/>
+      <c r="BO20" s="61"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="69"/>
-      <c r="BH21" s="69"/>
-      <c r="BI21" s="69"/>
-      <c r="BJ21" s="69"/>
-      <c r="BK21" s="69"/>
-      <c r="BL21" s="69"/>
-      <c r="BM21" s="69"/>
-      <c r="BN21" s="69"/>
-      <c r="BO21" s="69"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="61"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -3243,742 +3243,742 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64" t="s">
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="69" t="s">
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="68" t="s">
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="68"/>
-      <c r="AK25" s="68"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="68"/>
-      <c r="AO25" s="68"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68" t="s">
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="59"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="59"/>
+      <c r="AU25" s="59"/>
+      <c r="AV25" s="59"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="59"/>
+      <c r="AZ25" s="59"/>
+      <c r="BA25" s="59"/>
+      <c r="BB25" s="59"/>
+      <c r="BC25" s="59"/>
+      <c r="BD25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="68"/>
-      <c r="BO25" s="68"/>
+      <c r="BE25" s="59"/>
+      <c r="BF25" s="59"/>
+      <c r="BG25" s="59"/>
+      <c r="BH25" s="59"/>
+      <c r="BI25" s="59"/>
+      <c r="BJ25" s="59"/>
+      <c r="BK25" s="59"/>
+      <c r="BL25" s="59"/>
+      <c r="BM25" s="59"/>
+      <c r="BN25" s="59"/>
+      <c r="BO25" s="59"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="64">
+      <c r="C26" s="60">
         <v>1</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="73" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="73" t="s">
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="74"/>
-      <c r="AR26" s="74"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="74"/>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="74"/>
-      <c r="BA26" s="74"/>
-      <c r="BB26" s="74"/>
-      <c r="BC26" s="75"/>
-      <c r="BD26" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE26" s="74"/>
-      <c r="BF26" s="74"/>
-      <c r="BG26" s="74"/>
-      <c r="BH26" s="74"/>
-      <c r="BI26" s="74"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="74"/>
-      <c r="BM26" s="74"/>
-      <c r="BN26" s="74"/>
-      <c r="BO26" s="75"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="63"/>
+      <c r="BJ26" s="63"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="63"/>
+      <c r="BO26" s="64"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="64">
+      <c r="C27" s="60">
         <v>2</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
-      <c r="BL27" s="68"/>
-      <c r="BM27" s="68"/>
-      <c r="BN27" s="68"/>
-      <c r="BO27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="59"/>
+      <c r="BD27" s="59"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="59"/>
+      <c r="BG27" s="59"/>
+      <c r="BH27" s="59"/>
+      <c r="BI27" s="59"/>
+      <c r="BJ27" s="59"/>
+      <c r="BK27" s="59"/>
+      <c r="BL27" s="59"/>
+      <c r="BM27" s="59"/>
+      <c r="BN27" s="59"/>
+      <c r="BO27" s="59"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="64">
+      <c r="C28" s="60">
         <v>3</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="68"/>
-      <c r="AL28" s="68"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="68"/>
-      <c r="AO28" s="68"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="68"/>
-      <c r="BG28" s="68"/>
-      <c r="BH28" s="68"/>
-      <c r="BI28" s="68"/>
-      <c r="BJ28" s="68"/>
-      <c r="BK28" s="68"/>
-      <c r="BL28" s="68"/>
-      <c r="BM28" s="68"/>
-      <c r="BN28" s="68"/>
-      <c r="BO28" s="68"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="59"/>
+      <c r="AX28" s="59"/>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="59"/>
+      <c r="BA28" s="59"/>
+      <c r="BB28" s="59"/>
+      <c r="BC28" s="59"/>
+      <c r="BD28" s="59"/>
+      <c r="BE28" s="59"/>
+      <c r="BF28" s="59"/>
+      <c r="BG28" s="59"/>
+      <c r="BH28" s="59"/>
+      <c r="BI28" s="59"/>
+      <c r="BJ28" s="59"/>
+      <c r="BK28" s="59"/>
+      <c r="BL28" s="59"/>
+      <c r="BM28" s="59"/>
+      <c r="BN28" s="59"/>
+      <c r="BO28" s="59"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="64">
+      <c r="C29" s="60">
         <v>4</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="68"/>
-      <c r="AL29" s="68"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="68"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="68"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="68"/>
-      <c r="BI29" s="68"/>
-      <c r="BJ29" s="68"/>
-      <c r="BK29" s="68"/>
-      <c r="BL29" s="68"/>
-      <c r="BM29" s="68"/>
-      <c r="BN29" s="68"/>
-      <c r="BO29" s="68"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="59"/>
+      <c r="BA29" s="59"/>
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="59"/>
+      <c r="BD29" s="59"/>
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="59"/>
+      <c r="BJ29" s="59"/>
+      <c r="BK29" s="59"/>
+      <c r="BL29" s="59"/>
+      <c r="BM29" s="59"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="59"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="64">
+      <c r="C30" s="60">
         <v>5</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="68"/>
-      <c r="AK30" s="68"/>
-      <c r="AL30" s="68"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="68"/>
-      <c r="AO30" s="68"/>
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="68"/>
-      <c r="BF30" s="68"/>
-      <c r="BG30" s="68"/>
-      <c r="BH30" s="68"/>
-      <c r="BI30" s="68"/>
-      <c r="BJ30" s="68"/>
-      <c r="BK30" s="68"/>
-      <c r="BL30" s="68"/>
-      <c r="BM30" s="68"/>
-      <c r="BN30" s="68"/>
-      <c r="BO30" s="68"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
+      <c r="AU30" s="59"/>
+      <c r="AV30" s="59"/>
+      <c r="AW30" s="59"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="59"/>
+      <c r="AZ30" s="59"/>
+      <c r="BA30" s="59"/>
+      <c r="BB30" s="59"/>
+      <c r="BC30" s="59"/>
+      <c r="BD30" s="59"/>
+      <c r="BE30" s="59"/>
+      <c r="BF30" s="59"/>
+      <c r="BG30" s="59"/>
+      <c r="BH30" s="59"/>
+      <c r="BI30" s="59"/>
+      <c r="BJ30" s="59"/>
+      <c r="BK30" s="59"/>
+      <c r="BL30" s="59"/>
+      <c r="BM30" s="59"/>
+      <c r="BN30" s="59"/>
+      <c r="BO30" s="59"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="64">
+      <c r="C31" s="60">
         <v>6</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="68"/>
-      <c r="BH31" s="68"/>
-      <c r="BI31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BK31" s="68"/>
-      <c r="BL31" s="68"/>
-      <c r="BM31" s="68"/>
-      <c r="BN31" s="68"/>
-      <c r="BO31" s="68"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="59"/>
+      <c r="AV31" s="59"/>
+      <c r="AW31" s="59"/>
+      <c r="AX31" s="59"/>
+      <c r="AY31" s="59"/>
+      <c r="AZ31" s="59"/>
+      <c r="BA31" s="59"/>
+      <c r="BB31" s="59"/>
+      <c r="BC31" s="59"/>
+      <c r="BD31" s="59"/>
+      <c r="BE31" s="59"/>
+      <c r="BF31" s="59"/>
+      <c r="BG31" s="59"/>
+      <c r="BH31" s="59"/>
+      <c r="BI31" s="59"/>
+      <c r="BJ31" s="59"/>
+      <c r="BK31" s="59"/>
+      <c r="BL31" s="59"/>
+      <c r="BM31" s="59"/>
+      <c r="BN31" s="59"/>
+      <c r="BO31" s="59"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="64">
+      <c r="C32" s="60">
         <v>7</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="68"/>
-      <c r="BH32" s="68"/>
-      <c r="BI32" s="68"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="68"/>
-      <c r="BL32" s="68"/>
-      <c r="BM32" s="68"/>
-      <c r="BN32" s="68"/>
-      <c r="BO32" s="68"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="59"/>
+      <c r="AV32" s="59"/>
+      <c r="AW32" s="59"/>
+      <c r="AX32" s="59"/>
+      <c r="AY32" s="59"/>
+      <c r="AZ32" s="59"/>
+      <c r="BA32" s="59"/>
+      <c r="BB32" s="59"/>
+      <c r="BC32" s="59"/>
+      <c r="BD32" s="59"/>
+      <c r="BE32" s="59"/>
+      <c r="BF32" s="59"/>
+      <c r="BG32" s="59"/>
+      <c r="BH32" s="59"/>
+      <c r="BI32" s="59"/>
+      <c r="BJ32" s="59"/>
+      <c r="BK32" s="59"/>
+      <c r="BL32" s="59"/>
+      <c r="BM32" s="59"/>
+      <c r="BN32" s="59"/>
+      <c r="BO32" s="59"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="64">
+      <c r="C33" s="60">
         <v>8</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="68"/>
-      <c r="BH33" s="68"/>
-      <c r="BI33" s="68"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="68"/>
-      <c r="BL33" s="68"/>
-      <c r="BM33" s="68"/>
-      <c r="BN33" s="68"/>
-      <c r="BO33" s="68"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
+      <c r="AU33" s="59"/>
+      <c r="AV33" s="59"/>
+      <c r="AW33" s="59"/>
+      <c r="AX33" s="59"/>
+      <c r="AY33" s="59"/>
+      <c r="AZ33" s="59"/>
+      <c r="BA33" s="59"/>
+      <c r="BB33" s="59"/>
+      <c r="BC33" s="59"/>
+      <c r="BD33" s="59"/>
+      <c r="BE33" s="59"/>
+      <c r="BF33" s="59"/>
+      <c r="BG33" s="59"/>
+      <c r="BH33" s="59"/>
+      <c r="BI33" s="59"/>
+      <c r="BJ33" s="59"/>
+      <c r="BK33" s="59"/>
+      <c r="BL33" s="59"/>
+      <c r="BM33" s="59"/>
+      <c r="BN33" s="59"/>
+      <c r="BO33" s="59"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="64">
+      <c r="C34" s="60">
         <v>9</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
-      <c r="AR34" s="68"/>
-      <c r="AS34" s="68"/>
-      <c r="AT34" s="68"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="68"/>
-      <c r="BI34" s="68"/>
-      <c r="BJ34" s="68"/>
-      <c r="BK34" s="68"/>
-      <c r="BL34" s="68"/>
-      <c r="BM34" s="68"/>
-      <c r="BN34" s="68"/>
-      <c r="BO34" s="68"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="59"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="59"/>
+      <c r="BA34" s="59"/>
+      <c r="BB34" s="59"/>
+      <c r="BC34" s="59"/>
+      <c r="BD34" s="59"/>
+      <c r="BE34" s="59"/>
+      <c r="BF34" s="59"/>
+      <c r="BG34" s="59"/>
+      <c r="BH34" s="59"/>
+      <c r="BI34" s="59"/>
+      <c r="BJ34" s="59"/>
+      <c r="BK34" s="59"/>
+      <c r="BL34" s="59"/>
+      <c r="BM34" s="59"/>
+      <c r="BN34" s="59"/>
+      <c r="BO34" s="59"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4577,42 +4577,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4629,48 +4635,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4692,7 +4692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B58A740-BC1C-4090-9166-0DF03091647D}">
   <dimension ref="A1:AMK75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
@@ -4709,247 +4709,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="98" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="98"/>
-      <c r="BH1" s="98"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="98"/>
-      <c r="BN1" s="98"/>
-      <c r="BO1" s="98"/>
-      <c r="BP1" s="98"/>
-      <c r="BQ1" s="98"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
-        <v>81</v>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81" t="s">
+        <v>80</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="87" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87" t="s">
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87" t="s">
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="101" t="s">
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="102" t="s">
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103">
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="85">
         <v>414404</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="102" t="s">
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="104" t="s">
-        <v>93</v>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="86" t="s">
+        <v>92</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="86"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="86"/>
+      <c r="BQ3" s="86"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4974,98 +4974,98 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="94" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="95" t="s">
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="95"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="89"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -5094,34 +5094,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="89"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="89"/>
+      <c r="BO7" s="89"/>
+      <c r="BP7" s="89"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -5135,91 +5135,91 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="87" t="s">
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87" t="s">
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="89" t="s">
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89" t="s">
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="87"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="90" t="s">
-        <v>97</v>
+      <c r="C11" s="91" t="s">
+        <v>96</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -5233,11 +5233,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -5287,12 +5287,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="86" t="s">
-        <v>117</v>
+      <c r="C12" s="92" t="s">
+        <v>116</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -5306,9 +5306,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5357,12 +5357,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="86" t="s">
-        <v>118</v>
+      <c r="C13" s="92" t="s">
+        <v>117</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5376,9 +5376,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5427,12 +5427,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5446,9 +5446,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5497,12 +5497,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5516,9 +5516,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5578,90 +5578,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87" t="s">
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87" t="s">
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="89" t="s">
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89" t="s">
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="87"/>
+      <c r="BA18" s="87"/>
+      <c r="BB18" s="87"/>
+      <c r="BC18" s="87"/>
+      <c r="BD18" s="87"/>
+      <c r="BE18" s="87"/>
+      <c r="BF18" s="87"/>
+      <c r="BG18" s="87"/>
+      <c r="BH18" s="87"/>
+      <c r="BI18" s="87"/>
+      <c r="BJ18" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="89"/>
-      <c r="BN18" s="89"/>
-      <c r="BO18" s="89"/>
-      <c r="BP18" s="89"/>
+      <c r="BK18" s="87"/>
+      <c r="BL18" s="87"/>
+      <c r="BM18" s="87"/>
+      <c r="BN18" s="87"/>
+      <c r="BO18" s="87"/>
+      <c r="BP18" s="87"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="90" t="s">
-        <v>94</v>
+      <c r="C19" s="91" t="s">
+        <v>93</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5675,11 +5675,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
       <c r="W19" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5949,10 +5949,10 @@
       <c r="A24" s="17"/>
       <c r="C24" s="24"/>
       <c r="D24" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="BP24" s="22"/>
@@ -5969,10 +5969,10 @@
       <c r="A26" s="17"/>
       <c r="C26" s="24"/>
       <c r="D26" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG26" s="23"/>
       <c r="BP26" s="22"/>
@@ -5988,276 +5988,276 @@
     <row r="28" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="C28" s="24"/>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="91" t="s">
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="92"/>
-      <c r="AO28" s="92"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="92"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="93"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="100"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="100"/>
+      <c r="AS28" s="100"/>
+      <c r="AT28" s="100"/>
+      <c r="AU28" s="100"/>
+      <c r="AV28" s="100"/>
+      <c r="AW28" s="100"/>
+      <c r="AX28" s="100"/>
+      <c r="AY28" s="100"/>
+      <c r="AZ28" s="100"/>
+      <c r="BA28" s="100"/>
+      <c r="BB28" s="100"/>
+      <c r="BC28" s="100"/>
+      <c r="BD28" s="100"/>
+      <c r="BE28" s="100"/>
+      <c r="BF28" s="100"/>
+      <c r="BG28" s="100"/>
+      <c r="BH28" s="100"/>
+      <c r="BI28" s="100"/>
+      <c r="BJ28" s="100"/>
+      <c r="BK28" s="101"/>
       <c r="BP28" s="22"/>
       <c r="BQ28" s="15"/>
     </row>
     <row r="29" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="C29" s="24"/>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="82" t="s">
-        <v>86</v>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="96" t="s">
+        <v>85</v>
       </c>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="83"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="83"/>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="83"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="83"/>
-      <c r="BB29" s="83"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="83"/>
-      <c r="BE29" s="83"/>
-      <c r="BF29" s="83"/>
-      <c r="BG29" s="83"/>
-      <c r="BH29" s="83"/>
-      <c r="BI29" s="83"/>
-      <c r="BJ29" s="83"/>
-      <c r="BK29" s="84"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="97"/>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="97"/>
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="97"/>
+      <c r="AL29" s="97"/>
+      <c r="AM29" s="97"/>
+      <c r="AN29" s="97"/>
+      <c r="AO29" s="97"/>
+      <c r="AP29" s="97"/>
+      <c r="AQ29" s="97"/>
+      <c r="AR29" s="97"/>
+      <c r="AS29" s="97"/>
+      <c r="AT29" s="97"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="97"/>
+      <c r="AW29" s="97"/>
+      <c r="AX29" s="97"/>
+      <c r="AY29" s="97"/>
+      <c r="AZ29" s="97"/>
+      <c r="BA29" s="97"/>
+      <c r="BB29" s="97"/>
+      <c r="BC29" s="97"/>
+      <c r="BD29" s="97"/>
+      <c r="BE29" s="97"/>
+      <c r="BF29" s="97"/>
+      <c r="BG29" s="97"/>
+      <c r="BH29" s="97"/>
+      <c r="BI29" s="97"/>
+      <c r="BJ29" s="97"/>
+      <c r="BK29" s="98"/>
       <c r="BP29" s="22"/>
       <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="C30" s="24"/>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="82" t="s">
-        <v>57</v>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96" t="s">
+        <v>56</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="83"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="83"/>
-      <c r="AO30" s="83"/>
-      <c r="AP30" s="83"/>
-      <c r="AQ30" s="83"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="83"/>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="83"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="83"/>
-      <c r="BA30" s="83"/>
-      <c r="BB30" s="83"/>
-      <c r="BC30" s="83"/>
-      <c r="BD30" s="83"/>
-      <c r="BE30" s="83"/>
-      <c r="BF30" s="83"/>
-      <c r="BG30" s="83"/>
-      <c r="BH30" s="83"/>
-      <c r="BI30" s="83"/>
-      <c r="BJ30" s="83"/>
-      <c r="BK30" s="84"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="97"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="97"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="97"/>
+      <c r="AL30" s="97"/>
+      <c r="AM30" s="97"/>
+      <c r="AN30" s="97"/>
+      <c r="AO30" s="97"/>
+      <c r="AP30" s="97"/>
+      <c r="AQ30" s="97"/>
+      <c r="AR30" s="97"/>
+      <c r="AS30" s="97"/>
+      <c r="AT30" s="97"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="97"/>
+      <c r="AW30" s="97"/>
+      <c r="AX30" s="97"/>
+      <c r="AY30" s="97"/>
+      <c r="AZ30" s="97"/>
+      <c r="BA30" s="97"/>
+      <c r="BB30" s="97"/>
+      <c r="BC30" s="97"/>
+      <c r="BD30" s="97"/>
+      <c r="BE30" s="97"/>
+      <c r="BF30" s="97"/>
+      <c r="BG30" s="97"/>
+      <c r="BH30" s="97"/>
+      <c r="BI30" s="97"/>
+      <c r="BJ30" s="97"/>
+      <c r="BK30" s="98"/>
       <c r="BP30" s="22"/>
       <c r="BQ30" s="15"/>
     </row>
     <row r="31" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="C31" s="24"/>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="82" t="s">
-        <v>104</v>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="96" t="s">
+        <v>103</v>
       </c>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="83"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="83"/>
-      <c r="AI31" s="83"/>
-      <c r="AJ31" s="83"/>
-      <c r="AK31" s="83"/>
-      <c r="AL31" s="83"/>
-      <c r="AM31" s="83"/>
-      <c r="AN31" s="83"/>
-      <c r="AO31" s="83"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="83"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="83"/>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="83"/>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="83"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="83"/>
-      <c r="BA31" s="83"/>
-      <c r="BB31" s="83"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="83"/>
-      <c r="BE31" s="83"/>
-      <c r="BF31" s="83"/>
-      <c r="BG31" s="83"/>
-      <c r="BH31" s="83"/>
-      <c r="BI31" s="83"/>
-      <c r="BJ31" s="83"/>
-      <c r="BK31" s="84"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="97"/>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="97"/>
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="97"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="97"/>
+      <c r="AN31" s="97"/>
+      <c r="AO31" s="97"/>
+      <c r="AP31" s="97"/>
+      <c r="AQ31" s="97"/>
+      <c r="AR31" s="97"/>
+      <c r="AS31" s="97"/>
+      <c r="AT31" s="97"/>
+      <c r="AU31" s="97"/>
+      <c r="AV31" s="97"/>
+      <c r="AW31" s="97"/>
+      <c r="AX31" s="97"/>
+      <c r="AY31" s="97"/>
+      <c r="AZ31" s="97"/>
+      <c r="BA31" s="97"/>
+      <c r="BB31" s="97"/>
+      <c r="BC31" s="97"/>
+      <c r="BD31" s="97"/>
+      <c r="BE31" s="97"/>
+      <c r="BF31" s="97"/>
+      <c r="BG31" s="97"/>
+      <c r="BH31" s="97"/>
+      <c r="BI31" s="97"/>
+      <c r="BJ31" s="97"/>
+      <c r="BK31" s="98"/>
       <c r="BP31" s="22"/>
       <c r="BQ31" s="15"/>
     </row>
@@ -6272,10 +6272,10 @@
       <c r="A33" s="17"/>
       <c r="C33" s="24"/>
       <c r="D33" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG33" s="23"/>
       <c r="BP33" s="22"/>
@@ -6292,7 +6292,7 @@
       <c r="A35" s="17"/>
       <c r="C35" s="24"/>
       <c r="E35" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -6360,7 +6360,7 @@
       <c r="C36" s="24"/>
       <c r="E36" s="52"/>
       <c r="F36" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -6369,7 +6369,7 @@
       <c r="K36" s="48"/>
       <c r="L36" s="49"/>
       <c r="M36" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
@@ -6429,7 +6429,7 @@
       <c r="C37" s="24"/>
       <c r="E37" s="54"/>
       <c r="F37" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -6438,7 +6438,7 @@
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
       <c r="M37" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N37" s="48"/>
       <c r="O37" s="48"/>
@@ -6504,10 +6504,10 @@
       <c r="A39" s="17"/>
       <c r="C39" s="24"/>
       <c r="D39" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG39" s="23"/>
       <c r="BP39" s="22"/>
@@ -6524,10 +6524,10 @@
       <c r="A41" s="17"/>
       <c r="C41" s="24"/>
       <c r="D41" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="BP41" s="22"/>
@@ -6543,276 +6543,276 @@
     <row r="43" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="C43" s="24"/>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="85" t="s">
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="85"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="85"/>
-      <c r="AE43" s="85"/>
-      <c r="AF43" s="85"/>
-      <c r="AG43" s="85"/>
-      <c r="AH43" s="85"/>
-      <c r="AI43" s="85"/>
-      <c r="AJ43" s="85"/>
-      <c r="AK43" s="85"/>
-      <c r="AL43" s="85"/>
-      <c r="AM43" s="85"/>
-      <c r="AN43" s="85"/>
-      <c r="AO43" s="85"/>
-      <c r="AP43" s="85"/>
-      <c r="AQ43" s="85"/>
-      <c r="AR43" s="85"/>
-      <c r="AS43" s="85"/>
-      <c r="AT43" s="85"/>
-      <c r="AU43" s="85"/>
-      <c r="AV43" s="85"/>
-      <c r="AW43" s="85"/>
-      <c r="AX43" s="85"/>
-      <c r="AY43" s="85"/>
-      <c r="AZ43" s="85"/>
-      <c r="BA43" s="85"/>
-      <c r="BB43" s="85"/>
-      <c r="BC43" s="85"/>
-      <c r="BD43" s="85"/>
-      <c r="BE43" s="85"/>
-      <c r="BF43" s="85"/>
-      <c r="BG43" s="85"/>
-      <c r="BH43" s="85"/>
-      <c r="BI43" s="85"/>
-      <c r="BJ43" s="85"/>
-      <c r="BK43" s="85"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="103"/>
+      <c r="V43" s="103"/>
+      <c r="W43" s="103"/>
+      <c r="X43" s="103"/>
+      <c r="Y43" s="103"/>
+      <c r="Z43" s="103"/>
+      <c r="AA43" s="103"/>
+      <c r="AB43" s="103"/>
+      <c r="AC43" s="103"/>
+      <c r="AD43" s="103"/>
+      <c r="AE43" s="103"/>
+      <c r="AF43" s="103"/>
+      <c r="AG43" s="103"/>
+      <c r="AH43" s="103"/>
+      <c r="AI43" s="103"/>
+      <c r="AJ43" s="103"/>
+      <c r="AK43" s="103"/>
+      <c r="AL43" s="103"/>
+      <c r="AM43" s="103"/>
+      <c r="AN43" s="103"/>
+      <c r="AO43" s="103"/>
+      <c r="AP43" s="103"/>
+      <c r="AQ43" s="103"/>
+      <c r="AR43" s="103"/>
+      <c r="AS43" s="103"/>
+      <c r="AT43" s="103"/>
+      <c r="AU43" s="103"/>
+      <c r="AV43" s="103"/>
+      <c r="AW43" s="103"/>
+      <c r="AX43" s="103"/>
+      <c r="AY43" s="103"/>
+      <c r="AZ43" s="103"/>
+      <c r="BA43" s="103"/>
+      <c r="BB43" s="103"/>
+      <c r="BC43" s="103"/>
+      <c r="BD43" s="103"/>
+      <c r="BE43" s="103"/>
+      <c r="BF43" s="103"/>
+      <c r="BG43" s="103"/>
+      <c r="BH43" s="103"/>
+      <c r="BI43" s="103"/>
+      <c r="BJ43" s="103"/>
+      <c r="BK43" s="103"/>
       <c r="BP43" s="22"/>
       <c r="BQ43" s="15"/>
     </row>
     <row r="44" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="C44" s="24"/>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="78" t="s">
-        <v>99</v>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="104" t="s">
+        <v>98</v>
       </c>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="78"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="78"/>
-      <c r="AT44" s="78"/>
-      <c r="AU44" s="78"/>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AY44" s="78"/>
-      <c r="AZ44" s="78"/>
-      <c r="BA44" s="78"/>
-      <c r="BB44" s="78"/>
-      <c r="BC44" s="78"/>
-      <c r="BD44" s="78"/>
-      <c r="BE44" s="78"/>
-      <c r="BF44" s="78"/>
-      <c r="BG44" s="78"/>
-      <c r="BH44" s="78"/>
-      <c r="BI44" s="78"/>
-      <c r="BJ44" s="78"/>
-      <c r="BK44" s="78"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="104"/>
+      <c r="AG44" s="104"/>
+      <c r="AH44" s="104"/>
+      <c r="AI44" s="104"/>
+      <c r="AJ44" s="104"/>
+      <c r="AK44" s="104"/>
+      <c r="AL44" s="104"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="104"/>
+      <c r="AP44" s="104"/>
+      <c r="AQ44" s="104"/>
+      <c r="AR44" s="104"/>
+      <c r="AS44" s="104"/>
+      <c r="AT44" s="104"/>
+      <c r="AU44" s="104"/>
+      <c r="AV44" s="104"/>
+      <c r="AW44" s="104"/>
+      <c r="AX44" s="104"/>
+      <c r="AY44" s="104"/>
+      <c r="AZ44" s="104"/>
+      <c r="BA44" s="104"/>
+      <c r="BB44" s="104"/>
+      <c r="BC44" s="104"/>
+      <c r="BD44" s="104"/>
+      <c r="BE44" s="104"/>
+      <c r="BF44" s="104"/>
+      <c r="BG44" s="104"/>
+      <c r="BH44" s="104"/>
+      <c r="BI44" s="104"/>
+      <c r="BJ44" s="104"/>
+      <c r="BK44" s="104"/>
       <c r="BP44" s="22"/>
       <c r="BQ44" s="15"/>
     </row>
     <row r="45" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="C45" s="24"/>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="78"/>
-      <c r="AA45" s="78"/>
-      <c r="AB45" s="78"/>
-      <c r="AC45" s="78"/>
-      <c r="AD45" s="78"/>
-      <c r="AE45" s="78"/>
-      <c r="AF45" s="78"/>
-      <c r="AG45" s="78"/>
-      <c r="AH45" s="78"/>
-      <c r="AI45" s="78"/>
-      <c r="AJ45" s="78"/>
-      <c r="AK45" s="78"/>
-      <c r="AL45" s="78"/>
-      <c r="AM45" s="78"/>
-      <c r="AN45" s="78"/>
-      <c r="AO45" s="78"/>
-      <c r="AP45" s="78"/>
-      <c r="AQ45" s="78"/>
-      <c r="AR45" s="78"/>
-      <c r="AS45" s="78"/>
-      <c r="AT45" s="78"/>
-      <c r="AU45" s="78"/>
-      <c r="AV45" s="78"/>
-      <c r="AW45" s="78"/>
-      <c r="AX45" s="78"/>
-      <c r="AY45" s="78"/>
-      <c r="AZ45" s="78"/>
-      <c r="BA45" s="78"/>
-      <c r="BB45" s="78"/>
-      <c r="BC45" s="78"/>
-      <c r="BD45" s="78"/>
-      <c r="BE45" s="78"/>
-      <c r="BF45" s="78"/>
-      <c r="BG45" s="78"/>
-      <c r="BH45" s="78"/>
-      <c r="BI45" s="78"/>
-      <c r="BJ45" s="78"/>
-      <c r="BK45" s="78"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="104"/>
+      <c r="AJ45" s="104"/>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="104"/>
+      <c r="AR45" s="104"/>
+      <c r="AS45" s="104"/>
+      <c r="AT45" s="104"/>
+      <c r="AU45" s="104"/>
+      <c r="AV45" s="104"/>
+      <c r="AW45" s="104"/>
+      <c r="AX45" s="104"/>
+      <c r="AY45" s="104"/>
+      <c r="AZ45" s="104"/>
+      <c r="BA45" s="104"/>
+      <c r="BB45" s="104"/>
+      <c r="BC45" s="104"/>
+      <c r="BD45" s="104"/>
+      <c r="BE45" s="104"/>
+      <c r="BF45" s="104"/>
+      <c r="BG45" s="104"/>
+      <c r="BH45" s="104"/>
+      <c r="BI45" s="104"/>
+      <c r="BJ45" s="104"/>
+      <c r="BK45" s="104"/>
       <c r="BP45" s="22"/>
       <c r="BQ45" s="15"/>
     </row>
     <row r="46" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="C46" s="24"/>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="78" t="s">
-        <v>109</v>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="104" t="s">
+        <v>108</v>
       </c>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="78"/>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="78"/>
-      <c r="AB46" s="78"/>
-      <c r="AC46" s="78"/>
-      <c r="AD46" s="78"/>
-      <c r="AE46" s="78"/>
-      <c r="AF46" s="78"/>
-      <c r="AG46" s="78"/>
-      <c r="AH46" s="78"/>
-      <c r="AI46" s="78"/>
-      <c r="AJ46" s="78"/>
-      <c r="AK46" s="78"/>
-      <c r="AL46" s="78"/>
-      <c r="AM46" s="78"/>
-      <c r="AN46" s="78"/>
-      <c r="AO46" s="78"/>
-      <c r="AP46" s="78"/>
-      <c r="AQ46" s="78"/>
-      <c r="AR46" s="78"/>
-      <c r="AS46" s="78"/>
-      <c r="AT46" s="78"/>
-      <c r="AU46" s="78"/>
-      <c r="AV46" s="78"/>
-      <c r="AW46" s="78"/>
-      <c r="AX46" s="78"/>
-      <c r="AY46" s="78"/>
-      <c r="AZ46" s="78"/>
-      <c r="BA46" s="78"/>
-      <c r="BB46" s="78"/>
-      <c r="BC46" s="78"/>
-      <c r="BD46" s="78"/>
-      <c r="BE46" s="78"/>
-      <c r="BF46" s="78"/>
-      <c r="BG46" s="78"/>
-      <c r="BH46" s="78"/>
-      <c r="BI46" s="78"/>
-      <c r="BJ46" s="78"/>
-      <c r="BK46" s="78"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="104"/>
+      <c r="AF46" s="104"/>
+      <c r="AG46" s="104"/>
+      <c r="AH46" s="104"/>
+      <c r="AI46" s="104"/>
+      <c r="AJ46" s="104"/>
+      <c r="AK46" s="104"/>
+      <c r="AL46" s="104"/>
+      <c r="AM46" s="104"/>
+      <c r="AN46" s="104"/>
+      <c r="AO46" s="104"/>
+      <c r="AP46" s="104"/>
+      <c r="AQ46" s="104"/>
+      <c r="AR46" s="104"/>
+      <c r="AS46" s="104"/>
+      <c r="AT46" s="104"/>
+      <c r="AU46" s="104"/>
+      <c r="AV46" s="104"/>
+      <c r="AW46" s="104"/>
+      <c r="AX46" s="104"/>
+      <c r="AY46" s="104"/>
+      <c r="AZ46" s="104"/>
+      <c r="BA46" s="104"/>
+      <c r="BB46" s="104"/>
+      <c r="BC46" s="104"/>
+      <c r="BD46" s="104"/>
+      <c r="BE46" s="104"/>
+      <c r="BF46" s="104"/>
+      <c r="BG46" s="104"/>
+      <c r="BH46" s="104"/>
+      <c r="BI46" s="104"/>
+      <c r="BJ46" s="104"/>
+      <c r="BK46" s="104"/>
       <c r="BP46" s="22"/>
       <c r="BQ46" s="15"/>
     </row>
@@ -6827,10 +6827,10 @@
       <c r="A48" s="17"/>
       <c r="C48" s="24"/>
       <c r="D48" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG48" s="23"/>
       <c r="BP48" s="22"/>
@@ -6847,10 +6847,10 @@
       <c r="A50" s="17"/>
       <c r="C50" s="24"/>
       <c r="D50" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG50" s="23"/>
       <c r="BP50" s="22"/>
@@ -6925,10 +6925,10 @@
       <c r="A52" s="17"/>
       <c r="C52" s="24"/>
       <c r="D52" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -7060,10 +7060,10 @@
       <c r="A54" s="17"/>
       <c r="C54" s="24"/>
       <c r="D54" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -7195,10 +7195,10 @@
       <c r="A56" s="17"/>
       <c r="C56" s="24"/>
       <c r="D56" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP56" s="22"/>
       <c r="BQ56" s="15"/>
@@ -7216,10 +7216,10 @@
       <c r="B58" s="14"/>
       <c r="C58" s="24"/>
       <c r="D58" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -25685,38 +25685,18 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="O44:BK44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:BK45"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="O46:BK46"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="O30:BK30"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="O31:BK31"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:BK43"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="O29:BK29"/>
     <mergeCell ref="C14:F14"/>
@@ -25732,18 +25712,38 @@
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="O30:BK30"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="O31:BK31"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:BK43"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="O44:BK44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:BK45"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="O46:BK46"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -25792,237 +25792,237 @@
       <c r="F1" s="105"/>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="98" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="98"/>
-      <c r="BH1" s="98"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="98"/>
-      <c r="BN1" s="98"/>
-      <c r="BO1" s="98"/>
-      <c r="BP1" s="98"/>
-      <c r="BQ1" s="98"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="87" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87" t="s">
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87" t="s">
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="101" t="s">
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="102" t="s">
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103">
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="85">
         <v>45510</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="102" t="s">
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="104">
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="86">
         <v>45533</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="86"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="86"/>
+      <c r="BQ3" s="86"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -26047,96 +26047,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="94" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="95" t="s">
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="95"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="89"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="41" t="s">
         <v>51</v>
       </c>
@@ -26167,34 +26167,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="89"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="89"/>
+      <c r="BO7" s="89"/>
+      <c r="BP7" s="89"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -26208,91 +26208,91 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="87" t="s">
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87" t="s">
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="89" t="s">
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89" t="s">
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="87"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -26306,11 +26306,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -26360,12 +26360,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -26379,9 +26379,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -26430,12 +26430,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -26449,9 +26449,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -26500,12 +26500,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -26519,9 +26519,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -26570,12 +26570,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -26589,9 +26589,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -26651,90 +26651,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87" t="s">
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87" t="s">
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="89" t="s">
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89" t="s">
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="87"/>
+      <c r="BA18" s="87"/>
+      <c r="BB18" s="87"/>
+      <c r="BC18" s="87"/>
+      <c r="BD18" s="87"/>
+      <c r="BE18" s="87"/>
+      <c r="BF18" s="87"/>
+      <c r="BG18" s="87"/>
+      <c r="BH18" s="87"/>
+      <c r="BI18" s="87"/>
+      <c r="BJ18" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="89"/>
-      <c r="BN18" s="89"/>
-      <c r="BO18" s="89"/>
-      <c r="BP18" s="89"/>
+      <c r="BK18" s="87"/>
+      <c r="BL18" s="87"/>
+      <c r="BM18" s="87"/>
+      <c r="BN18" s="87"/>
+      <c r="BO18" s="87"/>
+      <c r="BP18" s="87"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -26748,11 +26748,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
       <c r="W19" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -27022,7 +27022,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AG24" s="23"/>
@@ -27037,270 +27037,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="85" t="s">
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="85"/>
-      <c r="AN26" s="85"/>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="85"/>
-      <c r="AU26" s="85"/>
-      <c r="AV26" s="85"/>
-      <c r="AW26" s="85"/>
-      <c r="AX26" s="85"/>
-      <c r="AY26" s="85"/>
-      <c r="AZ26" s="85"/>
-      <c r="BA26" s="85"/>
-      <c r="BB26" s="85"/>
-      <c r="BC26" s="85"/>
-      <c r="BD26" s="85"/>
-      <c r="BE26" s="85"/>
-      <c r="BF26" s="85"/>
-      <c r="BG26" s="85"/>
-      <c r="BH26" s="85"/>
-      <c r="BI26" s="85"/>
-      <c r="BJ26" s="85"/>
-      <c r="BK26" s="85"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
+      <c r="AU26" s="103"/>
+      <c r="AV26" s="103"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
+      <c r="AZ26" s="103"/>
+      <c r="BA26" s="103"/>
+      <c r="BB26" s="103"/>
+      <c r="BC26" s="103"/>
+      <c r="BD26" s="103"/>
+      <c r="BE26" s="103"/>
+      <c r="BF26" s="103"/>
+      <c r="BG26" s="103"/>
+      <c r="BH26" s="103"/>
+      <c r="BI26" s="103"/>
+      <c r="BJ26" s="103"/>
+      <c r="BK26" s="103"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="78" t="s">
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
-      <c r="AZ27" s="78"/>
-      <c r="BA27" s="78"/>
-      <c r="BB27" s="78"/>
-      <c r="BC27" s="78"/>
-      <c r="BD27" s="78"/>
-      <c r="BE27" s="78"/>
-      <c r="BF27" s="78"/>
-      <c r="BG27" s="78"/>
-      <c r="BH27" s="78"/>
-      <c r="BI27" s="78"/>
-      <c r="BJ27" s="78"/>
-      <c r="BK27" s="78"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="104"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="104"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="104"/>
+      <c r="AP27" s="104"/>
+      <c r="AQ27" s="104"/>
+      <c r="AR27" s="104"/>
+      <c r="AS27" s="104"/>
+      <c r="AT27" s="104"/>
+      <c r="AU27" s="104"/>
+      <c r="AV27" s="104"/>
+      <c r="AW27" s="104"/>
+      <c r="AX27" s="104"/>
+      <c r="AY27" s="104"/>
+      <c r="AZ27" s="104"/>
+      <c r="BA27" s="104"/>
+      <c r="BB27" s="104"/>
+      <c r="BC27" s="104"/>
+      <c r="BD27" s="104"/>
+      <c r="BE27" s="104"/>
+      <c r="BF27" s="104"/>
+      <c r="BG27" s="104"/>
+      <c r="BH27" s="104"/>
+      <c r="BI27" s="104"/>
+      <c r="BJ27" s="104"/>
+      <c r="BK27" s="104"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78" t="s">
-        <v>57</v>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="104" t="s">
+        <v>56</v>
       </c>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="78"/>
-      <c r="AZ28" s="78"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="78"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="78"/>
-      <c r="BI28" s="78"/>
-      <c r="BJ28" s="78"/>
-      <c r="BK28" s="78"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="104"/>
+      <c r="AL28" s="104"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="104"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="104"/>
+      <c r="AR28" s="104"/>
+      <c r="AS28" s="104"/>
+      <c r="AT28" s="104"/>
+      <c r="AU28" s="104"/>
+      <c r="AV28" s="104"/>
+      <c r="AW28" s="104"/>
+      <c r="AX28" s="104"/>
+      <c r="AY28" s="104"/>
+      <c r="AZ28" s="104"/>
+      <c r="BA28" s="104"/>
+      <c r="BB28" s="104"/>
+      <c r="BC28" s="104"/>
+      <c r="BD28" s="104"/>
+      <c r="BE28" s="104"/>
+      <c r="BF28" s="104"/>
+      <c r="BG28" s="104"/>
+      <c r="BH28" s="104"/>
+      <c r="BI28" s="104"/>
+      <c r="BJ28" s="104"/>
+      <c r="BK28" s="104"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="78" t="s">
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="78"/>
-      <c r="AK29" s="78"/>
-      <c r="AL29" s="78"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="78"/>
-      <c r="AQ29" s="78"/>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="78"/>
-      <c r="AZ29" s="78"/>
-      <c r="BA29" s="78"/>
-      <c r="BB29" s="78"/>
-      <c r="BC29" s="78"/>
-      <c r="BD29" s="78"/>
-      <c r="BE29" s="78"/>
-      <c r="BF29" s="78"/>
-      <c r="BG29" s="78"/>
-      <c r="BH29" s="78"/>
-      <c r="BI29" s="78"/>
-      <c r="BJ29" s="78"/>
-      <c r="BK29" s="78"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="104"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="104"/>
+      <c r="AJ29" s="104"/>
+      <c r="AK29" s="104"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="104"/>
+      <c r="AP29" s="104"/>
+      <c r="AQ29" s="104"/>
+      <c r="AR29" s="104"/>
+      <c r="AS29" s="104"/>
+      <c r="AT29" s="104"/>
+      <c r="AU29" s="104"/>
+      <c r="AV29" s="104"/>
+      <c r="AW29" s="104"/>
+      <c r="AX29" s="104"/>
+      <c r="AY29" s="104"/>
+      <c r="AZ29" s="104"/>
+      <c r="BA29" s="104"/>
+      <c r="BB29" s="104"/>
+      <c r="BC29" s="104"/>
+      <c r="BD29" s="104"/>
+      <c r="BE29" s="104"/>
+      <c r="BF29" s="104"/>
+      <c r="BG29" s="104"/>
+      <c r="BH29" s="104"/>
+      <c r="BI29" s="104"/>
+      <c r="BJ29" s="104"/>
+      <c r="BK29" s="104"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -27369,7 +27369,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD31" s="14"/>
       <c r="BP31" s="22"/>
@@ -27385,7 +27385,7 @@
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -27451,7 +27451,7 @@
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -27788,26 +27788,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -27824,21 +27819,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -27877,29 +27877,29 @@
         <v>44</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="42"/>
     </row>

--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624DA751-91BE-43CF-9DCD-651C5CB94742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1879F40-78CE-4A2A-B948-7FF6FD049B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1100" windowWidth="10870" windowHeight="8900" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="1170" yWindow="10" windowWidth="13280" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -364,51 +364,6 @@
   </si>
   <si>
     <t>表示用Id名前</t>
-  </si>
-  <si>
-    <t>2表示用Id名前クラスのオブジェクトを作成する。</t>
-    <rPh sb="1" eb="4">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3.項目1の処理結果から社員IDと社員名を取り出し、項目2で作成した表示用Id名前クラスオブジェクトに格納する。</t>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理後、表示用Id名前クラスオブジェクトを戻り値として処理を終了する</t>
-    <rPh sb="0" eb="3">
-      <t>ショリゴ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>abstract class</t>
@@ -851,6 +806,51 @@
       <t>ショウサイセッケイショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2表示用Id名前クラスのバリューオブジェクトを作成する。</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.項目1の処理結果から社員IDと社員名を取り出し、項目2で作成した表示用Id名前クラスのバリューオブジェクトに格納する。</t>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理後、表示用Id名前バリューオブジェクトを戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1955,7 +1955,7 @@
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
       <c r="I2" s="73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
@@ -2173,7 +2173,7 @@
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="C6" s="59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
@@ -2245,7 +2245,7 @@
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="C7" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
@@ -2446,7 +2446,7 @@
       <c r="K11" s="59"/>
       <c r="L11" s="59"/>
       <c r="M11" s="60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
@@ -2472,7 +2472,7 @@
       <c r="AG11" s="59"/>
       <c r="AH11" s="59"/>
       <c r="AI11" s="61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AJ11" s="61"/>
       <c r="AK11" s="61"/>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" s="63"/>
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
       <c r="I26" s="64"/>
       <c r="J26" s="62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
@@ -3389,7 +3389,7 @@
       <c r="BB26" s="63"/>
       <c r="BC26" s="64"/>
       <c r="BD26" s="62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BE26" s="63"/>
       <c r="BF26" s="63"/>
@@ -4799,7 +4799,7 @@
       <c r="G2" s="80"/>
       <c r="H2" s="80"/>
       <c r="I2" s="81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
@@ -4941,7 +4941,7 @@
       <c r="BH3" s="84"/>
       <c r="BI3" s="84"/>
       <c r="BJ3" s="86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BK3" s="86"/>
       <c r="BL3" s="86"/>
@@ -5051,21 +5051,21 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C7" s="89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="89"/>
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
       <c r="H7" s="89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
       <c r="M7" s="41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -5213,7 +5213,7 @@
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="C11" s="91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C12" s="92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="92"/>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="92"/>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C19" s="91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="91"/>
       <c r="G19" s="41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5679,7 +5679,7 @@
       <c r="U19" s="82"/>
       <c r="V19" s="82"/>
       <c r="W19" s="40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5949,10 +5949,10 @@
       <c r="A24" s="17"/>
       <c r="C24" s="24"/>
       <c r="D24" s="46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="BP24" s="22"/>
@@ -5969,10 +5969,10 @@
       <c r="A26" s="17"/>
       <c r="C26" s="24"/>
       <c r="D26" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG26" s="23"/>
       <c r="BP26" s="22"/>
@@ -6070,7 +6070,7 @@
       <c r="M29" s="94"/>
       <c r="N29" s="95"/>
       <c r="O29" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P29" s="97"/>
       <c r="Q29" s="97"/>
@@ -6208,7 +6208,7 @@
       <c r="M31" s="94"/>
       <c r="N31" s="95"/>
       <c r="O31" s="96" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P31" s="97"/>
       <c r="Q31" s="97"/>
@@ -6272,10 +6272,10 @@
       <c r="A33" s="17"/>
       <c r="C33" s="24"/>
       <c r="D33" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG33" s="23"/>
       <c r="BP33" s="22"/>
@@ -6292,7 +6292,7 @@
       <c r="A35" s="17"/>
       <c r="C35" s="24"/>
       <c r="E35" s="50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -6360,7 +6360,7 @@
       <c r="C36" s="24"/>
       <c r="E36" s="52"/>
       <c r="F36" s="53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -6369,7 +6369,7 @@
       <c r="K36" s="48"/>
       <c r="L36" s="49"/>
       <c r="M36" s="47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
@@ -6429,7 +6429,7 @@
       <c r="C37" s="24"/>
       <c r="E37" s="54"/>
       <c r="F37" s="47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -6438,7 +6438,7 @@
       <c r="K37" s="48"/>
       <c r="L37" s="49"/>
       <c r="M37" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N37" s="48"/>
       <c r="O37" s="48"/>
@@ -6504,10 +6504,10 @@
       <c r="A39" s="17"/>
       <c r="C39" s="24"/>
       <c r="D39" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG39" s="23"/>
       <c r="BP39" s="22"/>
@@ -6524,10 +6524,10 @@
       <c r="A41" s="17"/>
       <c r="C41" s="24"/>
       <c r="D41" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="BP41" s="22"/>
@@ -6625,7 +6625,7 @@
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="104" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P44" s="104"/>
       <c r="Q44" s="104"/>
@@ -6682,7 +6682,7 @@
       <c r="A45" s="17"/>
       <c r="C45" s="24"/>
       <c r="E45" s="102" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F45" s="102"/>
       <c r="G45" s="102"/>
@@ -6694,7 +6694,7 @@
       <c r="M45" s="102"/>
       <c r="N45" s="102"/>
       <c r="O45" s="104" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P45" s="104"/>
       <c r="Q45" s="104"/>
@@ -6763,7 +6763,7 @@
       <c r="M46" s="102"/>
       <c r="N46" s="102"/>
       <c r="O46" s="104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P46" s="104"/>
       <c r="Q46" s="104"/>
@@ -6827,10 +6827,10 @@
       <c r="A48" s="17"/>
       <c r="C48" s="24"/>
       <c r="D48" s="46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AG48" s="23"/>
       <c r="BP48" s="22"/>
@@ -6847,10 +6847,10 @@
       <c r="A50" s="17"/>
       <c r="C50" s="24"/>
       <c r="D50" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AG50" s="23"/>
       <c r="BP50" s="22"/>
@@ -6925,10 +6925,10 @@
       <c r="A52" s="17"/>
       <c r="C52" s="24"/>
       <c r="D52" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -7060,10 +7060,10 @@
       <c r="A54" s="17"/>
       <c r="C54" s="24"/>
       <c r="D54" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -7195,10 +7195,10 @@
       <c r="A56" s="17"/>
       <c r="C56" s="24"/>
       <c r="D56" s="57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="BP56" s="22"/>
       <c r="BQ56" s="15"/>
@@ -7216,10 +7216,10 @@
       <c r="B58" s="14"/>
       <c r="C58" s="24"/>
       <c r="D58" s="58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -26124,14 +26124,14 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C7" s="89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="89"/>
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
       <c r="H7" s="89" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
@@ -26752,7 +26752,7 @@
       <c r="U19" s="82"/>
       <c r="V19" s="82"/>
       <c r="W19" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -27022,7 +27022,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AG24" s="23"/>
@@ -27369,7 +27369,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="14" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="AD31" s="14"/>
       <c r="BP31" s="22"/>
@@ -27385,7 +27385,7 @@
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="25" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -27451,7 +27451,7 @@
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -27877,29 +27877,29 @@
         <v>44</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="42"/>
     </row>

--- a/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
+++ b/交通費申請一覧機能/設計書/サービス基底設計書_サービス基底クラス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A58BC4-E36A-4A4E-978A-843E37A35580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934204F4-BB85-4D3D-AD7F-1B18667412BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_サービス基底クラス" sheetId="2" r:id="rId1"/>
@@ -1402,6 +1402,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,9 +1447,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,36 +1456,61 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1472,22 +1524,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1496,42 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:BO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1866,247 +1866,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="61" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64" t="s">
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64" t="s">
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="65" t="s">
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="65"/>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="66">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="75">
         <v>45519</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="63" t="s">
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="67">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="76">
         <v>45518</v>
       </c>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -2173,215 +2173,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
+      <c r="BO6" s="59"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="68"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="59"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="59"/>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="59"/>
+      <c r="BN7" s="59"/>
+      <c r="BO7" s="59"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68"/>
-      <c r="AK8" s="68"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="68"/>
-      <c r="BO8" s="68"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="59"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="59"/>
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="59"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2434,787 +2434,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="64" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="68" t="s">
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="69" t="s">
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="69"/>
-      <c r="BH11" s="69"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="69"/>
-      <c r="BK11" s="69"/>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="69"/>
-      <c r="BN11" s="69"/>
-      <c r="BO11" s="69"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="61"/>
+      <c r="BJ11" s="61"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="61"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="61"/>
+      <c r="BO11" s="61"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="69"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="69"/>
-      <c r="BK12" s="69"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="69"/>
-      <c r="BN12" s="69"/>
-      <c r="BO12" s="69"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="61"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="61"/>
+      <c r="BK12" s="61"/>
+      <c r="BL12" s="61"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="61"/>
+      <c r="BO12" s="61"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="69"/>
-      <c r="BI13" s="69"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="61"/>
+      <c r="BI13" s="61"/>
+      <c r="BJ13" s="61"/>
+      <c r="BK13" s="61"/>
+      <c r="BL13" s="61"/>
+      <c r="BM13" s="61"/>
+      <c r="BN13" s="61"/>
+      <c r="BO13" s="61"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="76" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="68"/>
+      <c r="BG14" s="68"/>
+      <c r="BH14" s="68"/>
+      <c r="BI14" s="68"/>
+      <c r="BJ14" s="68"/>
+      <c r="BK14" s="68"/>
+      <c r="BL14" s="68"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="68"/>
+      <c r="BO14" s="68"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="69"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
-      <c r="BO15" s="69"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="61"/>
+      <c r="BH15" s="61"/>
+      <c r="BI15" s="61"/>
+      <c r="BJ15" s="61"/>
+      <c r="BK15" s="61"/>
+      <c r="BL15" s="61"/>
+      <c r="BM15" s="61"/>
+      <c r="BN15" s="61"/>
+      <c r="BO15" s="61"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
-      <c r="BF16" s="69"/>
-      <c r="BG16" s="69"/>
-      <c r="BH16" s="69"/>
-      <c r="BI16" s="69"/>
-      <c r="BJ16" s="69"/>
-      <c r="BK16" s="69"/>
-      <c r="BL16" s="69"/>
-      <c r="BM16" s="69"/>
-      <c r="BN16" s="69"/>
-      <c r="BO16" s="69"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="61"/>
+      <c r="BI16" s="61"/>
+      <c r="BJ16" s="61"/>
+      <c r="BK16" s="61"/>
+      <c r="BL16" s="61"/>
+      <c r="BM16" s="61"/>
+      <c r="BN16" s="61"/>
+      <c r="BO16" s="61"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="69"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="69"/>
-      <c r="BN17" s="69"/>
-      <c r="BO17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="61"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="61"/>
+      <c r="BF17" s="61"/>
+      <c r="BG17" s="61"/>
+      <c r="BH17" s="61"/>
+      <c r="BI17" s="61"/>
+      <c r="BJ17" s="61"/>
+      <c r="BK17" s="61"/>
+      <c r="BL17" s="61"/>
+      <c r="BM17" s="61"/>
+      <c r="BN17" s="61"/>
+      <c r="BO17" s="61"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="69"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="69"/>
-      <c r="BG19" s="69"/>
-      <c r="BH19" s="69"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="69"/>
-      <c r="BL19" s="69"/>
-      <c r="BM19" s="69"/>
-      <c r="BN19" s="69"/>
-      <c r="BO19" s="69"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="61"/>
+      <c r="BI19" s="61"/>
+      <c r="BJ19" s="61"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="61"/>
+      <c r="BM19" s="61"/>
+      <c r="BN19" s="61"/>
+      <c r="BO19" s="61"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="69"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="69"/>
-      <c r="BF20" s="69"/>
-      <c r="BG20" s="69"/>
-      <c r="BH20" s="69"/>
-      <c r="BI20" s="69"/>
-      <c r="BJ20" s="69"/>
-      <c r="BK20" s="69"/>
-      <c r="BL20" s="69"/>
-      <c r="BM20" s="69"/>
-      <c r="BN20" s="69"/>
-      <c r="BO20" s="69"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="61"/>
+      <c r="BH20" s="61"/>
+      <c r="BI20" s="61"/>
+      <c r="BJ20" s="61"/>
+      <c r="BK20" s="61"/>
+      <c r="BL20" s="61"/>
+      <c r="BM20" s="61"/>
+      <c r="BN20" s="61"/>
+      <c r="BO20" s="61"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="69"/>
-      <c r="BH21" s="69"/>
-      <c r="BI21" s="69"/>
-      <c r="BJ21" s="69"/>
-      <c r="BK21" s="69"/>
-      <c r="BL21" s="69"/>
-      <c r="BM21" s="69"/>
-      <c r="BN21" s="69"/>
-      <c r="BO21" s="69"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="61"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -3244,742 +3244,742 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64" t="s">
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="69" t="s">
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="68" t="s">
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="68"/>
-      <c r="AK25" s="68"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="68"/>
-      <c r="AO25" s="68"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68" t="s">
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="59"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="59"/>
+      <c r="AU25" s="59"/>
+      <c r="AV25" s="59"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="59"/>
+      <c r="AZ25" s="59"/>
+      <c r="BA25" s="59"/>
+      <c r="BB25" s="59"/>
+      <c r="BC25" s="59"/>
+      <c r="BD25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="68"/>
-      <c r="BO25" s="68"/>
+      <c r="BE25" s="59"/>
+      <c r="BF25" s="59"/>
+      <c r="BG25" s="59"/>
+      <c r="BH25" s="59"/>
+      <c r="BI25" s="59"/>
+      <c r="BJ25" s="59"/>
+      <c r="BK25" s="59"/>
+      <c r="BL25" s="59"/>
+      <c r="BM25" s="59"/>
+      <c r="BN25" s="59"/>
+      <c r="BO25" s="59"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="64">
+      <c r="C26" s="60">
         <v>1</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="73" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="73" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="70" t="s">
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="73" t="s">
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="74"/>
-      <c r="AR26" s="74"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="74"/>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="74"/>
-      <c r="BA26" s="74"/>
-      <c r="BB26" s="74"/>
-      <c r="BC26" s="75"/>
-      <c r="BD26" s="73" t="s">
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="BE26" s="74"/>
-      <c r="BF26" s="74"/>
-      <c r="BG26" s="74"/>
-      <c r="BH26" s="74"/>
-      <c r="BI26" s="74"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="74"/>
-      <c r="BM26" s="74"/>
-      <c r="BN26" s="74"/>
-      <c r="BO26" s="75"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="63"/>
+      <c r="BJ26" s="63"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="63"/>
+      <c r="BO26" s="64"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="64">
+      <c r="C27" s="60">
         <v>2</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
-      <c r="BL27" s="68"/>
-      <c r="BM27" s="68"/>
-      <c r="BN27" s="68"/>
-      <c r="BO27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="59"/>
+      <c r="BD27" s="59"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="59"/>
+      <c r="BG27" s="59"/>
+      <c r="BH27" s="59"/>
+      <c r="BI27" s="59"/>
+      <c r="BJ27" s="59"/>
+      <c r="BK27" s="59"/>
+      <c r="BL27" s="59"/>
+      <c r="BM27" s="59"/>
+      <c r="BN27" s="59"/>
+      <c r="BO27" s="59"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="64">
+      <c r="C28" s="60">
         <v>3</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="68"/>
-      <c r="AL28" s="68"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="68"/>
-      <c r="AO28" s="68"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="68"/>
-      <c r="BG28" s="68"/>
-      <c r="BH28" s="68"/>
-      <c r="BI28" s="68"/>
-      <c r="BJ28" s="68"/>
-      <c r="BK28" s="68"/>
-      <c r="BL28" s="68"/>
-      <c r="BM28" s="68"/>
-      <c r="BN28" s="68"/>
-      <c r="BO28" s="68"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="59"/>
+      <c r="AX28" s="59"/>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="59"/>
+      <c r="BA28" s="59"/>
+      <c r="BB28" s="59"/>
+      <c r="BC28" s="59"/>
+      <c r="BD28" s="59"/>
+      <c r="BE28" s="59"/>
+      <c r="BF28" s="59"/>
+      <c r="BG28" s="59"/>
+      <c r="BH28" s="59"/>
+      <c r="BI28" s="59"/>
+      <c r="BJ28" s="59"/>
+      <c r="BK28" s="59"/>
+      <c r="BL28" s="59"/>
+      <c r="BM28" s="59"/>
+      <c r="BN28" s="59"/>
+      <c r="BO28" s="59"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="64">
+      <c r="C29" s="60">
         <v>4</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="68"/>
-      <c r="AL29" s="68"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="68"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="68"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="68"/>
-      <c r="BI29" s="68"/>
-      <c r="BJ29" s="68"/>
-      <c r="BK29" s="68"/>
-      <c r="BL29" s="68"/>
-      <c r="BM29" s="68"/>
-      <c r="BN29" s="68"/>
-      <c r="BO29" s="68"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="59"/>
+      <c r="BA29" s="59"/>
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="59"/>
+      <c r="BD29" s="59"/>
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="59"/>
+      <c r="BJ29" s="59"/>
+      <c r="BK29" s="59"/>
+      <c r="BL29" s="59"/>
+      <c r="BM29" s="59"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="59"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="64">
+      <c r="C30" s="60">
         <v>5</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="68"/>
-      <c r="AK30" s="68"/>
-      <c r="AL30" s="68"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="68"/>
-      <c r="AO30" s="68"/>
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="68"/>
-      <c r="BF30" s="68"/>
-      <c r="BG30" s="68"/>
-      <c r="BH30" s="68"/>
-      <c r="BI30" s="68"/>
-      <c r="BJ30" s="68"/>
-      <c r="BK30" s="68"/>
-      <c r="BL30" s="68"/>
-      <c r="BM30" s="68"/>
-      <c r="BN30" s="68"/>
-      <c r="BO30" s="68"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
+      <c r="AU30" s="59"/>
+      <c r="AV30" s="59"/>
+      <c r="AW30" s="59"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="59"/>
+      <c r="AZ30" s="59"/>
+      <c r="BA30" s="59"/>
+      <c r="BB30" s="59"/>
+      <c r="BC30" s="59"/>
+      <c r="BD30" s="59"/>
+      <c r="BE30" s="59"/>
+      <c r="BF30" s="59"/>
+      <c r="BG30" s="59"/>
+      <c r="BH30" s="59"/>
+      <c r="BI30" s="59"/>
+      <c r="BJ30" s="59"/>
+      <c r="BK30" s="59"/>
+      <c r="BL30" s="59"/>
+      <c r="BM30" s="59"/>
+      <c r="BN30" s="59"/>
+      <c r="BO30" s="59"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="64">
+      <c r="C31" s="60">
         <v>6</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="68"/>
-      <c r="BH31" s="68"/>
-      <c r="BI31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BK31" s="68"/>
-      <c r="BL31" s="68"/>
-      <c r="BM31" s="68"/>
-      <c r="BN31" s="68"/>
-      <c r="BO31" s="68"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="59"/>
+      <c r="AV31" s="59"/>
+      <c r="AW31" s="59"/>
+      <c r="AX31" s="59"/>
+      <c r="AY31" s="59"/>
+      <c r="AZ31" s="59"/>
+      <c r="BA31" s="59"/>
+      <c r="BB31" s="59"/>
+      <c r="BC31" s="59"/>
+      <c r="BD31" s="59"/>
+      <c r="BE31" s="59"/>
+      <c r="BF31" s="59"/>
+      <c r="BG31" s="59"/>
+      <c r="BH31" s="59"/>
+      <c r="BI31" s="59"/>
+      <c r="BJ31" s="59"/>
+      <c r="BK31" s="59"/>
+      <c r="BL31" s="59"/>
+      <c r="BM31" s="59"/>
+      <c r="BN31" s="59"/>
+      <c r="BO31" s="59"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="64">
+      <c r="C32" s="60">
         <v>7</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="68"/>
-      <c r="BH32" s="68"/>
-      <c r="BI32" s="68"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="68"/>
-      <c r="BL32" s="68"/>
-      <c r="BM32" s="68"/>
-      <c r="BN32" s="68"/>
-      <c r="BO32" s="68"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="59"/>
+      <c r="AV32" s="59"/>
+      <c r="AW32" s="59"/>
+      <c r="AX32" s="59"/>
+      <c r="AY32" s="59"/>
+      <c r="AZ32" s="59"/>
+      <c r="BA32" s="59"/>
+      <c r="BB32" s="59"/>
+      <c r="BC32" s="59"/>
+      <c r="BD32" s="59"/>
+      <c r="BE32" s="59"/>
+      <c r="BF32" s="59"/>
+      <c r="BG32" s="59"/>
+      <c r="BH32" s="59"/>
+      <c r="BI32" s="59"/>
+      <c r="BJ32" s="59"/>
+      <c r="BK32" s="59"/>
+      <c r="BL32" s="59"/>
+      <c r="BM32" s="59"/>
+      <c r="BN32" s="59"/>
+      <c r="BO32" s="59"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="64">
+      <c r="C33" s="60">
         <v>8</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="68"/>
-      <c r="BH33" s="68"/>
-      <c r="BI33" s="68"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="68"/>
-      <c r="BL33" s="68"/>
-      <c r="BM33" s="68"/>
-      <c r="BN33" s="68"/>
-      <c r="BO33" s="68"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
+      <c r="AU33" s="59"/>
+      <c r="AV33" s="59"/>
+      <c r="AW33" s="59"/>
+      <c r="AX33" s="59"/>
+      <c r="AY33" s="59"/>
+      <c r="AZ33" s="59"/>
+      <c r="BA33" s="59"/>
+      <c r="BB33" s="59"/>
+      <c r="BC33" s="59"/>
+      <c r="BD33" s="59"/>
+      <c r="BE33" s="59"/>
+      <c r="BF33" s="59"/>
+      <c r="BG33" s="59"/>
+      <c r="BH33" s="59"/>
+      <c r="BI33" s="59"/>
+      <c r="BJ33" s="59"/>
+      <c r="BK33" s="59"/>
+      <c r="BL33" s="59"/>
+      <c r="BM33" s="59"/>
+      <c r="BN33" s="59"/>
+      <c r="BO33" s="59"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="64">
+      <c r="C34" s="60">
         <v>9</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
-      <c r="AR34" s="68"/>
-      <c r="AS34" s="68"/>
-      <c r="AT34" s="68"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="68"/>
-      <c r="BI34" s="68"/>
-      <c r="BJ34" s="68"/>
-      <c r="BK34" s="68"/>
-      <c r="BL34" s="68"/>
-      <c r="BM34" s="68"/>
-      <c r="BN34" s="68"/>
-      <c r="BO34" s="68"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="59"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="59"/>
+      <c r="BA34" s="59"/>
+      <c r="BB34" s="59"/>
+      <c r="BC34" s="59"/>
+      <c r="BD34" s="59"/>
+      <c r="BE34" s="59"/>
+      <c r="BF34" s="59"/>
+      <c r="BG34" s="59"/>
+      <c r="BH34" s="59"/>
+      <c r="BI34" s="59"/>
+      <c r="BJ34" s="59"/>
+      <c r="BK34" s="59"/>
+      <c r="BL34" s="59"/>
+      <c r="BM34" s="59"/>
+      <c r="BN34" s="59"/>
+      <c r="BO34" s="59"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4578,42 +4578,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4630,48 +4636,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4693,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52DE973-A8E6-4741-91B2-5EEB95E5F33A}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27:BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4710,247 +4710,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="97" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="98" t="s">
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="98"/>
-      <c r="BH1" s="98"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="98"/>
-      <c r="BN1" s="98"/>
-      <c r="BO1" s="98"/>
-      <c r="BP1" s="98"/>
-      <c r="BQ1" s="98"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="87" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87" t="s">
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87" t="s">
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="101" t="s">
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="102" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103">
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="86">
         <v>45510</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="102" t="s">
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="104">
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="85">
         <v>45533</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BK3" s="85"/>
+      <c r="BL3" s="85"/>
+      <c r="BM3" s="85"/>
+      <c r="BN3" s="85"/>
+      <c r="BO3" s="85"/>
+      <c r="BP3" s="85"/>
+      <c r="BQ3" s="85"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4975,96 +4975,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89" t="s">
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="94" t="s">
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="95" t="s">
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="95"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
+      <c r="BL6" s="88"/>
+      <c r="BM6" s="88"/>
+      <c r="BN6" s="88"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="88"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="41" t="s">
         <v>51</v>
       </c>
@@ -5095,34 +5095,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
+      <c r="AO7" s="88"/>
+      <c r="AP7" s="88"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="88"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="88"/>
+      <c r="BJ7" s="88"/>
+      <c r="BK7" s="88"/>
+      <c r="BL7" s="88"/>
+      <c r="BM7" s="88"/>
+      <c r="BN7" s="88"/>
+      <c r="BO7" s="88"/>
+      <c r="BP7" s="88"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -5136,89 +5136,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="87" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="89" t="s">
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89" t="s">
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="90"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="90"/>
+      <c r="BP10" s="90"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -5234,11 +5234,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -5288,12 +5288,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -5307,9 +5307,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5358,12 +5358,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5377,9 +5377,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5428,12 +5428,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5447,9 +5447,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5498,12 +5498,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5517,9 +5517,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5579,88 +5579,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="89" t="s">
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89" t="s">
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="90"/>
+      <c r="BA18" s="90"/>
+      <c r="BB18" s="90"/>
+      <c r="BC18" s="90"/>
+      <c r="BD18" s="90"/>
+      <c r="BE18" s="90"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="90"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="90"/>
+      <c r="BJ18" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="89"/>
-      <c r="BN18" s="89"/>
-      <c r="BO18" s="89"/>
-      <c r="BP18" s="89"/>
+      <c r="BK18" s="90"/>
+      <c r="BL18" s="90"/>
+      <c r="BM18" s="90"/>
+      <c r="BN18" s="90"/>
+      <c r="BO18" s="90"/>
+      <c r="BP18" s="90"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="41" t="s">
         <v>118</v>
       </c>
@@ -5676,9 +5676,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
       <c r="W19" s="40" t="s">
         <v>75</v>
       </c>
@@ -5965,270 +5965,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="85" t="s">
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="85"/>
-      <c r="AN26" s="85"/>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="85"/>
-      <c r="AU26" s="85"/>
-      <c r="AV26" s="85"/>
-      <c r="AW26" s="85"/>
-      <c r="AX26" s="85"/>
-      <c r="AY26" s="85"/>
-      <c r="AZ26" s="85"/>
-      <c r="BA26" s="85"/>
-      <c r="BB26" s="85"/>
-      <c r="BC26" s="85"/>
-      <c r="BD26" s="85"/>
-      <c r="BE26" s="85"/>
-      <c r="BF26" s="85"/>
-      <c r="BG26" s="85"/>
-      <c r="BH26" s="85"/>
-      <c r="BI26" s="85"/>
-      <c r="BJ26" s="85"/>
-      <c r="BK26" s="85"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="95"/>
+      <c r="AM26" s="95"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="95"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="95"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="95"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="95"/>
+      <c r="BA26" s="95"/>
+      <c r="BB26" s="95"/>
+      <c r="BC26" s="95"/>
+      <c r="BD26" s="95"/>
+      <c r="BE26" s="95"/>
+      <c r="BF26" s="95"/>
+      <c r="BG26" s="95"/>
+      <c r="BH26" s="95"/>
+      <c r="BI26" s="95"/>
+      <c r="BJ26" s="95"/>
+      <c r="BK26" s="95"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="78" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
-      <c r="AZ27" s="78"/>
-      <c r="BA27" s="78"/>
-      <c r="BB27" s="78"/>
-      <c r="BC27" s="78"/>
-      <c r="BD27" s="78"/>
-      <c r="BE27" s="78"/>
-      <c r="BF27" s="78"/>
-      <c r="BG27" s="78"/>
-      <c r="BH27" s="78"/>
-      <c r="BI27" s="78"/>
-      <c r="BJ27" s="78"/>
-      <c r="BK27" s="78"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="94"/>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="94"/>
+      <c r="AP27" s="94"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="94"/>
+      <c r="BB27" s="94"/>
+      <c r="BC27" s="94"/>
+      <c r="BD27" s="94"/>
+      <c r="BE27" s="94"/>
+      <c r="BF27" s="94"/>
+      <c r="BG27" s="94"/>
+      <c r="BH27" s="94"/>
+      <c r="BI27" s="94"/>
+      <c r="BJ27" s="94"/>
+      <c r="BK27" s="94"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78" t="s">
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="78"/>
-      <c r="AZ28" s="78"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="78"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="78"/>
-      <c r="BI28" s="78"/>
-      <c r="BJ28" s="78"/>
-      <c r="BK28" s="78"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="94"/>
+      <c r="AO28" s="94"/>
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="94"/>
+      <c r="BB28" s="94"/>
+      <c r="BC28" s="94"/>
+      <c r="BD28" s="94"/>
+      <c r="BE28" s="94"/>
+      <c r="BF28" s="94"/>
+      <c r="BG28" s="94"/>
+      <c r="BH28" s="94"/>
+      <c r="BI28" s="94"/>
+      <c r="BJ28" s="94"/>
+      <c r="BK28" s="94"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="78" t="s">
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="78"/>
-      <c r="AK29" s="78"/>
-      <c r="AL29" s="78"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="78"/>
-      <c r="AQ29" s="78"/>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="78"/>
-      <c r="AZ29" s="78"/>
-      <c r="BA29" s="78"/>
-      <c r="BB29" s="78"/>
-      <c r="BC29" s="78"/>
-      <c r="BD29" s="78"/>
-      <c r="BE29" s="78"/>
-      <c r="BF29" s="78"/>
-      <c r="BG29" s="78"/>
-      <c r="BH29" s="78"/>
-      <c r="BI29" s="78"/>
-      <c r="BJ29" s="78"/>
-      <c r="BK29" s="78"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="94"/>
+      <c r="AI29" s="94"/>
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="94"/>
+      <c r="AZ29" s="94"/>
+      <c r="BA29" s="94"/>
+      <c r="BB29" s="94"/>
+      <c r="BC29" s="94"/>
+      <c r="BD29" s="94"/>
+      <c r="BE29" s="94"/>
+      <c r="BF29" s="94"/>
+      <c r="BG29" s="94"/>
+      <c r="BH29" s="94"/>
+      <c r="BI29" s="94"/>
+      <c r="BJ29" s="94"/>
+      <c r="BK29" s="94"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -6716,26 +6716,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6752,21 +6747,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6815,237 +6815,237 @@
       <c r="F1" s="96"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="98" t="s">
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="98"/>
-      <c r="BH1" s="98"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="98"/>
-      <c r="BN1" s="98"/>
-      <c r="BO1" s="98"/>
-      <c r="BP1" s="98"/>
-      <c r="BQ1" s="98"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="87" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87" t="s">
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87" t="s">
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="101" t="s">
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="102" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103">
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="86">
         <v>414404</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="102" t="s">
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="104" t="s">
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BK3" s="85"/>
+      <c r="BL3" s="85"/>
+      <c r="BM3" s="85"/>
+      <c r="BN3" s="85"/>
+      <c r="BO3" s="85"/>
+      <c r="BP3" s="85"/>
+      <c r="BQ3" s="85"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -7070,96 +7070,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89" t="s">
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="94" t="s">
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="95" t="s">
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="95"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
+      <c r="BL6" s="88"/>
+      <c r="BM6" s="88"/>
+      <c r="BN6" s="88"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="88"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="41" t="s">
         <v>77</v>
       </c>
@@ -7190,34 +7190,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
+      <c r="AO7" s="88"/>
+      <c r="AP7" s="88"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="88"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="88"/>
+      <c r="BJ7" s="88"/>
+      <c r="BK7" s="88"/>
+      <c r="BL7" s="88"/>
+      <c r="BM7" s="88"/>
+      <c r="BN7" s="88"/>
+      <c r="BO7" s="88"/>
+      <c r="BP7" s="88"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -7231,89 +7231,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="87" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="89" t="s">
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89" t="s">
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="90"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="90"/>
+      <c r="BP10" s="90"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -7329,11 +7329,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -7383,12 +7383,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -7402,9 +7402,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -7453,12 +7453,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -7472,9 +7472,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -7523,12 +7523,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -7542,9 +7542,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -7593,12 +7593,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -7612,9 +7612,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -7674,88 +7674,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="89" t="s">
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89" t="s">
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="90"/>
+      <c r="BA18" s="90"/>
+      <c r="BB18" s="90"/>
+      <c r="BC18" s="90"/>
+      <c r="BD18" s="90"/>
+      <c r="BE18" s="90"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="90"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="90"/>
+      <c r="BJ18" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="89"/>
-      <c r="BN18" s="89"/>
-      <c r="BO18" s="89"/>
-      <c r="BP18" s="89"/>
+      <c r="BK18" s="90"/>
+      <c r="BL18" s="90"/>
+      <c r="BM18" s="90"/>
+      <c r="BN18" s="90"/>
+      <c r="BO18" s="90"/>
+      <c r="BP18" s="90"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="41" t="s">
         <v>102</v>
       </c>
@@ -7771,9 +7771,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
       <c r="W19" s="40" t="s">
         <v>78</v>
       </c>
@@ -8084,276 +8084,276 @@
     <row r="28" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="C28" s="24"/>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="91" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="92"/>
-      <c r="AO28" s="92"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="92"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="93"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="104"/>
+      <c r="AL28" s="104"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="104"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="104"/>
+      <c r="AR28" s="104"/>
+      <c r="AS28" s="104"/>
+      <c r="AT28" s="104"/>
+      <c r="AU28" s="104"/>
+      <c r="AV28" s="104"/>
+      <c r="AW28" s="104"/>
+      <c r="AX28" s="104"/>
+      <c r="AY28" s="104"/>
+      <c r="AZ28" s="104"/>
+      <c r="BA28" s="104"/>
+      <c r="BB28" s="104"/>
+      <c r="BC28" s="104"/>
+      <c r="BD28" s="104"/>
+      <c r="BE28" s="104"/>
+      <c r="BF28" s="104"/>
+      <c r="BG28" s="104"/>
+      <c r="BH28" s="104"/>
+      <c r="BI28" s="104"/>
+      <c r="BJ28" s="104"/>
+      <c r="BK28" s="105"/>
       <c r="BP28" s="22"/>
       <c r="BQ28" s="15"/>
     </row>
     <row r="29" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="C29" s="24"/>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="82" t="s">
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="83"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="83"/>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="83"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="83"/>
-      <c r="BB29" s="83"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="83"/>
-      <c r="BE29" s="83"/>
-      <c r="BF29" s="83"/>
-      <c r="BG29" s="83"/>
-      <c r="BH29" s="83"/>
-      <c r="BI29" s="83"/>
-      <c r="BJ29" s="83"/>
-      <c r="BK29" s="84"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="101"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="101"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="101"/>
+      <c r="AQ29" s="101"/>
+      <c r="AR29" s="101"/>
+      <c r="AS29" s="101"/>
+      <c r="AT29" s="101"/>
+      <c r="AU29" s="101"/>
+      <c r="AV29" s="101"/>
+      <c r="AW29" s="101"/>
+      <c r="AX29" s="101"/>
+      <c r="AY29" s="101"/>
+      <c r="AZ29" s="101"/>
+      <c r="BA29" s="101"/>
+      <c r="BB29" s="101"/>
+      <c r="BC29" s="101"/>
+      <c r="BD29" s="101"/>
+      <c r="BE29" s="101"/>
+      <c r="BF29" s="101"/>
+      <c r="BG29" s="101"/>
+      <c r="BH29" s="101"/>
+      <c r="BI29" s="101"/>
+      <c r="BJ29" s="101"/>
+      <c r="BK29" s="102"/>
       <c r="BP29" s="22"/>
       <c r="BQ29" s="15"/>
     </row>
     <row r="30" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="C30" s="24"/>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="82" t="s">
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="83"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="83"/>
-      <c r="AO30" s="83"/>
-      <c r="AP30" s="83"/>
-      <c r="AQ30" s="83"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="83"/>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="83"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="83"/>
-      <c r="BA30" s="83"/>
-      <c r="BB30" s="83"/>
-      <c r="BC30" s="83"/>
-      <c r="BD30" s="83"/>
-      <c r="BE30" s="83"/>
-      <c r="BF30" s="83"/>
-      <c r="BG30" s="83"/>
-      <c r="BH30" s="83"/>
-      <c r="BI30" s="83"/>
-      <c r="BJ30" s="83"/>
-      <c r="BK30" s="84"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="101"/>
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="101"/>
+      <c r="AQ30" s="101"/>
+      <c r="AR30" s="101"/>
+      <c r="AS30" s="101"/>
+      <c r="AT30" s="101"/>
+      <c r="AU30" s="101"/>
+      <c r="AV30" s="101"/>
+      <c r="AW30" s="101"/>
+      <c r="AX30" s="101"/>
+      <c r="AY30" s="101"/>
+      <c r="AZ30" s="101"/>
+      <c r="BA30" s="101"/>
+      <c r="BB30" s="101"/>
+      <c r="BC30" s="101"/>
+      <c r="BD30" s="101"/>
+      <c r="BE30" s="101"/>
+      <c r="BF30" s="101"/>
+      <c r="BG30" s="101"/>
+      <c r="BH30" s="101"/>
+      <c r="BI30" s="101"/>
+      <c r="BJ30" s="101"/>
+      <c r="BK30" s="102"/>
       <c r="BP30" s="22"/>
       <c r="BQ30" s="15"/>
     </row>
     <row r="31" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="C31" s="24"/>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="82" t="s">
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="83"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="83"/>
-      <c r="AI31" s="83"/>
-      <c r="AJ31" s="83"/>
-      <c r="AK31" s="83"/>
-      <c r="AL31" s="83"/>
-      <c r="AM31" s="83"/>
-      <c r="AN31" s="83"/>
-      <c r="AO31" s="83"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="83"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="83"/>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="83"/>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="83"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="83"/>
-      <c r="BA31" s="83"/>
-      <c r="BB31" s="83"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="83"/>
-      <c r="BE31" s="83"/>
-      <c r="BF31" s="83"/>
-      <c r="BG31" s="83"/>
-      <c r="BH31" s="83"/>
-      <c r="BI31" s="83"/>
-      <c r="BJ31" s="83"/>
-      <c r="BK31" s="84"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="101"/>
+      <c r="AJ31" s="101"/>
+      <c r="AK31" s="101"/>
+      <c r="AL31" s="101"/>
+      <c r="AM31" s="101"/>
+      <c r="AN31" s="101"/>
+      <c r="AO31" s="101"/>
+      <c r="AP31" s="101"/>
+      <c r="AQ31" s="101"/>
+      <c r="AR31" s="101"/>
+      <c r="AS31" s="101"/>
+      <c r="AT31" s="101"/>
+      <c r="AU31" s="101"/>
+      <c r="AV31" s="101"/>
+      <c r="AW31" s="101"/>
+      <c r="AX31" s="101"/>
+      <c r="AY31" s="101"/>
+      <c r="AZ31" s="101"/>
+      <c r="BA31" s="101"/>
+      <c r="BB31" s="101"/>
+      <c r="BC31" s="101"/>
+      <c r="BD31" s="101"/>
+      <c r="BE31" s="101"/>
+      <c r="BF31" s="101"/>
+      <c r="BG31" s="101"/>
+      <c r="BH31" s="101"/>
+      <c r="BI31" s="101"/>
+      <c r="BJ31" s="101"/>
+      <c r="BK31" s="102"/>
       <c r="BP31" s="22"/>
       <c r="BQ31" s="15"/>
     </row>
@@ -8639,276 +8639,276 @@
     <row r="43" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="C43" s="24"/>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="85" t="s">
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="85"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="85"/>
-      <c r="AE43" s="85"/>
-      <c r="AF43" s="85"/>
-      <c r="AG43" s="85"/>
-      <c r="AH43" s="85"/>
-      <c r="AI43" s="85"/>
-      <c r="AJ43" s="85"/>
-      <c r="AK43" s="85"/>
-      <c r="AL43" s="85"/>
-      <c r="AM43" s="85"/>
-      <c r="AN43" s="85"/>
-      <c r="AO43" s="85"/>
-      <c r="AP43" s="85"/>
-      <c r="AQ43" s="85"/>
-      <c r="AR43" s="85"/>
-      <c r="AS43" s="85"/>
-      <c r="AT43" s="85"/>
-      <c r="AU43" s="85"/>
-      <c r="AV43" s="85"/>
-      <c r="AW43" s="85"/>
-      <c r="AX43" s="85"/>
-      <c r="AY43" s="85"/>
-      <c r="AZ43" s="85"/>
-      <c r="BA43" s="85"/>
-      <c r="BB43" s="85"/>
-      <c r="BC43" s="85"/>
-      <c r="BD43" s="85"/>
-      <c r="BE43" s="85"/>
-      <c r="BF43" s="85"/>
-      <c r="BG43" s="85"/>
-      <c r="BH43" s="85"/>
-      <c r="BI43" s="85"/>
-      <c r="BJ43" s="85"/>
-      <c r="BK43" s="85"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="95"/>
+      <c r="AO43" s="95"/>
+      <c r="AP43" s="95"/>
+      <c r="AQ43" s="95"/>
+      <c r="AR43" s="95"/>
+      <c r="AS43" s="95"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="95"/>
+      <c r="AV43" s="95"/>
+      <c r="AW43" s="95"/>
+      <c r="AX43" s="95"/>
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BF43" s="95"/>
+      <c r="BG43" s="95"/>
+      <c r="BH43" s="95"/>
+      <c r="BI43" s="95"/>
+      <c r="BJ43" s="95"/>
+      <c r="BK43" s="95"/>
       <c r="BP43" s="22"/>
       <c r="BQ43" s="15"/>
     </row>
     <row r="44" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="C44" s="24"/>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="78" t="s">
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="78"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="78"/>
-      <c r="AT44" s="78"/>
-      <c r="AU44" s="78"/>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AY44" s="78"/>
-      <c r="AZ44" s="78"/>
-      <c r="BA44" s="78"/>
-      <c r="BB44" s="78"/>
-      <c r="BC44" s="78"/>
-      <c r="BD44" s="78"/>
-      <c r="BE44" s="78"/>
-      <c r="BF44" s="78"/>
-      <c r="BG44" s="78"/>
-      <c r="BH44" s="78"/>
-      <c r="BI44" s="78"/>
-      <c r="BJ44" s="78"/>
-      <c r="BK44" s="78"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="94"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="94"/>
+      <c r="AG44" s="94"/>
+      <c r="AH44" s="94"/>
+      <c r="AI44" s="94"/>
+      <c r="AJ44" s="94"/>
+      <c r="AK44" s="94"/>
+      <c r="AL44" s="94"/>
+      <c r="AM44" s="94"/>
+      <c r="AN44" s="94"/>
+      <c r="AO44" s="94"/>
+      <c r="AP44" s="94"/>
+      <c r="AQ44" s="94"/>
+      <c r="AR44" s="94"/>
+      <c r="AS44" s="94"/>
+      <c r="AT44" s="94"/>
+      <c r="AU44" s="94"/>
+      <c r="AV44" s="94"/>
+      <c r="AW44" s="94"/>
+      <c r="AX44" s="94"/>
+      <c r="AY44" s="94"/>
+      <c r="AZ44" s="94"/>
+      <c r="BA44" s="94"/>
+      <c r="BB44" s="94"/>
+      <c r="BC44" s="94"/>
+      <c r="BD44" s="94"/>
+      <c r="BE44" s="94"/>
+      <c r="BF44" s="94"/>
+      <c r="BG44" s="94"/>
+      <c r="BH44" s="94"/>
+      <c r="BI44" s="94"/>
+      <c r="BJ44" s="94"/>
+      <c r="BK44" s="94"/>
       <c r="BP44" s="22"/>
       <c r="BQ44" s="15"/>
     </row>
     <row r="45" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="C45" s="24"/>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="78" t="s">
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="78"/>
-      <c r="AA45" s="78"/>
-      <c r="AB45" s="78"/>
-      <c r="AC45" s="78"/>
-      <c r="AD45" s="78"/>
-      <c r="AE45" s="78"/>
-      <c r="AF45" s="78"/>
-      <c r="AG45" s="78"/>
-      <c r="AH45" s="78"/>
-      <c r="AI45" s="78"/>
-      <c r="AJ45" s="78"/>
-      <c r="AK45" s="78"/>
-      <c r="AL45" s="78"/>
-      <c r="AM45" s="78"/>
-      <c r="AN45" s="78"/>
-      <c r="AO45" s="78"/>
-      <c r="AP45" s="78"/>
-      <c r="AQ45" s="78"/>
-      <c r="AR45" s="78"/>
-      <c r="AS45" s="78"/>
-      <c r="AT45" s="78"/>
-      <c r="AU45" s="78"/>
-      <c r="AV45" s="78"/>
-      <c r="AW45" s="78"/>
-      <c r="AX45" s="78"/>
-      <c r="AY45" s="78"/>
-      <c r="AZ45" s="78"/>
-      <c r="BA45" s="78"/>
-      <c r="BB45" s="78"/>
-      <c r="BC45" s="78"/>
-      <c r="BD45" s="78"/>
-      <c r="BE45" s="78"/>
-      <c r="BF45" s="78"/>
-      <c r="BG45" s="78"/>
-      <c r="BH45" s="78"/>
-      <c r="BI45" s="78"/>
-      <c r="BJ45" s="78"/>
-      <c r="BK45" s="78"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="94"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="94"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94"/>
+      <c r="AD45" s="94"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="94"/>
+      <c r="AG45" s="94"/>
+      <c r="AH45" s="94"/>
+      <c r="AI45" s="94"/>
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="94"/>
+      <c r="AL45" s="94"/>
+      <c r="AM45" s="94"/>
+      <c r="AN45" s="94"/>
+      <c r="AO45" s="94"/>
+      <c r="AP45" s="94"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="94"/>
+      <c r="AS45" s="94"/>
+      <c r="AT45" s="94"/>
+      <c r="AU45" s="94"/>
+      <c r="AV45" s="94"/>
+      <c r="AW45" s="94"/>
+      <c r="AX45" s="94"/>
+      <c r="AY45" s="94"/>
+      <c r="AZ45" s="94"/>
+      <c r="BA45" s="94"/>
+      <c r="BB45" s="94"/>
+      <c r="BC45" s="94"/>
+      <c r="BD45" s="94"/>
+      <c r="BE45" s="94"/>
+      <c r="BF45" s="94"/>
+      <c r="BG45" s="94"/>
+      <c r="BH45" s="94"/>
+      <c r="BI45" s="94"/>
+      <c r="BJ45" s="94"/>
+      <c r="BK45" s="94"/>
       <c r="BP45" s="22"/>
       <c r="BQ45" s="15"/>
     </row>
     <row r="46" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="C46" s="24"/>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="78" t="s">
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="78"/>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="78"/>
-      <c r="AB46" s="78"/>
-      <c r="AC46" s="78"/>
-      <c r="AD46" s="78"/>
-      <c r="AE46" s="78"/>
-      <c r="AF46" s="78"/>
-      <c r="AG46" s="78"/>
-      <c r="AH46" s="78"/>
-      <c r="AI46" s="78"/>
-      <c r="AJ46" s="78"/>
-      <c r="AK46" s="78"/>
-      <c r="AL46" s="78"/>
-      <c r="AM46" s="78"/>
-      <c r="AN46" s="78"/>
-      <c r="AO46" s="78"/>
-      <c r="AP46" s="78"/>
-      <c r="AQ46" s="78"/>
-      <c r="AR46" s="78"/>
-      <c r="AS46" s="78"/>
-      <c r="AT46" s="78"/>
-      <c r="AU46" s="78"/>
-      <c r="AV46" s="78"/>
-      <c r="AW46" s="78"/>
-      <c r="AX46" s="78"/>
-      <c r="AY46" s="78"/>
-      <c r="AZ46" s="78"/>
-      <c r="BA46" s="78"/>
-      <c r="BB46" s="78"/>
-      <c r="BC46" s="78"/>
-      <c r="BD46" s="78"/>
-      <c r="BE46" s="78"/>
-      <c r="BF46" s="78"/>
-      <c r="BG46" s="78"/>
-      <c r="BH46" s="78"/>
-      <c r="BI46" s="78"/>
-      <c r="BJ46" s="78"/>
-      <c r="BK46" s="78"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="94"/>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="94"/>
+      <c r="AG46" s="94"/>
+      <c r="AH46" s="94"/>
+      <c r="AI46" s="94"/>
+      <c r="AJ46" s="94"/>
+      <c r="AK46" s="94"/>
+      <c r="AL46" s="94"/>
+      <c r="AM46" s="94"/>
+      <c r="AN46" s="94"/>
+      <c r="AO46" s="94"/>
+      <c r="AP46" s="94"/>
+      <c r="AQ46" s="94"/>
+      <c r="AR46" s="94"/>
+      <c r="AS46" s="94"/>
+      <c r="AT46" s="94"/>
+      <c r="AU46" s="94"/>
+      <c r="AV46" s="94"/>
+      <c r="AW46" s="94"/>
+      <c r="AX46" s="94"/>
+      <c r="AY46" s="94"/>
+      <c r="AZ46" s="94"/>
+      <c r="BA46" s="94"/>
+      <c r="BB46" s="94"/>
+      <c r="BC46" s="94"/>
+      <c r="BD46" s="94"/>
+      <c r="BE46" s="94"/>
+      <c r="BF46" s="94"/>
+      <c r="BG46" s="94"/>
+      <c r="BH46" s="94"/>
+      <c r="BI46" s="94"/>
+      <c r="BJ46" s="94"/>
+      <c r="BK46" s="94"/>
       <c r="BP46" s="22"/>
       <c r="BQ46" s="15"/>
     </row>
@@ -27781,38 +27781,18 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="O44:BK44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:BK45"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="O46:BK46"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="O30:BK30"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="O31:BK31"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:BK43"/>
     <mergeCell ref="E29:N29"/>
     <mergeCell ref="O29:BK29"/>
     <mergeCell ref="C14:F14"/>
@@ -27828,18 +27808,38 @@
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="E28:N28"/>
     <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="O30:BK30"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="O31:BK31"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:BK43"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="O44:BK44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:BK45"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="O46:BK46"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
